--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="325">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -758,6 +758,317 @@
   </si>
   <si>
     <t xml:space="preserve">A China, apesar de não ser uma democracia, é mais bem organizada e governada com mais eficiência do que a Índia. A Índia é varrida por insurreições violentas (naxalitas/maoístas no Centro e Leste) e seus ministérios são lentos e arbitrários, refletindo a falta de uma base natural para uma unidade política precoce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relações Institucionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behaviorismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagem do estudo da ciência social e das relações internacionais segundo a qual indivíduos e unidades (como os Estados) agem de modo regular; induz à crença de que os comportamentos podem ser descritos, explicados e previstos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema econômico no qual a propriedade dos meios de produção está em mãos de particulares; o sistema funciona de acordo com forças de mercado, pelas quais o capital e o trabalho movimentam-se livremente; segundo os radicais, uma relação de exploração entre os proprietários da produção e os trabalhadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conselho de segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dos órgãos mais importantes das Nações Unidas, que tem sob sua responsabilidade questões de paz e segurança; é formado por 5 membros permanentes com poder de veto e 10 membros não permanentes, escolhidos entre os integrantes da Assembleia Geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consenso de Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crença liberal de que somente políticas econômicas liberais
+específicas, em especial a privatização, podem resultar em desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construtivismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria alternativa de relações internacionais baseada na hipótese de que ideias, normas e instituições moldam a identidade e interesses do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política externa cuja intenção é impedir a expansão de um adversário mediante o bloqueio de suas oportunidades de expansão, mediante o apoio a Estados mais fracos por meio de programas de ajuda externa. Só ocorre uso de força de coerção contra o adversário para refrear qualquer tentativa sua de expansão física; foi a principal política dos Estados Unidos em relação à União Soviética durante a era da Guerra Fria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilema do prisioneiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogo teórico no qual participantes racionais (Estados ou indivíduos) escolhem opções que levam a resultados (vantagens) tais que todos saem pior do que sairiam sob um conjunto diferente de escolhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilema da segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação na qual um Estado aprimora seus recursos militares, em especial suas defesas, e tal aprimoramento é percebido por outros Estados como uma ameaça; cada Estado em um sistema internacional anárquico se empenha em aumentar seu próprio nível de proteção, provocando insegurança em outros, o que com frequência resulta em uma corrida armamentista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Détente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A flexibilização de relações tensas; no contexto deste volume, refere-se ao
+relaxamento e revisão de avaliações de ameaças por rivais políticos – caso, por
+exemplo, dos Estados Unidos e da União Soviética durante os últimos anos da
+Guerra Fria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplomacia de segunda via</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativas não oficiais, por parte de indivíduos privados
+ou grupos, no intuito de tentar resolver uma crise internacional ou guerra civil em
+Curso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplomacia de celebridades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de indivíduos populares para ao mesmo tempo
+chamar a atenção para determinada questão e/ou tentar influenciar tanto o público
+quanto os tomadores de decisões, induzindo-os a seguir certo curso de ação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplomacia pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização de certos métodos diplomáticos para criar uma imagem
+favorável do Estado ou de seu povo aos olhos de outros Estados e seus públicos;
+entre eles figuram, por exemplo, excursões de boa vontade, intercâmbio cultural e de
+estudantes e apresentações em meios de comunicação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efeito dominó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metáfora que postula que a perda de influência sobre determinado Estado para um Estado adversário levará necessariamente a uma perda subsequente de controle sobre os Estados vizinhos, como dominós que caem um após o outro; usada pelos Estados Unidos como justificativa para apoiar o Vietnã do Sul, temendo que, se esse país se tornasse comunista, os vizinhos também cairiam sob influência
+comunista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado falido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado caracterizado por um governo ineficaz ou inexistente, ilegalidade
+generalizada, em geral acompanhada de insurgência e crime; situação em que as
+autoridades estatais deixam de proteger seu próprio povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externalidades negativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termo usado em economia para se referir a consequências
+não intencionais e daninhas (prejudiciais) de uma transação; em termos políticos,
+uma externalidade negativa de um governo falido pode ser a existência de
+refugiados; em contrainsurgência, uma externalidade negativa para um governo
+oficial que enfrente insurgentes pode ser a intensificação do recrutamento por parte
+de grupos terroristas, em decorrência de danos causados, de modo deliberado ou
+não, a não combatentes em áreas disputadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política e prática de estender a dominação de um Estado sobre outro por
+meio da conquista territorial ou dominação econômica; no radicalismo, o estágio
+final de expansão do sistema capitalista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institucionalismo neoliberal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinterpretação do liberalismo que postula que, mesmo
+em um sistema internacional anárquico, os Estados vão cooperar em razão de suas
+interações contínuas entre si e porque é de seu interesse fazê-lo; as instituições
+constituem a estrutura para interações cooperativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectiva teórica baseada nas premissas da bondade inata do indivíduo
+e do valor das instituições políticas na promoção do progresso social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimentos Etnonacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participação em atividade política organizada de
+comunidades autoconscientes que compartilham determinada afiliação étnica; certos
+movimentos buscam autonomia dentro de um Estado organizado, ao passo que
+outros desejam a separação e a formação de um novo Estado; outros, ainda, querem
+juntar-se a um Estado diferente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimentos transnacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos de pessoas de diferentes Estados que
+compartilham crenças religiosas, ideológicas ou políticas e trabalham em conjunto
+para mudar o status quo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilateralismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condução de atividade internacional por três ou mais Estados, de
+acordo com princípios gerais comuns – muitas vezes, mas nem sempre, através de
+instituições internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devoção e fidelidade à nação e às características compartilhadas de seus
+povos; usado para motivar as pessoas a praticar atos patrióticos, o que às vezes
+resulta na tentativa de dominação de um grupo por outro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neorrealismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinterpretação do realismo que postula que a estrutura do sistema
+internacional é o nível mais importante a estudar, e é ela que justifica o
+comportamento dos Estados; compreende a crença de que é possível identificar leis
+gerais que expliquem os acontecimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Ordem Econômica Internacional – NOEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de reivindicações feitas pelo Grupo dos 77 para reformar as relações
+econômicas entre o Norte e o Sul, isto é, entre os países desenvolvidos e aqueles em
+Desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organização do Tratado do Atlântico Norte – OTAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliança militar e política entre os Estados da Europa
+Ocidental e os Estados Unidos, estabelecida em 1948, com a finalidade de defender a
+Europa de eventuais agressões por parte da União Soviética e seus aliados; expansão
+pós-Guerra Fria para a Europa Oriental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organização Mundial do Comércio – OMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organização intergovernamental dedicada a apoiar os princípios liberais do livre
+comércio; inclui a imposição de medidas e mecanismos de acerto de disputas; foi
+estabelecida em 1995, substituindo o Acordo Geral de Tarifas e Comércio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Intergovernamentais (OIGs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agências ou organismos internacionais
+estabelecidos por Estados e controlados por Estados-membros, que tratam de áreas
+de interesse comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz democrática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria apoiada por evidências empíricas de que os Estados
+democráticos não entram em guerra uns contra os outros, mas sim contra Estados
+Autoritários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacto de Varsóvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliança militar formada pelos Estados do bloco soviético em 1955,
+em resposta ao rearmamento da Alemanha Ocidental e sua inclusão na OTAN;
+permitia a permanência de tropas soviéticas na Europa Oriental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder inteligente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emprego de uma combinação de coerção (poder duro) e persuasão e
+atração (poder brando).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencial de poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida do poder que uma entidade como um Estado poderia ter,
+derivada da consideração de seus recursos tangíveis e intangíveis; os Estados nem
+sempre conseguem transformar seu potencial de poder em poder real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radicalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria social, que postula que o conflito de classes entre proprietários e trabalhadores acabará por
+levar à derrocada do capitalismo; propõe uma crítica do capitalismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de relações internacionais que enfatiza o interesse dos Estados no
+acúmulo de poder para garantir segurança em um mundo anárquico; baseada na
+noção de que os indivíduos buscam poder e que os Estados agem na defesa de seu
+próprio interesse nacional, definido em termos de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autoridade do Estado (baseada no reconhecimento por outros Estados ou
+por atores que não sejam Estados) para reger, dentro de suas próprias fronteiras,
+questões que afetem seu povo, economia, segurança e forma de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema econômico e social que se vale da intervenção intensiva do governo
+ou da propriedade pública dos meios de produção para distribuir a riqueza com
+maior equidade entre a população; na teoria radical, constitui o estágio entre
+capitalismo e comunismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teóricos da dependência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indivíduos cujas ideias derivam do radicalismo e explicam a
+pobreza e o subdesenvolvimento dos países em desenvolvimento com base em sua
+dependência histórica e na dominação por parte dos países ricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teóricos da estabilidade hegemônica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partidários da teoria de que é necessário um
+Estado dominante para dar sustentação a uma economia mundial integrada, o
+Estado hegemônico se mostraria disposto a arcar com os custos de manutenção do
+Sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratados de Vestfália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratados que puseram fim à Guerra dos Trinta Anos, na Europa,
+em 1648; em relações internacionais, representam o início da soberania do Estado
+dentro de determinado espaço territorial.</t>
   </si>
 </sst>
 </file>
@@ -767,7 +1078,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +1108,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -848,7 +1165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -859,6 +1176,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1070,17 +1395,17 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="105.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="13.58"/>
   </cols>
   <sheetData>
@@ -2648,6 +2973,499 @@
         <v>12</v>
       </c>
       <c r="G75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G75">

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$136</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -818,104 +818,84 @@
     <t xml:space="preserve">Détente</t>
   </si>
   <si>
-    <t xml:space="preserve">A flexibilização de relações tensas; no contexto deste volume, refere-se ao
-relaxamento e revisão de avaliações de ameaças por rivais políticos – caso, por
-exemplo, dos Estados Unidos e da União Soviética durante os últimos anos da
-Guerra Fria.</t>
+    <t xml:space="preserve">A flexibilização de relações tensas; no contexto deste volume, refere-se ao relaxamento e revisão de avaliações de ameaças por rivais políticos – caso, por exemplo, dos Estados Unidos e da União Soviética durante os últimos anos da Guerra Fria.</t>
   </si>
   <si>
     <t xml:space="preserve">Diplomacia de segunda via</t>
   </si>
   <si>
-    <t xml:space="preserve">Iniciativas não oficiais, por parte de indivíduos privados
-ou grupos, no intuito de tentar resolver uma crise internacional ou guerra civil em
-Curso.</t>
+    <t xml:space="preserve">Iniciativas não oficiais, por parte de indivíduos privados ou grupos, no intuito de tentar resolver uma crise internacional ou guerra civil em Curso.</t>
   </si>
   <si>
     <t xml:space="preserve">Diplomacia de celebridades</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de indivíduos populares para ao mesmo tempo
-chamar a atenção para determinada questão e/ou tentar influenciar tanto o público
-quanto os tomadores de decisões, induzindo-os a seguir certo curso de ação.</t>
+    <t xml:space="preserve">Uso de indivíduos populares para ao mesmo tempo chamar a atenção para determinada questão e/ou tentar influenciar tanto o público quanto os tomadores de decisões, induzindo-os a seguir certo curso de ação.</t>
   </si>
   <si>
     <t xml:space="preserve">Diplomacia pública</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilização de certos métodos diplomáticos para criar uma imagem
-favorável do Estado ou de seu povo aos olhos de outros Estados e seus públicos;
-entre eles figuram, por exemplo, excursões de boa vontade, intercâmbio cultural e de
-estudantes e apresentações em meios de comunicação.</t>
+    <t xml:space="preserve">Utilização de certos métodos diplomáticos para criar uma imagem favorável do Estado ou de seu povo aos olhos de outros Estados e seus públicos; entre eles figuram, por exemplo, excursões de boa vontade, intercâmbio cultural e de estudantes e apresentações em meios de comunicação.</t>
   </si>
   <si>
     <t xml:space="preserve">Efeito dominó</t>
   </si>
   <si>
-    <t xml:space="preserve">Metáfora que postula que a perda de influência sobre determinado Estado para um Estado adversário levará necessariamente a uma perda subsequente de controle sobre os Estados vizinhos, como dominós que caem um após o outro; usada pelos Estados Unidos como justificativa para apoiar o Vietnã do Sul, temendo que, se esse país se tornasse comunista, os vizinhos também cairiam sob influência
-comunista.</t>
+    <t xml:space="preserve">Metáfora que postula que a perda de influência sobre determinado Estado para um Estado adversário levará necessariamente a uma perda subsequente de controle sobre os Estados vizinhos, como dominós que caem um após o outro; usada pelos Estados Unidos como justificativa para apoiar o Vietnã do Sul, temendo que, se esse país se tornasse comunista, os vizinhos também cairiam sob influência comunista.</t>
   </si>
   <si>
     <t xml:space="preserve">Estado falido</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado caracterizado por um governo ineficaz ou inexistente, ilegalidade
-generalizada, em geral acompanhada de insurgência e crime; situação em que as
+    <t xml:space="preserve">Estado caracterizado por um governo ineficaz ou inexistente, ilegalidade generalizada, em geral acompanhada de insurgência e crime; situação em que as
 autoridades estatais deixam de proteger seu próprio povo.</t>
   </si>
   <si>
     <t xml:space="preserve">Externalidades negativas</t>
   </si>
   <si>
-    <t xml:space="preserve">Termo usado em economia para se referir a consequências
-não intencionais e daninhas (prejudiciais) de uma transação; em termos políticos,
-uma externalidade negativa de um governo falido pode ser a existência de
-refugiados; em contrainsurgência, uma externalidade negativa para um governo
-oficial que enfrente insurgentes pode ser a intensificação do recrutamento por parte
-de grupos terroristas, em decorrência de danos causados, de modo deliberado ou
+    <t xml:space="preserve">Termo usado em economia para se referir a consequências não intencionais e daninhas (prejudiciais) de uma transação; em termos políticos, uma externalidade negativa de um governo falido pode ser a existência de refugiados; em contrainsurgência, uma externalidade negativa para um governo oficial que enfrente insurgentes pode ser a intensificação do recrutamento por parte de grupos terroristas, em decorrência de danos causados, de modo deliberado ou
 não, a não combatentes em áreas disputadas.</t>
   </si>
   <si>
     <t xml:space="preserve">Imperialismo</t>
   </si>
   <si>
-    <t xml:space="preserve">Política e prática de estender a dominação de um Estado sobre outro por
-meio da conquista territorial ou dominação econômica; no radicalismo, o estágio
-final de expansão do sistema capitalista.</t>
+    <t xml:space="preserve">Política e prática de estender a dominação de um Estado sobre outro por meio da conquista territorial ou dominação econômica; no radicalismo, o estágio final de expansão do sistema capitalista.</t>
   </si>
   <si>
     <t xml:space="preserve">Institucionalismo neoliberal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reinterpretação do liberalismo que postula que, mesmo
-em um sistema internacional anárquico, os Estados vão cooperar em razão de suas
-interações contínuas entre si e porque é de seu interesse fazê-lo; as instituições
-constituem a estrutura para interações cooperativas.</t>
+    <t xml:space="preserve">Reinterpretação do liberalismo que postula que, mesmo em um sistema internacional anárquico, os Estados vão cooperar em razão de suas interações contínuas entre si e porque é de seu interesse fazê-lo; as instituições constituem a estrutura para interações cooperativas.</t>
   </si>
   <si>
     <t xml:space="preserve">Liberalismo</t>
   </si>
   <si>
-    <t xml:space="preserve">Perspectiva teórica baseada nas premissas da bondade inata do indivíduo
-e do valor das instituições políticas na promoção do progresso social.</t>
+    <t xml:space="preserve">John Locke e Adam Smith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectiva teórica baseada nas premissas da bondade inata do indivíduo e do valor das instituições políticas na promoção do progresso social.</t>
   </si>
   <si>
     <t xml:space="preserve">Movimentos Etnonacionais</t>
   </si>
   <si>
-    <t xml:space="preserve">Participação em atividade política organizada de
-comunidades autoconscientes que compartilham determinada afiliação étnica; certos
-movimentos buscam autonomia dentro de um Estado organizado, ao passo que
-outros desejam a separação e a formação de um novo Estado; outros, ainda, querem
-juntar-se a um Estado diferente.</t>
+    <t xml:space="preserve">Nacionalismo, Autodeterminação, Soberania, Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participação em atividade política organizada de comunidades autoconscientes que compartilham determinada afiliação étnica; certos movimentos buscam autonomia dentro de um Estado organizado, ao passo que outros desejam a separação e a formação de um novo Estado; outros, ainda, querem juntar-se a um Estado diferente.</t>
   </si>
   <si>
     <t xml:space="preserve">Movimentos transnacionais</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupos de pessoas de diferentes Estados que
-compartilham crenças religiosas, ideológicas ou políticas e trabalham em conjunto
-para mudar o status quo.</t>
+    <t xml:space="preserve">Transnacional, Terrorismo, Liberalismo Econômico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos de pessoas de diferentes Estados que compartilham crenças religiosas, ideológicas ou políticas e trabalham em conjunto para mudar o status quo.</t>
   </si>
   <si>
     <t xml:space="preserve">Multilateralismo</t>
@@ -937,26 +917,20 @@
     <t xml:space="preserve">Neorrealismo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reinterpretação do realismo que postula que a estrutura do sistema
-internacional é o nível mais importante a estudar, e é ela que justifica o
-comportamento dos Estados; compreende a crença de que é possível identificar leis
-gerais que expliquem os acontecimentos.</t>
+    <t xml:space="preserve">Reinterpretação do realismo que postula que a estrutura do sistema internacional é o nível mais importante a estudar, e é ela que justifica o comportamento dos Estados; compreende a crença de que é possível identificar leis gerais que expliquem os acontecimentos.</t>
   </si>
   <si>
     <t xml:space="preserve">Nova Ordem Econômica Internacional – NOEI</t>
   </si>
   <si>
     <t xml:space="preserve">Lista de reivindicações feitas pelo Grupo dos 77 para reformar as relações
-econômicas entre o Norte e o Sul, isto é, entre os países desenvolvidos e aqueles em
-Desenvolvimento.</t>
+econômicas entre o Norte e o Sul, isto é, entre os países desenvolvidos e aqueles em Desenvolvimento.</t>
   </si>
   <si>
     <t xml:space="preserve">Organização do Tratado do Atlântico Norte – OTAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Aliança militar e política entre os Estados da Europa
-Ocidental e os Estados Unidos, estabelecida em 1948, com a finalidade de defender a
-Europa de eventuais agressões por parte da União Soviética e seus aliados; expansão
+    <t xml:space="preserve">Aliança militar e política entre os Estados da Europa Ocidental e os Estados Unidos, estabelecida em 1948, com a finalidade de defender a Europa de eventuais agressões por parte da União Soviética e seus aliados; expansão
 pós-Guerra Fria para a Europa Oriental.</t>
   </si>
   <si>
@@ -971,25 +945,19 @@
     <t xml:space="preserve">Organizações Intergovernamentais (OIGs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Agências ou organismos internacionais
-estabelecidos por Estados e controlados por Estados-membros, que tratam de áreas
-de interesse comum.</t>
+    <t xml:space="preserve">Agências ou organismos internacionais estabelecidos por Estados e controlados por Estados-membros, que tratam de áreas de interesse comum.</t>
   </si>
   <si>
     <t xml:space="preserve">Paz democrática</t>
   </si>
   <si>
-    <t xml:space="preserve">Teoria apoiada por evidências empíricas de que os Estados
-democráticos não entram em guerra uns contra os outros, mas sim contra Estados
-Autoritários.</t>
+    <t xml:space="preserve">Teoria apoiada por evidências empíricas de que os Estados democráticos não entram em guerra uns contra os outros, mas sim contra Estados Autoritários.</t>
   </si>
   <si>
     <t xml:space="preserve">Pacto de Varsóvia</t>
   </si>
   <si>
-    <t xml:space="preserve">Aliança militar formada pelos Estados do bloco soviético em 1955,
-em resposta ao rearmamento da Alemanha Ocidental e sua inclusão na OTAN;
-permitia a permanência de tropas soviéticas na Europa Oriental.</t>
+    <t xml:space="preserve">Aliança militar formada pelos Estados do bloco soviético em 1955, em resposta ao rearmamento da Alemanha Ocidental e sua inclusão na OTAN; permitia a permanência de tropas soviéticas na Europa Oriental.</t>
   </si>
   <si>
     <t xml:space="preserve">Poder inteligente</t>
@@ -1016,25 +984,48 @@
     <t xml:space="preserve">Karl Marx</t>
   </si>
   <si>
-    <t xml:space="preserve">Teoria social, que postula que o conflito de classes entre proprietários e trabalhadores acabará por
-levar à derrocada do capitalismo; propõe uma crítica do capitalismo.</t>
+    <t xml:space="preserve">Teoria social, que postula que o conflito de classes entre proprietários e trabalhadores acabará por levar à derrocada do capitalismo; propõe uma crítica do capitalismo.</t>
   </si>
   <si>
     <t xml:space="preserve">Realismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hobbes, Anarquia</t>
   </si>
   <si>
     <t xml:space="preserve">Teoria de relações internacionais que enfatiza o interesse dos Estados no
 acúmulo de poder para garantir segurança em um mundo anárquico; baseada na
-noção de que os indivíduos buscam poder e que os Estados agem na defesa de seu
-próprio interesse nacional, definido em termos de poder.</t>
+noção de que os indivíduos buscam poder e que os Estados agem na defesa de seu próprio interesse nacional, definido em termos de poder.</t>
   </si>
   <si>
     <t xml:space="preserve">Soberania</t>
   </si>
   <si>
-    <t xml:space="preserve">A autoridade do Estado (baseada no reconhecimento por outros Estados ou
+    <t xml:space="preserve">Jean Bodin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A autoridade do Estado (baseada no reconhecimento por outros Estados ou
 por atores que não sejam Estados) para reger, dentro de suas próprias fronteiras,
-questões que afetem seu povo, economia, segurança e forma de governo.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">questões que afetem seu povo, economia, segurança e forma de governo. “poder absoluto e perpétuo investido em uma comunidade”</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Socialismo</t>
@@ -1049,26 +1040,306 @@
     <t xml:space="preserve">Teóricos da dependência</t>
   </si>
   <si>
-    <t xml:space="preserve">Indivíduos cujas ideias derivam do radicalismo e explicam a
-pobreza e o subdesenvolvimento dos países em desenvolvimento com base em sua
-dependência histórica e na dominação por parte dos países ricos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teóricos da estabilidade hegemônica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partidários da teoria de que é necessário um
-Estado dominante para dar sustentação a uma economia mundial integrada, o
-Estado hegemônico se mostraria disposto a arcar com os custos de manutenção do
-Sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratados de Vestfália</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratados que puseram fim à Guerra dos Trinta Anos, na Europa,
-em 1648; em relações internacionais, representam o início da soberania do Estado
-dentro de determinado espaço territorial.</t>
+    <t xml:space="preserve">Indivíduos cujas ideias derivam do radicalismo e explicam a pobreza e o subdesenvolvimento dos países em desenvolvimento com base em sua dependência histórica e na dominação por parte dos países ricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teóricos da estabilidade hegemônica (Estado hegemônico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partidários da teoria de que é necessário um Estado dominante para dar sustentação a uma economia mundial integrada, o Estado hegemônico se mostraria disposto a arcar com os custos de manutenção do Sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratados de Vestfália (1648)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania, Integridade Territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto Histórico RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os tratados de 1648 encerraram a Guerra dos Trinta Anos e consolidaram o princípio da soberania estatal (autoridade exclusiva sobre o território e população, sem interferência externa) e a igualdade jurídica entre Estados</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Concepção de Soberania (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Poder Absoluto e Perpétuo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jean Bodin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Lei Divina</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvida por Jean Bodin (1530–1596) como o “poder absoluto e perpétuo investido em uma comunidade”. A soberania é a marca distintiva do soberano, mas é limitada pela lei divina e leis constitucionais.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O Estado de Natureza (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Leviatã</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes imaginou um mundo sem autoridade governamental (estado de natureza) como solitário, egoísta e brutal. O Leviatã (Estado unitário e centralizado) seria a solução para esse dilema, o qual é extrapolado para o sistema internacional como um estado de anarquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimidade, Revolução Francesa, Vínculo Emocional, Autodeterminação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio surgido das Revoluções Americana e Francesa. Caracteriza-se pela identificação de um povo com passado, idioma e costumes comuns, forjando um vínculo emocional entre o povo e o Estado. Foi acelerado após a Primeira Guerra Mundial pelo princípio da autodeterminação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo e Colonialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo, Colonialismo, Válvula de Escape, Exploração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo (anexação de territórios remotos) e Colonialismo (estabelecimento de colonos) funcionaram como uma "válvula de escape" conveniente para as rivalidades entre Estados europeus, fornecendo recursos e status. Lançou as bases para o duradouro ressentimento dos povos não europeus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilíbrio de Poder (Século XIX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilíbrio Simétrico, Hegemônico, Concerto da Europa, Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo onde os Estados forjam alianças para fazer frente a qualquer Estado hegemônico, mantendo o poder análogo (simétrico) e reduzindo a probabilidade de guerra. Contribuiu para a relativa paz na Europa entre 1815 e 1854.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina de Contenção (Guerra Fria)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenção, George Kennan, Doutrina Truman, Insegurança Soviética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defendida por George Kennan, alegava que a União Soviética adotaria uma política externa agressiva por se sentir insegura, e deveria ser contida. Posta em ação na Doutrina Truman (1947), usando espionagem, pressão econômica e recursos militares avançados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destruição Mútua Garantida (MAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD, Dissuasão Nuclear, Impasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação criada pelas armas nucleares, onde um confronto resultaria em devastação mútua. O impasse por intimidação (dissuasão mútua) fez com que as superpotências agissem com cautela, sustentando a "longa paz" entre elas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colapso do Sistema Colonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descolonização, Autodeterminação, Enfraquecimento Europeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenômeno instigado pelo princípio da autodeterminação nacional (endossado pela ONU) e pela realidade do enfraquecimento econômico das potências europeias após a Segunda Guerra Mundial. Os europeus estavam mais interessados em lutar contra o comunismo do que em reter colônias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra Fria como Globalização do Conflito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teatros de Terceiros, Agentes, Bipolaridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As diferenças entre EUA e URSS eram dirimidas indiretamente em teatros de terceiros, através de agentes (ex: Coreia do Norte vs. Coreia do Sul). A "perda" de um aliado poderia alterar o equilíbrio de poder, resultando na globalização do conflito para todos os continentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avanço da Tecnologia e Guerras Mundiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra de Trincheiras, Gás Venenoso, Bloqueio Naval, Armas Automáticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Guerra (1914-1918) foi marcada pela degradação da guerra de trincheiras, uso de gases venenosos e bombardeios estratégicos. A derrota russa para o Japão em 1905, ignorada pelos europeus, já revelava a importância da moderna artilharia e armas automáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascensão do Terrorismo no Novo Milênio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrorismo, Al-Qaeda, Guerra ao Terror, Segurança Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O terrorismo deixou de ser um problema de aplicação da lei para se tornar uma questão crítica de segurança nacional. Os ataques de 11 de Setembro de 2001 (Al-Qaeda) deflagraram a “guerra ao terror” global comandada pelos EUA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primavera Árabe (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantes Populares, Corrupção, Ditadores, Síria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onda de manifestações desencadeada na Tunísia e que se espalhou por países árabes (Egito, Líbia, Síria) contra a crueldade e a corrupção de ditadores de longa data. Demonstrou o poder de jovens munidos de telefones celulares e convicção, desafiando a lógica da revolução islâmica radical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Hegemônico, Guerra Generalizada, Concerto da Europa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Estados europeus independentes temiam o surgimento de qualquer Estado predominante (hegemônico) em seu meio. O sistema visava a prevenir a emergência de um Estado hegemônico, como o caso da França napoleônica. Alianças eram forjadas para fazer frente a facções potencialmente mais poderosas. No século XIX, contribuiu para uma relativa paz na Europa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Longa Paz e Bipolaridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra Fria, Destruição Mútua Garantida (MAD), Superpotências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se à marcante e inesperada ausência de conflitos de maior porte entre grandes potências durante a Guerra Fria (1945–1989). Foi sustentada pela dissuasão mútua e pelo advento das armas nucleares, resultando na Destruição Mútua Garantida (MAD), onde um confronto nuclear significaria a devastação de ambos os lados. A Bipolaridade (EUA e URSS) substituiu o equilíbrio de poder multipolar e levou a um "equilíbrio do terror" muito estável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenção (Containment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina Truman, George Kennan, Pós-Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina fundamental da política externa americana durante a Guerra Fria. O diplomata George Kennan alegou que, devido à insegurança militar da União Soviética, esta adotaria uma política externa agressiva, sendo necessário conter os soviéticos. A política consistia basicamente no uso de espionagem, pressão econômica e recursos militares avançados, visando garantir os interesses vitais do Ocidente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado de Versalhes (1919)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insatisfação Alemã, Ascensão do Fascismo, Nacionalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado que encerrou formalmente a Primeira Guerra Mundial. Impôs reparações severas (US$ 32 bilhões) e restrições militares à Alemanha. O ressentimento gerado por essas penalidades criou o ambiente propício para a ascensão de Hitler e o surgimento do Fascismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abertura Política (Glasnost) e Reestruturação Econômica (Perestroika)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhail Gorbachev, Colapso da URSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reformas internas lançadas por Mikhail Gorbachev em meados da década de 1980 na União Soviética, respectivamente, abertura política e reestruturação econômica. Essas mudanças precipitaram a dissolução do Pacto de Varsóvia e o colapso da URSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liga das Nações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodrow Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organização intergovernamental estabelecida após a Primeira Guerra Mundial com o propósito de evitar todas as guerras futuras. No entanto, revelou-se infrutífera por não possuir o peso político e os instrumentos jurídicos necessários. Foi restringida, em parte, pela recusa dos Estados Unidos em aderir, preferindo uma política externa isolacionista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado de Direito e Legitimidade (John Locke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Locke, Direitos Naturais, Consentimento dos Governados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio surgido após as Revoluções Americana e Francesa, baseado na ideia de que o Estado é uma instituição criada por homens racionais para proteger seus direitos naturais (vida, liberdade e propriedade). O poder político reside no povo, e o líder deriva sua legitimidade do consentimento dos governados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra por Agentes (Proxy Wars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos Indiretos, Globalização do Conflito, Terceiros Teatros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Característica central da Guerra Fria, onde as diferenças entre as superpotências eram dirimidas indiretamente, em teatros de terceiros. Visava projetar poder e defender interesses geopolíticos e ideologias (como na Coreia, Vietnã, Angola e Oriente Médio) sem necessidade de um embate direto entre EUA e URSS, evitando o risco de guerra termonuclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Pós-Vestfália (Capitalismo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O surgimento do sistema econômico capitalista é listado como um fato-chave após Vestfália, com o teórico escocês Adam Smith (1723–1790) argumentando em A Riqueza das Nações que os indivíduos, ao trabalharem em prol de seus próprios interesses racionais, impulsionam a eficiência e a riqueza do Estado e do sistema internacional, guiados pela "mão do mercado".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Concerto da Europa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Hegemônico, Equilíbrio de Poder, Revolução das Massas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de paz relativa entre 1815 e 1854, estabelecido após a derrota de Napoleão. As cinco potências (Áustria, Grã-Bretanha, França, Prússia e Rússia) reuniam-se em conferências para legitimar novos Estados e, crucialmente, evitar a revolução das massas e o surgimento de um Estado hegemônico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio da Não Interferência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuntos Internos, Sistema Vestfaliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilar estabelecido a partir dos Tratados de Vestfália (1648), que determinou que os Estados têm direito a determinar suas próprias políticas internas, livres de pressão externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria do contrato social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Jacques Rousseau, John Locke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Social é a ideia de que o Estado deriva sua autoridade do consentimento dos indivíduos, que concordam em ceder certos poderes para proteger seus direitos e garantir a ordem, sendo um alicerce filosófico das Relações Internacionais contemporâneas.</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1376,19 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1165,25 +1449,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1395,18 +1695,20 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E112" activeCellId="0" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="71.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,1306 +1975,1244 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
@@ -3035,6 +3275,9 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>253</v>
       </c>
@@ -3052,6 +3295,9 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>255</v>
       </c>
@@ -3069,6 +3315,9 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>257</v>
       </c>
@@ -3086,6 +3335,9 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>259</v>
       </c>
@@ -3103,6 +3355,9 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>261</v>
       </c>
@@ -3120,6 +3375,9 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>263</v>
       </c>
@@ -3137,6 +3395,9 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>265</v>
       </c>
@@ -3153,7 +3414,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>267</v>
       </c>
@@ -3170,7 +3434,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>269</v>
       </c>
@@ -3187,7 +3454,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>271</v>
       </c>
@@ -3205,6 +3475,9 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>273</v>
       </c>
@@ -3222,6 +3495,9 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>275</v>
       </c>
@@ -3239,6 +3515,9 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>277</v>
       </c>
@@ -3256,6 +3535,9 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>279</v>
       </c>
@@ -3273,202 +3555,756 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="C93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E93" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B95" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B97" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
+      <c r="C116" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:G75">
+  <autoFilter ref="A1:G136">
     <filterColumn colId="3">
       <filters>
         <filter val="Rússia"/>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$136</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$142</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="423">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -770,6 +770,15 @@
   </si>
   <si>
     <t xml:space="preserve">Abordagem do estudo da ciência social e das relações internacionais segundo a qual indivíduos e unidades (como os Estados) agem de modo regular; induz à crença de que os comportamentos podem ser descritos, explicados e previstos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlatos da Guerra (COW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. David Singer, Melvin Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um projeto de pesquisa iniciado em 1963 que aplicou métodos behavioristas para coletar e analisar dados estatísticos sobre guerras, buscando identificar padrões e correlações que explicassem a sua ocorrência.</t>
   </si>
   <si>
     <t xml:space="preserve">Capitalismo</t>
@@ -803,6 +812,15 @@
     <t xml:space="preserve">Política externa cuja intenção é impedir a expansão de um adversário mediante o bloqueio de suas oportunidades de expansão, mediante o apoio a Estados mais fracos por meio de programas de ajuda externa. Só ocorre uso de força de coerção contra o adversário para refrear qualquer tentativa sua de expansão física; foi a principal política dos Estados Unidos em relação à União Soviética durante a era da Guerra Fria.</t>
   </si>
   <si>
+    <t xml:space="preserve">Desconstrução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pós-modernistas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método utilizado pelos pós-modernistas para analisar conceitos básicos (como Estado ou soberania), buscando os significados ocultos sob a superfície e substituindo quadros organizados pela desordem e multiplicidade.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dilema do prisioneiro</t>
   </si>
   <si>
@@ -880,6 +898,15 @@
     <t xml:space="preserve">Perspectiva teórica baseada nas premissas da bondade inata do indivíduo e do valor das instituições políticas na promoção do progresso social.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pós-modernismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagem que busca desconstruir os conceitos básicos da área de RI, revelar significados ocultos e encontrar as vozes de indivíduos marginalizados.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Movimentos Etnonacionais</t>
   </si>
   <si>
@@ -896,6 +923,12 @@
   </si>
   <si>
     <t xml:space="preserve">Grupos de pessoas de diferentes Estados que compartilham crenças religiosas, ideológicas ou políticas e trabalham em conjunto para mudar o status quo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método Comparativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método de análise, utilizado pela primeira vez por Aristóteles, que busca identificar semelhanças e diferenças entre Estados (ou outros casos) para encontrar padrões e sugerir explicações.</t>
   </si>
   <si>
     <t xml:space="preserve">Multilateralismo</t>
@@ -978,6 +1011,15 @@
 sempre conseguem transformar seu potencial de poder em poder real.</t>
   </si>
   <si>
+    <t xml:space="preserve">Raciocínio Dialético</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método de análise, introduzido por Platão, que parte de um diálogo para descobrir contradições nas premissas originais. É uma base para analistas marxistas (radicais).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Radicalismo</t>
   </si>
   <si>
@@ -996,6 +1038,15 @@
     <t xml:space="preserve">Teoria de relações internacionais que enfatiza o interesse dos Estados no
 acúmulo de poder para garantir segurança em um mundo anárquico; baseada na
 noção de que os indivíduos buscam poder e que os Estados agem na defesa de seu próprio interesse nacional, definido em termos de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarquia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hobbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto de RI, refere-se a um sistema internacional sem autoridade central ou governo, análogo ao "estado de natureza" descrito por Thomas Hobbes.</t>
   </si>
   <si>
     <t xml:space="preserve">Soberania</t>
@@ -1061,93 +1112,19 @@
     <t xml:space="preserve">Os tratados de 1648 encerraram a Guerra dos Trinta Anos e consolidaram o princípio da soberania estatal (autoridade exclusiva sobre o território e população, sem interferência externa) e a igualdade jurídica entre Estados</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Concepção de Soberania (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Poder Absoluto e Perpétuo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jean Bodin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Lei Divina</t>
-    </r>
+    <t xml:space="preserve">Concepção de Soberania (Poder Absoluto e Perpétuo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Bodin, Lei Divina</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvida por Jean Bodin (1530–1596) como o “poder absoluto e perpétuo investido em uma comunidade”. A soberania é a marca distintiva do soberano, mas é limitada pela lei divina e leis constitucionais.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O Estado de Natureza (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Leviatã</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobbes imaginou um mundo sem autoridade governamental (estado de natureza) como solitário, egoísta e brutal. O Leviatã (Estado unitário e centralizado) seria a solução para esse dilema, o qual é extrapolado para o sistema internacional como um estado de anarquia.</t>
+    <t xml:space="preserve">O Estado de Natureza (Leviatã)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbes imaginou um mundo sem autoridade governamental (estado de natureza) como solitário, egoísta e brutal. O Leviatã (Estado unitário com poder centralizado e absoluto) seria a solução para esse dilema, o qual é extrapolado para o sistema internacional como um estado de anarquia.</t>
   </si>
   <si>
     <t xml:space="preserve">Legitimidade, Revolução Francesa, Vínculo Emocional, Autodeterminação</t>
@@ -1340,6 +1317,21 @@
   </si>
   <si>
     <t xml:space="preserve">Contrato Social é a ideia de que o Estado deriva sua autoridade do consentimento dos indivíduos, que concordam em ceder certos poderes para proteger seus direitos e garantir a ordem, sendo um alicerce filosófico das Relações Internacionais contemporâneas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade Geral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Jacques Rousseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Jean-Jacques Rousseau que se refere ao bem comum de uma comunidade. Ele defendeu que pequenas comunidades, unidas por um contrato social, deveriam ser dirigidas pela vontade geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise do Discurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método utilizado por construtivistas e outras abordagens alternativas para investigar como as ideias afetam as identidades, analisando a cultura, as normas, os procedimentos e as práticas sociais.</t>
   </si>
 </sst>
 </file>
@@ -1389,15 +1381,16 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1449,7 +1442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1462,11 +1455,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1474,15 +1471,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1695,10 +1684,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E112" activeCellId="0" sqref="E112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E145" activeCellId="0" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3241,14 +3230,14 @@
       <c r="B77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>249</v>
+      <c r="C77" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>12</v>
@@ -3259,56 +3248,56 @@
         <v>245</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>254</v>
+      <c r="E79" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>256</v>
+      <c r="E80" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>12</v>
@@ -3319,16 +3308,16 @@
         <v>245</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>12</v>
@@ -3339,76 +3328,76 @@
         <v>245</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>247</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>264</v>
+      <c r="E84" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>266</v>
+      <c r="E85" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>12</v>
@@ -3419,96 +3408,96 @@
         <v>245</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>268</v>
+      <c r="E86" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>270</v>
+      <c r="E87" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>272</v>
+      <c r="E88" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>274</v>
+      <c r="E89" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>276</v>
+      <c r="E90" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>12</v>
@@ -3519,75 +3508,75 @@
         <v>245</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>278</v>
+      <c r="E91" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>280</v>
+      <c r="E92" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>283</v>
+      <c r="E93" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>286</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -3601,65 +3590,74 @@
       <c r="B95" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>289</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="C96" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>291</v>
+      <c r="E96" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>293</v>
+      <c r="E97" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>295</v>
+      <c r="E98" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
@@ -3670,30 +3668,36 @@
         <v>245</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>297</v>
+      <c r="E99" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>299</v>
+      <c r="E100" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,140 +3705,140 @@
         <v>245</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="D110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3855,11 +3859,14 @@
       <c r="B111" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="C111" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="D111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>325</v>
+      <c r="E111" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,444 +3874,572 @@
         <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D113" s="6" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="D113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C114" s="7" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="D114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E115" s="6" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="C115" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="A116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="D116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E117" s="6" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="D117" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C118" s="6" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="D118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="6" t="s">
+    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E119" s="6" t="s">
+      <c r="D119" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="6" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="C120" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="D120" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" s="6" t="s">
+      <c r="A121" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="C121" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D122" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E122" s="6" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="D123" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" s="6" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E124" s="6" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="C125" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E125" s="6" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="D126" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B127" s="3" t="s">
+    <row r="127" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="D127" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B128" s="3" t="s">
+    <row r="128" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="D128" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="A129" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="D129" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B130" s="8" t="s">
+    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="D130" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131" s="3" t="s">
+    <row r="131" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="D131" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B132" s="3" t="s">
+    <row r="132" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E132" s="3" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E133" s="3" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E134" s="3" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E135" s="3" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E136" s="3" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E137" s="3" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C138" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G136">
+  <autoFilter ref="A1:G142">
     <filterColumn colId="3">
       <filters>
         <filter val="Rússia"/>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="503">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -1333,6 +1333,246 @@
   <si>
     <t xml:space="preserve">Método utilizado por construtivistas e outras abordagens alternativas para investigar como as ideias afetam as identidades, analisando a cultura, as normas, os procedimentos e as práticas sociais.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Princípios de Relações Internacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hobbes, Alexander Wendt (Construtivismo), Kenneth Waltz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossário RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto das RI, refere-se à ausência de uma autoridade governamental ou ordem civil superior aos Estados. O sistema internacional é considerado anárquico, uma condição que, para realistas como Thomas Hobbes, assemelha-se a um "estado de natureza".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armas de Destruição em Massa (ADM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoria de armas que inclui as nucleares, químicas e biológicas, cujos efeitos destrutivos não podem ser limitados no tempo e no espaço, sendo por isso consideradas "indiscriminadas".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagem que propõe um estudo científico das RI, partindo do pressuposto de que indivíduos e grupos agem de modo padronizado. Utiliza o método científico para sugerir e testar hipóteses sobre essas ações, visando explicar e, em última instância, prever comportamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens Coletivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tragédia dos comuns"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens disponíveis a todos os membros de um grupo, independentemente da contribuição individual (ex: ar limpo). A gestão desses bens é um desafio central em questões transnacionais, como o meio ambiente, devido à "tragédia dos comuns".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estabelecimento de pessoas de um país de origem entre os nativos de um território distante, que foi anexado por um império. Frequentemente acompanha ou sucede o imperialismo e envolve exploração e dominação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunidades Epistêmicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"comunidades transnacionais de peritos" (especialistas e técnicos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos transnacionais de especialistas e técnicos de diversas organizações (governamentais, não governamentais, etc.) que compartilham um conjunto de crenças, conhecimentos e práticas em torno da resolução de problemas específicos, como na área da saúde global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflito Assimétrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">força desigual (como insurgências e terrorismo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflito entre adversários de força desigual, no qual a parte mais fraca procura inovar para contornar as vantagens do oponente, explorando seus pontos fracos. Exemplos de táticas incluem a guerra de guerrilha e o terrorismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel Foucault, Jacques Derrida, Friedrich Kratochwil, Ted Hopf, Alexander Wendt. Martha Finnemore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de RI que argumenta que as estruturas fundamentais do sistema estatal são de caráter social e intersubjetivo, não material. Interesses e identidades dos Estados são maleáveis e socialmente construídos, e as normas internacionais podem alterar o comportamento estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Kennan (Doutrina Truman,). Henry Kissinger (teoria realista). Hans Morgenthau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina fundamental da política externa dos EUA durante a Guerra Fria, proposta por George Kennan. Defendia o uso de espionagem, pressão econômica e poderio militar para conter a expansão da influência da União Soviética, em vez de tentar reverter seus avanços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilema da Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Herz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação em que os esforços de um Estado para aumentar sua própria segurança (ex: construindo seu arsenal) são percebidos como ameaçadores por outros Estados, que por sua vez aumentam seu próprio poder. Isso resulta em um círculo vicioso de acumulação de poder que pode levar à instabilidade e ao conflito, mesmo que nenhum Estado tenha intenções agressivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplomacia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prática de influenciar o comportamento de outros atores por meio da negociação, comunicação e outras medidas não coercitivas. Inclui a diplomacia tradicional, a diplomacia pública (dirigida à opinião pública estrangeira) e a diplomacia de celebridades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilíbrio de Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucídides, Hans Morgenthau, Kenneth Waltz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio central do realismo, segundo o qual os Estados forjam alianças para fazer frente a qualquer Estado ou facção potencialmente mais poderosa, evitando o surgimento de um hegemon. Quando o poder está equilibrado (simétrico), os Estados hesitam em iniciar uma guerra devido ao alto risco de derrota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platão, Aristóteles, Thomas Hobbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidade política que cumpre quatro condições jurídicas: possui uma base territorial, uma população estável, um governo ao qual a população obedece e é reconhecido diplomaticamente por outros Estados. Para os realistas, é o principal ator nas RI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado-Nação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal político em que há uma coincidência entre o Estado (entidade jurídica) e a nação (grupo de pessoas com identidade compartilhada). É o fundamento da autodeterminação nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Mitrany, Jean Monnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagem teórica que defende que a cooperação internacional começa em áreas técnicas e não políticas ("funcionais"). Acredita-se que os hábitos de cooperação desenvolvidos nessas áreas podem "transbordar" para a cooperação política, diminuindo a probabilidade de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra Justa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho, São Tomás de Aquino, Hugo Grotius, Michael Waltzer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de critérios éticos e morais para determinar quando é justo ir à guerra (jus ad bellum) e qual a conduta moral durante a guerra (jus in bello). Requer uma causa justa, proporcionalidade e a proteção de não combatentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Marx e Vladimir Lênin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A anexação de territórios remotos e seus habitantes a um império, geralmente pela força. Foi uma prática central das potências europeias entre os séculos XV e XX, motivada pela busca de status, riqueza e poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu, Immanuel Kant, Adam Smith, John Locke, Woodrow Wilson, Robert Keohane, Michael Doyle, John Ikenberry, Robert Axelrod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de RI que postula que a natureza humana é essencialmente boa e que o progresso é possível. Acredita que a guerra e a agressão podem ser eliminadas através de reformas institucionais, cooperação, democracia e capitalismo de mercado, e enfatiza o papel das OIGs e do direito internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um grupo de pessoas que compartilham um conjunto de características, como uma história comum, linguagem, costumes ou estilos de vida, e sentem fidelidade a essa identidade coletiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIGs (Organizações Intergovernamentais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações formadas por Estados para cooperar na resolução de problemas comuns. Exemplos incluem as Nações Unidas (ONU) e a União Europeia (UE). São arenas onde os Estados interagem e criam regras e normas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONGs (Organizações Não Governamentais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atores privados, sem fins lucrativos, que atuam em questões transnacionais. O seu poder deriva da credibilidade, especialização e autoridade moral (soft power), e elas influenciam a política internacional mobilizando o público, pressionando governos e fornecendo serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz Democrática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immanuel Kant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tese liberal, apoiada por evidências empíricas, de que Estados com governos democráticos não entram em guerra uns com os outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Brando (Soft Power)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Nye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Joseph S. Nye que descreve a capacidade de um Estado de atrair e persuadir outros por meio da legitimidade de seus valores culturais e políticos, em vez de usar a coerção (hard power).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Inteligente (Smart Power)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Joseph S. Nye que se refere à combinação eficaz de poder duro (coerção militar e econômica) e poder brando (persuasão e atração) na condução da política externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Marx, Friedrich Engels, John A. Hobson, Vladimir Lênin, Raúl Prebisch, Enzo Faletto e Fernando Henrique Cardoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectiva teórica, com raízes no marxismo, que analisa as RI através da lente da economia e das classes sociais. Argumenta que o sistema internacional é estratificado e dominado pelo capitalismo, e que o Estado é um agente da classe capitalista dominante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucídides, Santo Agostinho, Nicolau Maquiavel, Thomas Hobbes, Hans Morgenthau, Kenneth Waltz (Neorrealismo/Realismo Estrutural), Robert Gilpin (Neorrealismo/Dinamismo Histórico), John Mearsheimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria dominante nas RI, que postula que os Estados são os principais atores em um sistema internacional anárquico. Cada Estado baseia suas políticas em seu interesse nacional, definido em termos de poder, e a guerra é uma característica inevitável da política interestatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilidade de Proteger (R2P)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma emergente no direito internacional que afirma que os Estados têm a responsabilidade de intervir nos assuntos de outro Estado quando ocorrem violações maciças de direitos humanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Coletiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodrow Wilson, Immanuel Kant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um princípio liberal segundo o qual a agressão de um Estado contra outro será combatida por uma ação conjunta de todos os outros Estados. A ideia é que a ameaça de uma resposta unificada irá dissuadir potenciais agressores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platão, Thomas Hobbes, Jean-Jacques Rousseau e Immanuel Kant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de que um Estado possui o "poder absoluto e perpétuo" dentro de seu território, não estando sujeito aos comandos de nenhuma autoridade externa. É a marca distintiva do Estado e um princípio fundamental do sistema de Vestfália.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustentabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspectiva conceitual que se refere ao fomento da sobrevivência e bem-estar de uma geração sem causar danos duradouros ao meio ambiente, de modo a não prejudicar as gerações futuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrorismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey Kurth Cronin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um tipo de conflito assimétrico de natureza política, perpetrado por atores não estatais, que visa deliberadamente a não combatentes para criar medo e chamar a atenção para uma causa, desafiando a legitimidade do governo-alvo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratados de Vestfália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de tratados de 1648 que puseram fim à Guerra dos Trinta Anos. São considerados o marco do início do sistema de Estados moderno ao consagrar os princípios da soberania e da integridade territorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transnacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Keohane e Joseph Nye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questões ou movimentos que atravessam as fronteiras dos Estados e que não podem ser resolvidos por um único Estado. Exemplos incluem o meio ambiente, a saúde global, o crime organizado e o terrorismo.</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,7 +1581,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,16 +1617,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1442,7 +1690,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1463,15 +1711,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1684,10 +1944,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E145" activeCellId="0" sqref="E145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E187" activeCellId="0" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3343,7 +3603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
@@ -3630,7 +3890,7 @@
       <c r="B97" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="3" t="s">
         <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -3650,7 +3910,7 @@
       <c r="B98" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -3859,7 +4119,7 @@
       <c r="B111" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -3876,7 +4136,7 @@
       <c r="B112" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>328</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3893,7 +4153,7 @@
       <c r="B113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -3903,14 +4163,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -3927,7 +4187,7 @@
       <c r="B115" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="3" t="s">
         <v>337</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -4258,7 +4518,7 @@
       <c r="B135" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>392</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -4272,10 +4532,10 @@
       <c r="A136" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>395</v>
       </c>
       <c r="D136" s="4" t="s">
@@ -4404,7 +4664,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>245</v>
       </c>
@@ -4421,7 +4681,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
         <v>245</v>
       </c>
@@ -4436,6 +4696,544 @@
       </c>
       <c r="E145" s="4" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C150" s="0"/>
+      <c r="D150" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C172" s="0"/>
+      <c r="D172" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C175" s="0"/>
+      <c r="D175" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C177" s="0"/>
+      <c r="D177" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1060">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -1573,6 +1573,1677 @@
   <si>
     <t xml:space="preserve">Questões ou movimentos que atravessam as fronteiras dos Estados e que não podem ser resolvidos por um único Estado. Exemplos incluem o meio ambiente, a saúde global, o crime organizado e o terrorismo.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poder, exercício, distribuição, organização, fatos políticos, comportamento político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 – Introdução à Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma ciência social que estuda o exercício, a distribuição e a organização do poder na sociedade, procurando estudar os fatos políticos, processos eleitorais, e a dinâmica dos grupos de pressão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política (Conceito Clássico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polis, politikós, urbano, civil, público, Aristóteles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derivada do adjetivo grego *politikós*, refere-se a tudo que se relaciona com a *polis* (cidade/Estado), indicando a atividade ou conjunto de atividades que têm o Estado como termo de referência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoon Politikón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles, animal político, polis, dimensão suprema da existência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressão utilizada por Aristóteles, que considerava o homem um "animal político". Reflete a concepção grega de que a *polis* era a unidade constitutiva indecomponível e a dimensão suprema da existência, onde o homem se realiza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política Maniqueísta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Schmitt, amigo-inimigo, Estado, critério específico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideia concebida por Carl Schmitt que reduz a política à distinção específica amigo-inimigo, sendo o inimigo o outro, o estranho, existencialmente distinto e estranho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspiração ao poder, direção do agrupamento político, influenciar a divisão do poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber entende a política como o conjunto de esforços feitos para participar ou influenciar a divisão do poder, seja entre Estados, seja no interior de um único Estado. Todo homem que se dedica à política aspira ao poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy (Política como Ação)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ação do governo, coerção física, realocação de recursos, autoridade legitimada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito utilizado no idioma inglês para designar a ação do governo, que busca assegurar a segurança externa e a solidariedade interna de um território, e efetuar a realocação dos recursos escassos da sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politics (Política como Interação)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interações, estratégias, objetivos, dinâmica partidária, carreira profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se ao conjunto de interações que definem múltiplas estratégias entre atores para melhorar seu rendimento e alcançar certos objetivos. Envolve a dinâmica partidária e eleitoral e o interesse pelo público.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polity (Política como Sistema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema político, estrutura, instituições, atores sociais, subsistema funcional primário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se à política como o sistema político ou estrutura, onde interagem vários elementos institucionais (leis, normas) e atores sociais (partidos, movimentos) em função do poder. É considerado um subsistema funcional primário por Parsons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto Central da Ciência Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poder, Estado, Duverger, consenso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embora haja divergência, há concordância de que o estudo do poder é a questão central da disciplina, e a definição ampla mais aceita é que a Ciência Política é a ciência do poder sob todas as suas formas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analfabeto Político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brecht, ignorância, decisões políticas, custo da vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressão que, segundo o poema de Brecht, designa a pessoa que não participa dos acontecimentos políticos e não sabe que o custo da vida e o preço dos bens essenciais dependem de decisões políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder supremo, Ascendência, Monopólio da força, Coerção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 – A questão do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder supremo ao qual todos os outros estão submetidos, fundamental para organizar a vida em sociedade ou estabelecer a dominação, e que se caracteriza pela exclusividade do uso da força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo social, Relação social, Coação, Capacidade de decisão, Superioridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo social que implica a capacidade de indivíduos ou grupos de modificar o comportamento de outros, pressupondo uma relação de superioridade e dependência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo dominante, Minoria, Prestigio, Dominância, Classe governante, Mosca, Pareto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo de indivíduos pouco numeroso que se destaca em determinada atividade, detendo o prestígio e o domínio social, e que exerce o poder político num determinado momento histórico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de Poder Social (Bobbio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder econômico, Poder ideológico, Poder político, Bens escassos, Força física, Influência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classificação do poder social em três tipos: poder econômico (posse de bens escassos), poder ideológico (influência de ideias) e poder político (uso da força física).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Força</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coerção física, Monopólio do Estado, Armas, Fonte de poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte de poder que se refere ao uso ou ameaça de coerção física, sendo o monopólio do uso da força uma das principais características do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direito de decisão, Legitimidade, Conteúdo jurídico/moral, Consentimento, Poder de persuasão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimacão do poder que ocorre através da incorporação de conteúdo jurídico e/ou moral, baseada no consentimento durável e na persuasão, sendo um direito estabelecido para ordenar ações de outrem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Racional-Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber, Burocrática, Cargo, Lei, Regras escritas, Consenso, Modernos Estados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada no cargo ou posição formalmente instituída, legítima por estar de acordo com as leis e regras escritas, e encontrada nos modernos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Carismática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber, Carisma, Qualidades pessoais excepcionais, Líder, Irracional, Revolucionária, Populismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada nas qualidades pessoais extraordinárias de um indivíduo, como heroísmo ou santidade, e que é especificamente irracional e revolucionária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Weber, Crença, Costumes, Tradições, Vontade da pessoa, Vassalagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada na crença, normas e tradições sagradas, onde a obediência é devida ao senhor em virtude da dignidade pessoal que lhe atribui a tradição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquiavel e o Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolau Maquiavel, O Príncipe, Técnica política, Força e Astúcia, Ser temido, Razão de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise que rompe com a tradição moral e religiosa, tratando a política como uma técnica a serviço da conquista e manutenção do poder, justificando o uso da força e da astúcia, e considerando mais importante ser temido do que amado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obediência, Max Weber, Quadro administrativo, Legitimidade, Vontades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidade de encontrar obediência a uma ordem, ligada à presença efetiva de alguém mandando eficazmente em outros e que, essencialmente, exige bases de legitimidade para se apoiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crença predominante, Obrigação política, Validade, Justificação, Autoridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consiste na crença predominante de que quem manda possui razões para isso, gerando a convicção do dever moral de obediência e o reconhecimento social da validade do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria da Circulação das Elites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilfredo Pareto, Teorema de Pareto, Aristocracia, Substituição das elites, Revoluções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria que descreve o processo dinâmico e permanente de formação e substituição das elites no poder, onde membros das camadas inferiores ascendem aos postos superiores, e cuja interrupção pode levar a revoluções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legalidade vs. Legitimidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de valores, Ordenamento legal, Poder de direito, Poder de fato, Poder arbitrário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinção fundamental onde a legitimidade relaciona o poder com um sistema de valores (direito de possuí-lo), e a legalidade o relaciona com o ordenamento legal (modo como deve ser exercido), sendo o contrário da legitimidade o poder de fato, e o da legalidade o poder arbitrário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporação territorial, Povo, Ordenamento jurídico, Soberano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 – O conceito de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unidade social básica atual, apresentada como uma corporação territorial de um povo constituído como nação, com um ordenamento jurídico e um aparato de poder independente e soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monopólio da força, Poder de mando originário, Traço peculiar, Autonomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O traço mais peculiar do Estado que o diferencia de outras formas de organização política, consistindo no poder ilimitado e incondicionado de vencer outras vontades, sendo independente no plano externo e supremo no plano interno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de Estado (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monopólio legítimo da coação física, Associação de dominação, Quadro administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associação política que reivindica com êxito o **monopólio legítimo da coação física** para realizar as ordens vigentes dentro de um determinado território geográfico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado (Concepção Racional-Jurídica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder soberano, Realidade político-jurídica, Conjunto de instituições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedade politicamente organizada em um lugar e tempo determinado, com poder soberano, único e exclusivo, sendo uma realidade político-jurídica que reserva a si a tarefa de governar a sociedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origem do Estado Moderno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despersonalização do poder, Século XVI, Sistema feudal, Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surge no século XVI, coincidindo com o Renascimento, quando o poder político se despersonaliza, separando a vida pública da privada, concentrando a dispersão de poderes do sistema feudal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Absolutista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monopólio da força, Uniformidade legislativa, Despolitização da sociedade, Burocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeira forma do Estado moderno, definida como o monopólio da força em três planos (jurídico, político e sociológico), impondo uniformidade legislativa e administrativa e eliminando o pluralismo orgânico estamental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz de Westfália (1648)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Estados, Igualdade soberana, Não intervenção, Fronteiras, Tratado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado que pode ser considerado a primeira tentativa de paz na Europa e a **pedra angular do moderno sistema de relações internacionais**, reconhecendo a soberania dos monarcas e a igualdade soberana dos Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratualismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato social, Estado de natureza, Hobbes, Locke, Rousseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepção segundo a qual o Estado é o produto de uma decisão racional e deliberada dos homens (contrato) para resolver conflitos ou problemas do estado de natureza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Social (Hobbes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leviatã, Guerra de todos contra todos, Segurança individual, Renúncia incondicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explica a origem do Estado absolutista através de um pacto pelo qual os homens renunciam incondicionalmente ao direito de autogovernar-se, transferindo-o ao soberano para obter segurança e ordem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Social (Locke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos naturais, Vida, Liberdade, Propriedade, Estado liberal, Mínimo de funções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O contrato visa à manutenção dos direitos naturais (vida, liberdade e propriedade), transferindo à comunidade o poder mínimo necessário para a segurança e o cumprimento das leis, resultando no Estado liberal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Social (Rousseau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade geral, Corpo moral e coletivo, Soberano (ativo), Estado (passivo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato de associação que cria um **corpo moral e coletivo**, visando defender e proteger pessoas e bens, onde cada um, unindo-se a todos, obedece à **vontade geral** e permanece tão livre quanto antes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepção Marxista de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento de dominação de classe, Superestrutura, Relações de produção, Mais-valia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visão de que o Estado é um instrumento de dominação das classes dominantes (burguesia) para manter seu poder e a exploração (apropriação da mais-valia) sobre as demais classes na sociedade capitalista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institucionalização do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despersonalização, Suporte impessoal, Transferência de poder, Permanência dos atos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação jurídica que transfere o poder político da pessoa dos governantes para uma entidade, o Estado, que se torna o suporte impessoal do poder e garante a permanência dos atos legais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de Direito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subordinação à lei, Legalidade, Domesticação do poder, Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal moral e político que legitima o Estado moderno através da despersonalização do exercício do poder, onde o poder é gerado e regulamentado por leis gerais, e os indivíduos obedecem à lei e não a outros homens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos Essenciais do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Povo, Território, Poder, Soberania, Direito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 – Finalidades e elementos do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os elementos principais do Estado moderno, consensualmente considerados essenciais, são o povo, o território e o poder, sendo que alguns autores incluem o direito ou a soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim Objetivo do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem Comum, Fim próprio, Incondicionado, Santo Tomás de Aquino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fim próprio, objetivo e necessário do Estado, que consiste na criação das condições apropriadas para que todos os grupos e pessoas alcancem seu "bem particular".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim Subjetivo do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governantes, Contingente, Valores, Propósitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fins atribuídos ao Estado por seus governantes ou integrantes da comunidade, que são relativos e contingentes, e expressam os valores e propósitos daqueles que ocupam temporariamente o governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base material, Limite espacial, Soberania territorial, Poder de império</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A base física e porção limitada da superfície terrestre necessária para a organização do Estado, onde ele exerce seu poder de domínio com exclusividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Território (Kelsen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Âmbito espacial, Ordem jurídica, Validade, Ato coativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É o âmbito espacial de validade da ordem jurídica do Estado, o espaço no qual devem se realizar os atos coativos regulados pela ordem estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Povo do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoria jurídica, Cidadania, Vínculo, Unidade cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de pessoas cuja conduta está regulada por uma ordem jurídica nacional, ligados ao Estado pelo vínculo da cidadania, excluindo estrangeiros e apátridas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito demográfico, Quantitativo, Número de indivíduos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito que se refere ao aspecto quantitativo, ou seja, o número de indivíduos que habitam o território do Estado, sem considerar sua condição jurídica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultura semelhante, História comum, Autonomia, Singularidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominação de um povo ao se fixar em área geográfica e adquirir organização político-administrativa, mantendo-se unido por uma história e cultura comuns e consciência de unidade cultural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homogeneidade, Controle, Ordem, Identidade, Monopólio da violência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de organização que surgiu para estabelecer uma ordem homogênea (mesma língua, sistema jurídico), buscando manter o controle sobre a diversidade social e onde o poder reside nos cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nação de Origem Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado criador, Europa Ocidental, Comunidades imaginadas, Benedict Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de nação onde o Estado surge primeiro, sendo o agente ativo na criação ou incentivo de laços culturais e identidade nacional, como no Brasil e nos Estados latino-americanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nação de Origem Étnico-Cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etnia, Base cultural, Direitos do grupo, Fragmentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de nação em que o protagonista é o fator étnico, cujos direitos derivam do grupo social cultural e que tem potencial para não contemplar a diversidade, como ocorreu na Iugoslávia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidade (Jurídica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vínculo jurídico, Relação político-jurídica, Membro do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vínculo jurídico que une o indivíduo a um Estado determinado, sendo a condição de membro da comunidade nacional, e que não fundamenta inicialmente os direitos civis, mas os políticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidadania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membro ativo, Direitos políticos, Sufrágio, Condição democrática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condição de um indivíduo como membro ativo de um Estado, portador de direitos e obrigações, caracterizada pela titularidade dos direitos políticos e pela participação no governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos da Cidadania (Marshall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil, Político, Social, T. H. Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão do conteúdo da cidadania em três partes: elemento civil (liberdades individuais e direito à justiça), elemento político (direito de votar e ser votado) e elemento social (bem-estar e segurança).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedade Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não coativo, Persuasão, Consenso, Autonomia, Relações não coativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfera das relações entre indivíduos e grupos que se desenvolvem de modo **não coativo**, à margem das relações de poder estatal, buscando a hegemonia e o consenso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedade Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coerção, Exercício coercitivo, Leis obrigatórias, Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensão da realidade social onde as relações entre os homens e estruturas têm a ver com o **exercício coercitivo do poder**, resolvendo as contradições com decretos ou leis de acatamento obrigatório.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Democrática da Sociedade Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitação do poder estatal, Controle, Participação, Pluralismo, Tolerância</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consiste em prover as bases para a limitação e o controle do poder estatal, monitorar abusos, estimular a participação política e promover a tolerância e o respeito às posições divergentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania (Conceito Geral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder supremo, Suprema potestas, Caráter absoluto, Perpétuo, Independência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 – Soberania Estatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter supremo de um poder, no sentido de que não admite nenhum outro nem acima nem concorrendo com ele, sendo a qualidade do poder supremo (suprema potestas) e expressando a autonomia do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania (Jean Bodin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Bodin, Poder absoluto e perpétuo, Dar leis, Monarquia, Lei divina e natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Bodin, a soberania é o poder absoluto e perpétuo de uma república, cuja qualidade essencial é o poder de dar leis, anulá-las e interpretá-las sem limitação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania (Rousseau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade geral, Soberania popular, Não alienável, Ser coletivo, Exercício da vontade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito que democratiza a soberania através da **vontade geral**, afirmando que ela reside no povo, não deve ser alienada, e não pode ser representada senão por ele mesmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afirmação Histórica da Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacro Império, Igreja, Poderes feudais, Idade Média, Unidade do reino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo histórico que significou a afirmação da independência do poder real, prevalecendo sobre os poderes do Sacro Império Romano Germânico, da Igreja e dos poderes feudais internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania Interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperium, Território, População, Superioridade do poder político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significa o *imperium* que o Estado exerce sobre o território e a população, representando a superioridade do poder político frente aos demais poderes sociais que lhe ficam sujeitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania Externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independência, Outros Estados, Relações internacionais, Igualdade soberana, ONU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifestação da soberania perante outros Estados que se traduz em sua **independência**, sendo reconhecida no sistema internacional, como previsto na Carta das Nações Unidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideias Implícitas na Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supremacia jurídica, Autonomia do poder, Fonte originária do poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três ideias básicas contidas no conceito: a primazia da ordem jurídica, o monopólio da força coativa (autonomia) e a origem primeira do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania Popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade soberana do povo, Origem do poder, Legitimidade, Ordenamento político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepção que define que, em determinado ordenamento político, nenhum órgão ou instância tem legitimidade se não for constituído ou derivado da vontade soberana do povo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributos da Soberania (Bodin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar leis, Guerra e paz, Magistraturas, Última instância, Impostos, Moedas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os atributos essenciais que constituem o conteúdo da soberania, como o poder de dar leis, declarar guerra ou negociar a paz, instituir magistraturas e dispor sobre impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania (Hugo Grocio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Grocio, Direito Internacional, Paz de Westfália, Igualdade dos Estados, De jure belli ac pacis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensador que contribuiu para a doutrina da soberania no plano externo, defendendo a soberania territorial e a igualdade entre os Estados, e influenciando os princípios do direito internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolução Conceitual da Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Príncipe, Nação, Estado despersonalizado, Soberania da Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumo da trajetória histórica do conceito que evolui de uma concepção pessoal e subjetiva (príncipe) para um caráter impessoal e objetivo, culminando na soberania da Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territorialidade da Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfera territorial, Exclusividade, Jurisdição, Organização do poder, Estado unitário/federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter essencial que exige que a soberania seja atribuída com exclusividade à esfera territorial onde o poder é exercido, sendo um fator de organização do poder que define as formas de Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionamentos Atuais da Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supranacional, Infranacional, Globalização, Ordem internacional, ONGs, Atores políticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo de questionamento do conceito clássico de soberania devido a fatores supranacionais (limitações da ordem internacional) e infranacionais (crescimento de atores como ONGs e empresas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisão de Poderes (Clássica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executiva, Legislativa, Judiciária, Horizontal, Controle recíproco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 6 – As funções do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão tradicional do poder do Estado em três funções (executiva, legislativa e judiciária), atuando com colaboração e controle recíproco para evitar a concentração de poder em um único órgão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo (Conceito)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação política, Órgãos estáveis, Executiva, Legislativa, Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conjunto de órgãos estáveis que coordenam, instrumentam e orientam a ação política expressa como fins do Estado, desenvolvida no exercício das funções básicas (executiva, legislativa e jurídica).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisões iniciais, Força coercitiva, Burdeau, Órgãos do Estado, Representantes do soberano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os indivíduos que, com competência para gerir negócios públicos, tomam as decisões iniciais e detêm o poder de decidir e o exercício da força coercitiva. São tanto órgãos do Estado quanto representantes do soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vícios da Ação dos Órgãos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omissão, Desvio de poder, Excesso de poder, Competência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falhas na atuação dos órgãos de governo: omissão (não cumprimento adequado da função), desvio de poder (transgressão das normas de competência) e excesso de poder (ultrapassar as esferas da função).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisão Horizontal de Poderes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de direito, Equilíbrio prático, Ordem constitucional, Parlamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição de atribuições a órgãos de uma mesma categoria dentro da ordem constitucional, sendo a principal característica do Estado de direito e exigindo equilíbrio entre os órgãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina da Divisão de Poderes (Montesquieu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montesquieu, O espírito das leis, Liberdade política, Autolimitação do poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento para autolimitar o Estado no exercício do poder, visando a máxima liberdade individual, baseada na separação das funções Legislativa, Executiva e Judicial em titulares distintos e vinculados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisão de Poderes (Locke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke, Legislativo, Executivo, Federativo, Supremacia, Relações exteriores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precursor de Montesquieu, identificando o poder legislativo (supremacia da comunidade), o executivo (aplicação prática das leis) e o federativo (relações exteriores).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Constituinte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarto poder, Estrutura constitucional, Revisão, Poderes constituídos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma interpretação que propõe incluir este poder à lista clássica, sendo responsável por dotar a comunidade política de sua estrutura constitucional e revisá-la quando necessário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Legislativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sancionar normas, Promulgar, Hierarquia normativa, Meio de mudanças sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade que objetiva sancionar e promulgar as normas estabelecidas pela autoridade pública, ocupando um nível inferior à Constituição e sendo, nas democracias, um meio eficiente para realizar mudanças sociais pacíficas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo Legislativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial, Informações, Formulação, Deliberação, Decisão final, Veto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo dinâmico que se desenvolve em diversas etapas, incluindo a fase inicial (formal/informal), obtenção de dados, formulação de alternativas, deliberação parlamentar e a decisão final (sanção ou veto).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Executiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administração, Aplicação mecânica, Livre iniciativa, Permanente, Função de governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função de caráter permanente que compreende a atividade administrativa do Estado, que não é apenas execução mecânica de regras, mas contém um campo de livre iniciativa, sendo o complemento necessário da função de governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supremacia do Executivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauriou, Lassale, Intervencionismo, Personalização, Urgência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Característica das democracias modernas, explicada por fatores técnicos (intervencionismo e decisões complexas) e sociológicos (personalização do poder do chefe do Executivo pela democracia de massas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema judiciário, Solução de controvérsias, Aplicação de normas, Independência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função do sistema judiciário (subsistema político) que visa satisfazer a necessidade de solução de controvérsias pela aplicação concreta das normas, exigindo a independência do Poder Judiciário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de Direito (Judiciário)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurisprudência, Lacunas da legislação, Casos concretos, Ato político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade da função jurídica de preencher as brechas da legislação através da jurisprudência, criando um direito jurídico novo para casos concretos e litigiosos, revelando um traço político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leis da Natureza (Montesquieu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz, Alimentos, Aproximação sexual, Viver em sociedade, Antes da sociedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quatro leis consideradas anteriores às leis estabelecidas: a paz (baseada na fraqueza), a busca por alimentos (necessidade), a aproximação sexual e a necessidade de viver em sociedade (laço de conhecimento).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território, Povo, Poder, Centralização, Estrutura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 7 – Formas de Estado e o exercício do Poder Político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A expressão estrutural dos três elementos constitutivos do Estado (território, povo e poder), determinada pela relação do poder com os outros elementos, segundo o grau de centralização ou descentralização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Simples ou Unitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralização, Estrutura política centralizada, Unidade nacional, Incompatível com autonomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organização estatal com estrutura política centralizada, incompatível com a divisão em Províncias ou Municípios investidos de autonomia política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Composto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">União de entidades, Confederação, Federação, Diversidade de poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado da união de várias entidades de natureza estatal por um vínculo social, apresentando sua estrutura diversificada em diferentes centros de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confederação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacto internacional, Estados independentes, Soberania, Direito de secessão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">União permanente de Estados independentes que resulta de um pacto ou acordo internacional, onde os Estados confederados conservam sua soberania e o direito de secessão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federalismo, Karl Loewenstein, Descentralização, Pacto, Constituição, Direito interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrutura de caráter composto, com coexistência de poder federal e poderes locais, originada por um ato de direito público interno e que se cristaliza em uma Constituição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parlamentarismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equilíbrio no Parlamento, Fusão de órgãos, Voto de censura, Dissolução da assembleia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de governo que busca o equilíbrio através da fusão de órgãos no Parlamento, com responsabilidade política comum e controle recíproco, permitindo a dissolução da assembleia pelo Executivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presidencialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separação estrita, Montesquieu, EUA 1787, Mandato fixo, Presidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de governo com separação estrita entre os Poderes Executivo e Legislativo, onde o presidente é Chefe de Estado e de Governo, eleito pelo povo e com mandato fixo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chefe de Estado (Parlamentarismo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Símbolo da unidade nacional, *Auctoritas*, Moderação, Apartidário, Pouco poder efetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função primordial de garantir a unidade e integração política, atuando como símbolo da nação, independente do governo e carente de poder político efetivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moção de Censura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento do Parlamento, Oposição, Derrubada de governo, Demissão obrigatória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento de iniciativa do Parlamento, em particular dos membros da oposição, cuja aprovação implica a obrigação jurídica de o governo apresentar sua demissão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risco de Conflitos no Presidencialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dualidade, Separação estrita, Unidade de decisão, Bloqueio de projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risco inerente ao sistema presidencialista, devido à separação estrita de poderes e à independência recíproca, que pode gerar enfrentamento e dificultar a unidade de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Autos* e *Khratos*, Vontade suprema, Monarquia absoluta, Uma única pessoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de governo autoritário (do grego, governo por si mesmo) no qual a vontade de uma única pessoa é a lei suprema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ditadura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder absoluto, Governo de fato, Força, Violência, Não constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo de fato (e não de *jure*) onde o poder se concentra em torno de um único indivíduo ou grupo com poder absoluto, controlando os três poderes do Estado com base no domínio da força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo do povo, Participação, Decisões coletivas, Livre e igual perante a lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de organização onde as decisões coletivas são adotadas pelo povo, garantindo a possibilidade de influenciar o processo de tomada de decisões de modo legal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarquia Absoluta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei, Imperador, Poder total, Não divisão de poderes, Não responsabilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo baseada no princípio de que o monarca tem poder absoluto e total, sem divisão de poderes (Executivo e Legislativo), sendo a fonte deles o próprio soberano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarquia Parlamentar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei Chefe de Estado, Controle do Legislativo, Poderes limitados, Parlamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo onde o rei exerce a função de chefe de Estado sob o controle do Legislativo e do Executivo, com poderes limitados, e o Parlamento detém o poder de decisão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação, Direito de voto, Eleitorado, Última instância de legitimidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo caracterizada por basear-se na representação de toda sua estrutura através do direito de voto, sendo o eleitorado a última instância de sua legitimidade e soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Líderes religiosos, Religião dominante, Governo em nome de Deus, Ato social religioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo na qual os líderes governamentais são os mesmos líderes da religião dominante, e as políticas governamentais são idênticas ou muito influenciadas pelos princípios religiosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Laico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separação igreja-Estado, Neutralidade, Liberdade de consciência, Igualdade jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal que busca instaurar a separação entre as confissões religiosas e o Estado, garantindo a neutralidade dos poderes públicos, a liberdade de consciência e a igualdade jurídica de todos os cidadãos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo dos técnicos, Especialista, Soluções técnicas, Acima de considerações políticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo liderado por um técnico ou especialista (tecnocrata) que exerce o cargo público priorizando soluções técnicas e tecnicamente eficazes acima de considerações ideológicas ou sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plutocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riqueza, Base do poder, Alto status social, Aristocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo onde a riqueza é a base principal do poder, frequentemente relacionada à aristocracia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classificação Aristotélica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarquia, Aristocracia, Politeia, Formas puras e impuras, Bem-estar geral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classificação que examina as formas de governo pelo número de governantes e pelos fins que buscam (interesse geral ou benefício próprio), diferenciando formas puras (ideais) de impuras (degeneradas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo Despótico (Montesquieu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma só pessoa, Sem leis e regras, Vontade e caprichos, Tirania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo onde uma só pessoa, sem obedecer a leis e regras, realiza tudo por sua vontade e seus caprichos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania da Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despersonalização, Caráter impessoal, Evolução da soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culminação da evolução do conceito de soberania, que passa de uma concepção pessoal (príncipe) para um caráter impessoal e objetivo ancorado na própria lei fundamental do Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia (Conceito)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor universal, Eleições, Liberdades, Construção diária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 8 – Princípiops do Estado Democrático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideia que constitui hoje uma unanimidade, entendida como um valor universal que deve ser construído diariamente e que inclui liberdades e eleições, mas não se limita a elas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia (Etimologia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demos, Kratos, Povo, Poder, Autoridade, Isonomia, Heródoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composta pelas palavras gregas *demos* (povo) e *kratos* (poder/autoridade), foi citada por Heródoto no século V a. C. em conexão com a noção de isonomia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Grega (Antiga)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direta, Pequenas cidades, Homens livres, Coletividade, Exclusão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo direta, circunscrita a pequenas cidades, exercida unicamente por homens livres (excluindo mulheres e escravos) e que dava pouca importância ao indivíduo em comparação à coletividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representativa, Voto secreto, Indivíduo, Ampliação do voto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteriza-se por ser representativa, envolver milhões de pessoas, expressar-se por voto secreto, dar grande valor ao indivíduo e ter ampliado consideravelmente o direito de voto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio Democrático (Aristóteles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade, Igualdade, Assembléia Geral, Alternância, Sorteio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem a liberdade como princípio fundamental (alternância no governo) e a igualdade (onde os pobres, sendo maioria, têm mais poder), com decisões tomadas em Assembleia e cargos acessados por sorteio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Política (Definição)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder político, Todo o povo, Direito, Órgãos do sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de governo na qual o poder político não pertence a um grupo limitado, mas sim a todo o povo na forma do direito, garantindo que o exercício da autoridade ocorra de acordo com normas jurídicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia (Robert Dahl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfazer preferências, Igualdade política, Capacidade de resposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definida pela **capacidade dos governos para satisfazer, de forma continuada, as preferências dos cidadãos, num cenário de igualdade política**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantias Constitucionais (Dahl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de organização, Liberdade de expressão, Direito de voto, Eleições livres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condições essenciais (oito no total) para que as preferências dos cidadãos possam se verificar e o governo seja dependente do voto e das formas de expressão políticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Liberal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Sartori, Vencedor absoluto, Única democracia real, Fim do comunismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo de democracia que, segundo Sartori, se tornou o vencedor absoluto após a dissolução do comunismo (1989/1991), sendo a única democracia "real" que foi levada a cabo na Terra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia moderna, Legitimador, Participação, Revolução Francesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideia estreitamente ligada à democracia moderna, cuja formação se deu com as ideias jurídico-políticas da Revolução Francesa e que possui um fundamental aspecto legitimador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítica de Rousseau à Representação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade geral, Não se representa, Soberania não alienável, Comissários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau considerava a representação incompatível com a democracia, pois a **soberania** consiste na vontade geral, que **não pode ser representada**, sendo os deputados apenas comissários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação Livre (Mandato Representativo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomia dos representantes, Não condicionado, Mandato imperativo (oposto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepção na qual os representantes possuem autonomia e não estão sujeitos a instruções ou compromissos que determinem sua atuação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Direta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rousseau, Assembleia de cidadãos, Inviável em grandes comunidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema em que a assembleia de cidadãos assume diretamente o governo, inviável em comunidades que ultrapassem determinado tamanho e onde o exercício da função legislativa deve ser direto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia Semidireta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participativa, Referendo, Plebiscito, Iniciativa popular, Complemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo de democracia participativa que complementa a democracia liberal-representativa através de instrumentos como o referendo, a iniciativa popular e o plebiscito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Símbolo, Legitimação, Organização do poder, Pluralismo político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimento reconhecido pelas normas de uma organização pelo qual os membros escolhem um número menor de pessoas para posições de autoridade, funcionando como símbolo e instrumento de legitimação e organização do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funções das Eleições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produzir representação, Produzir governo, Produzir legitimidade, Alternância pacífica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três funções principais são: autorizar o representante a exercer a representação, escolher as equipes de direção política e revestir o poder político de autoridade racional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eficácia, Legitimidade, Atendimento de demandas, Respaldo parlamentar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associada à capacidade do partido no poder de responder às demandas da sociedade (eficácia) e à legitimidade, exigindo o funcionamento regular das instituições e o respaldo da maioria do parlamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder de participar, Soberania, Gestão da vida pública, Corpo de cidadãos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder reconhecido a um corpo de cidadãos de participar, direta ou indiretamente, na soberania, ou seja, na gestão da vida pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio Universal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direito de voto, Elegibilidade, Não exclusão, Raça, Sexo, Riqueza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio que determina o direito de voto e a elegibilidade aos cidadãos, sem exclusões politicamente significativas motivadas por sexo, raça, religião ou riqueza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio Censitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condições econômicas, Renda, Limitação do voto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio em que o direito de voto é outorgado apenas àqueles que preenchem determinadas condições econômicas, como um nível de renda mínimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio Direto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem intermediários, Escolha dos titulares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele em que os eleitores determinam, diretamente e sem necessidade de intermediários, quem serão os titulares dos cargos submetidos à eleição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufrágio Secreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não aberto, Não público, Voto de cabresto (oposto), Intimidação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele em que o voto não é aberto ou público, tendo sido adotado no final do século XIX para garantir a liberdade de escolha e evitar pressões exteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema Eleitoral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votos em quotas de poder, Cargos eletivos, Normas eleitorais, Decisões políticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de elementos (decisões políticas) nas normas eleitorais que transformam as preferências eleitorais (votos) em quotas de poder institucionais (cargos eletivos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Eleição Majoritária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maioria de votos, Ganha a eleição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo que expressa a ideia de que quem ganha a maioria dos votos ganha a eleição e tudo o que está em jogo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Eleição Proporcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação distribuída, Proporção de votos, Estrutura partidária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intenção de que a representação política se distribua de modo proporcional ao número de votos obtidos por cada candidatura, valorizando o papel dos partidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crise do Parlamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro de articulação, Poder Executivo, Meios de comunicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O esgotamento de sua função como principal centro de articulação de políticas do Estado Democrático Liberal, sendo substituído pelo Poder Executivo e, no debate, pelos meios de comunicação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crise dos Partidos Políticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentos menos adequados, Demandas da sociedade, Movimentos sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendência de perda de papel como instrumentos adequados para levar demandas ao Estado, sendo substituídos em credibilidade e mobilização por novos atores, como os movimentos sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicada, Autoridade superior, Fidelidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocorre quando uma pessoa é indicada para ocupar uma posição de autoridade por uma autoridade superior, pressupondo fidelidade a quem a designou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooptação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporação, Grupo político determinado, Articulação política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocorre com a incorporação de uma pessoa num grupo político determinado, que passa a integrar esse corpo ou nível de articulação política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo Constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politeia, Constitutio, Distribuição de funções, Poder político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 10 – O Estado Constitucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudo essencial para o entendimento do Estado de direito, que representa um paradigma de distribuição de funções e normatização de competências no exercício do poder político, desde a antiguidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lex Fundamentalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idade Média, Conceito moderno, Constituição, Século XVIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideia que aparece pela primeira vez na Idade Média, iniciando a gestação do conceito moderno de Constituição, que se consolida somente no século XVIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constituição (Aspecto Material)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normas jurídicas fundamentais, Complexo, Escritas ou não, Ordenamento jurídico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O complexo de normas jurídicas fundamentais, escritas ou não, que constituem o referencial de um ordenamento jurídico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constituição (Aspecto Formal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normas legislativas, Posição especial/suprema, Rigidez, Órgãos especiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de normas que ocupam uma posição especial e suprema no ordenamento jurídico, formuladas por órgãos ou procedimentos mais rigorosos que as leis ordinárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supremacia da Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma suprema, Nível superior, Rigidez constitucional, Controle de constitucionalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Característica que a coloca em nível superior às demais normas do ordenamento jurídico, que não a podem contradizer, garantida pelo controle jurídico de constitucionalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Constitucional (Requisito Essencial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituições efetivas, Distribuição do poder, Controle dos destinatários, Loewenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requer a existência de instituições efetivas que distribuam o exercício do poder político entre seus detentores e possibilitem o controle dos que possuem o poder pelos destinatários (o povo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo Primário da Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitar e controlar, Poder político, Regras e procedimentos, Liberar destinatários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de instituições para limitar e controlar o poder político, submetendo seu exercício a regras e procedimentos que garantam uma legítima participação aos destinatários do poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolução Francesa (1789)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaração dos Direitos do Homem e do Cidadão, Expansão do Constitucionalismo, Organização política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acontecimento histórico, juntamente com a fundação dos EUA, que constitui um exemplo da expansão das novas ideias constitucionalistas e consolidou um novo tipo de organização política.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaração de Direitos (1789)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artigo 16, Garantia dos direitos, Separação dos poderes, Liberdades públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto paradigmático do constitucionalismo moderno que afirma que uma sociedade sem garantia dos direitos e sem separação de poderes não tem Constituição, sendo um núcleo essencial da democracia constitucional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill of Rights (1689)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei de Direitos inglesa, Documento básico, Contrato entre Parlamento e Rei, Limites ao rei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento considerado um verdadeiro contrato entre o Parlamento e o rei, que estabeleceu limites claros ao poder real e as condições constitucionais para a monarquia, influenciando a cultura ilustrada europeia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina dos Direitos Naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola de direito natural, Século XVII, Estado de natureza, Pacto social, Direitos anteriores ao Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte filosófica das declarações de direitos, que sustenta que o homem conserva, após o pacto social, direitos que derivam de sua própria natureza e que o Estado não pode privar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisiocratas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem natural, Leis naturais, Não intervenção estatal, Laissez faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola de pensamento econômico que defendia a liberdade econômica e que o Estado não deveria intervir nas leis naturais que regem a sociedade, base do pensamento liberal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos do Homem (Sec. XVIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos naturais, Liberdade civil, Propriedade, Segurança, Não participação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos que correspondem aos direitos naturais, derivados da própria natureza humana, e constituídos basicamente pela liberdade (civil), propriedade e segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos do Cidadão (Sec. XVIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade política, Participação, Pacto social, Soberania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos que derivam da criação da comunidade política através do pacto social e constituem liberdades de participação, subordinando a organização da sociedade ao respeito dos direitos naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio da Legalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei (vontade geral), Único instrumento, Limites à liberdade, Ordem pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio que supõe que a lei, expressão da vontade geral, é o único instrumento válido para estabelecer limites à liberdade com o objetivo de assegurar a convivência pacífica e a ordem pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio da Igualdade (Declarações)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei igual para todos, Cargos públicos, Impostos, Significado político</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio que estabelece que a lei deve ser igual para todos, o livre acesso aos cargos públicos e a igualdade no pagamento dos impostos, possuindo um significado político, sem extensão ao campo social ou econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sujeitar o poder à lei, Arbitrariedade, Valores, Garantias judiciais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal que buscou sujeitar o poder político à lei e impor limites à arbitrariedade, exigindo que a lei esteja baseada em valores aceitos pela sociedade e garantindo a liberdade individual através de normas hierarquicamente dispostas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Liberal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade, Declaração dos Direitos, Separação dos poderes, Anti-absolutismo, Individualismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Estado surgido no século XVIII contra o absolutismo, baseado na Declaração dos Direitos, separação de poderes e Estado de direito, que atuam como mecanismos de controle para garantir a liberdade individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado Liberal-Democrático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade (Liberalismo), Igualdade (Democracia), Sufrágio universal, Convivência de princípios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo onde os princípios de liberdade (liberalismo) e igualdade (democracia) convivem e se complementam, sendo o Estado liberal gradativamente democratizado pela paulatina implantação do sufrágio universal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado do Bem-Estar Social (Welfare State)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção na economia, Serviços públicos universais, Renda mínima, Direitos sociais, Keynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo que sucede o Estado liberal-democrático, ampliando a intervenção estatal para manter renda e emprego, e prestando serviços públicos universais para garantir um nível mínimo de atendimento à população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento do Estado Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema tributário, Distribuição de rendas, Financiamento de serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O instrumento jurídico e econômico fundamental com que o Estado social conta para atingir seus fins, permitindo-lhe realizar a distribuição de rendas e atender às crescentes necessidades de serviços sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Espacial Marinho (PEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COI, UNESCO, Alocação, Atividades humanas, Ecológicos, Econômicos, Sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevância do PEM para a Economia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo público de análise e alocação da distribuição espacial e temporal de atividades humanas em áreas marinhas, visando alcançar objetivos ecológicos, econômicos e sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Azul (Conceito)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OECD, Indústrias baseadas no oceano, Serviços ecossistêmicos, Ativos naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrange as indústrias cujas atividades se baseiam no oceano (transporte marítimo, pesca, energia eólica *offshore*, biotecnologia marinha) e os ativos naturais/serviços ecossistêmicos providos pelo mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEM como Motor Propulsor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança jurídica, Investidores, Geração de empregos, ODS 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerado o grande "motor propulsor" da Economia Azul por reduzir incertezas jurídicas para investidores, gerar empregos, estimular atividades sustentáveis no mar e contribuir para o ODS 14 (Vida Marinha) da Agenda 2030.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos Marinhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuário-usuário, Usuário-ambiente, Mitigação, Serviços ecossistêmicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos que ocorrem entre usos humanos ou entre usos humanos e o meio ambiente marinho, que enfraquecem a capacidade dos oceanos de fornecer serviços ecossistêmicos essenciais, sendo mitigados pelo PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípios do Poder Marítimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahan, Desenvolvimento econômico, Portos seguros, Marinha de guerra, População ligada ao comércio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspectos geopolíticos, segundo Mahan, que afirmam que os governos devem canalizar esforços para o desenvolvimento econômico (indústria naval), aquisição de "portos seguros" e construção de uma marinha capaz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Águas Jurisdicionais Brasileiras (AJB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurisdição marítima, 5,7 milhões de km², Amazônia Azul, Recursos vivos e não vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A área de jurisdição marítima do Brasil, que totaliza 5,7 milhões de km², e que, se bem utilizada, pode otimizar o uso da Economia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimentos privados, Cessão de áreas, Custos elevados, Prazo de amortização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal benefício econômico do PEM, que afiança a certeza de acesso e a previsibilidade legal aos investidores (nacionais e internacionais) em empreendimentos de médio/longo prazo no mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domínio do Mar (Dimensões)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfície, Submersa, Aérea, Tecnologia, Atividades socioeconômicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três dimensões do mar (superfície, submersa e aérea) onde o desenvolvimento é impulsionado pela tecnologia para integrar processos naturais e atividades socioeconômicas, como a exploração *offshore*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto Piloto PEM Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Região Sul, Fronteira marítima, Uruguai, CIRM, Mapeamento de Usos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação do X Plano Setorial para os Recursos do Mar (X PSRM) que prevê a implantação inicial do PEM na região Sul, motivada pela fronteira com o Uruguai e pela representatividade dos ecossistemas e atividades econômicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit de Mentalidade Marítima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conscientização, Decisores governamentais, Poder Marítimo, Interesses nacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de conscientização da sociedade e dos decisores governamentais sobre a importância do Poder Marítimo, sendo uma deficiência que dificulta o investimento e o projeto estratégico marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Proativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão orientada para o futuro, Reativo (oposto), Estratégias de gestão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Característica do PEM que permite aos governantes **planejar e moldar ações** proativamente, em vez de apenas reagir tardiamente aos conflitos e eventos adversos no ambiente marinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnologia e Informação (Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciência, Tecnologia e Informação, Potências centrais, Desenvolvimento sustentável, Milton Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos fundamentais que impulsionam o desenvolvimento das dimensões do mar, sendo que novas técnicas sensíveis estão disponíveis majoritariamente às potências centrais e empresas transnacionais, exigindo investimento para o desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Marítimo e Poder Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder político, econômico, militar, Capacidade de usar o mar, Poder militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Poder Marítimo é a capacidade política, econômica e militar de uma potência em usar o mar, sendo mais abrangente que o Poder Naval, que é restrito à manifestação militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equívoco de Huxley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Huxley, 1883, Riquezas inesgotáveis, Recursos do mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crença histórica, expressa por Thomas Huxley em 1883, de que as riquezas e os recursos do mar são inesgotáveis e que não haveria preocupação com a sustentabilidade de sua exploração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços Ecossistêmicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprovisionamento, Regulação, Cultural, Apoio, ODS 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefícios múltiplos fornecidos pelos ecossistemas marinhos, incluindo serviços de aprovisionamento (alimentos, água), de regulação (clima, água) e culturais (recreação, turismo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazônia Azul (Definição)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superfície, Leito, Subsolo, Plataforma Continental, Limite exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Região que compreende a superfície do mar, águas sobrejacentes ao leito, solo e subsolo marinhos, desde o litoral até o limite exterior da plataforma continental brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Características do PEM Eficaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseado em ecossistemas, Integrado, Estratégico, Adaptativo, Participativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentre as características essenciais para um PEM eficaz, destacam-se ser integrado entre setores, adaptativo (capaz de aprender com a experiência) e estratégico com foco no longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEM Baseado em Ecossistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento sustentável, Metas ecológicas, Metas econômicas, Equilíbrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Característica do PEM que busca o equilíbrio entre metas e objetivos ecológicos, econômicos e sociais em prol do desenvolvimento sustentável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo PEM (10 Passos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO, Suporte financeiro, Pré-planejamento, Monitoramento, Adaptação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequência sistematizada pela UNESCO para a condução do PEM, que não é linear e exige ciclos de *feedback* e adaptação, incluindo a obtenção de suporte financeiro e o monitoramento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoneamento Marinho Isolado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setor por setor, Conflitos, Sem consideração de impactos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prática na qual a designação de espaços marinhos é feita de forma isolada, setor por setor, sem considerar os impactos para o meio ambiente ou outras atividades humanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODS 14 (Vida Marinha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda 2030, Vida marinha, Objetivos de Desenvolvimento Sustentável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo da Agenda 2030 da ONU (Objetivo de Desenvolvimento Sustentável 14) que visa a conservação e o uso sustentável dos oceanos, mares e recursos marinhos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Spots (PEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos, Interação terra-mar, Proteção, Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áreas com maior potencialidade a conflitos na interação terra-mar para uso, proteção e conservação, exigindo maior atenção e intervenções dos gestores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infraestrutura Nacional de Dados Espaciais, IBGE, Geoportal, Metadados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrutura nacional de dados do IBGE que cataloga, integra e harmoniza dados geoespaciais (batimetria, geofísica, oceanografia) para acesso fácil e seguro, essencial para reduzir custos do PEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas Estratégicos de Defesa Naval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SisGAAz, PROSUB, SN-BR, Segurança, Fiscalização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projetos estratégicos, como o Sistema de Gerenciamento da Amazônia Azul (SisGAAz) e o Programa de Desenvolvimento de Submarinos (PROSUB), que visam garantir a defesa dos interesses do país no mar e a segurança da Amazônia Azul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migração de Atividades Econômicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração offshore, Energias renováveis, Aquicultura, Algacultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendência observada nas últimas décadas de transferência de atividades econômicas desenvolvidas majoritariamente em terra (como extração de petróleo, aquicultura) para as três dimensões do mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compromisso ONU 2030 (PEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conferência dos Oceanos 2017, Ação Oceânica 19704, Implantação do PEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compromisso voluntário assumido pelo Brasil na Conferência dos Oceanos da ONU em 2017 de implantar o Planejamento Espacial Marinho no país até o ano de 2030.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciência Oceânica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos multidisciplinares, Ciências biológicas, Ciências físicas, Engenharia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclui todas as disciplinas relacionadas ao estudo do oceano, como ciências físicas, biológicas, químicas e sociais, e busca entender os complexos sistemas sociais e ecológicos.</t>
+  </si>
 </sst>
 </file>
 
@@ -1581,7 +3252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,12 +3296,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1690,7 +3355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1720,18 +3385,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1944,10 +3597,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E187" activeCellId="0" sqref="E187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B335" activeCellId="0" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4702,16 +6355,16 @@
       <c r="A146" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="3" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4719,13 +6372,13 @@
       <c r="A147" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="3" t="s">
         <v>428</v>
       </c>
     </row>
@@ -4733,16 +6386,16 @@
       <c r="A148" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="3" t="s">
         <v>429</v>
       </c>
     </row>
@@ -4750,16 +6403,16 @@
       <c r="A149" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="3" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4767,14 +6420,13 @@
       <c r="A150" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C150" s="0"/>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="3" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4782,16 +6434,16 @@
       <c r="A151" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="3" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4799,16 +6451,16 @@
       <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4816,16 +6468,16 @@
       <c r="A153" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="3" t="s">
         <v>442</v>
       </c>
     </row>
@@ -4833,16 +6485,16 @@
       <c r="A154" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="3" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4850,16 +6502,16 @@
       <c r="A155" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="3" t="s">
         <v>447</v>
       </c>
     </row>
@@ -4867,16 +6519,16 @@
       <c r="A156" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="3" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4884,16 +6536,16 @@
       <c r="A157" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="3" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4901,16 +6553,16 @@
       <c r="A158" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" s="3" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4918,13 +6570,13 @@
       <c r="A159" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="3" t="s">
         <v>457</v>
       </c>
     </row>
@@ -4932,16 +6584,16 @@
       <c r="A160" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4949,16 +6601,16 @@
       <c r="A161" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="3" t="s">
         <v>463</v>
       </c>
     </row>
@@ -4966,16 +6618,16 @@
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" s="3" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4983,16 +6635,16 @@
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="3" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5000,13 +6652,13 @@
       <c r="A164" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="3" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5014,13 +6666,13 @@
       <c r="A165" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5028,13 +6680,13 @@
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5042,16 +6694,16 @@
       <c r="A167" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="E167" s="4" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5059,16 +6711,16 @@
       <c r="A168" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E168" s="4" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5076,16 +6728,16 @@
       <c r="A169" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E169" s="10" t="s">
+      <c r="E169" s="4" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5093,16 +6745,16 @@
       <c r="A170" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E170" s="10" t="s">
+      <c r="E170" s="4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5110,16 +6762,16 @@
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E171" s="10" t="s">
+      <c r="E171" s="4" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5127,14 +6779,13 @@
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C172" s="0"/>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="4" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5142,16 +6793,16 @@
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E173" s="10" t="s">
+      <c r="E173" s="4" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5159,16 +6810,16 @@
       <c r="A174" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E174" s="10" t="s">
+      <c r="E174" s="4" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5176,14 +6827,13 @@
       <c r="A175" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C175" s="0"/>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E175" s="4" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5191,16 +6841,16 @@
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E176" s="10" t="s">
+      <c r="E176" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5208,14 +6858,13 @@
       <c r="A177" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C177" s="0"/>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E177" s="10" t="s">
+      <c r="E177" s="4" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5223,17 +6872,3677 @@
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E178" s="10" t="s">
+      <c r="E178" s="4" t="s">
         <v>502</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="F328" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="F329" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="F330" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="F331" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="F341" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F342" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F343" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F344" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F345" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F346" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F347" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F348" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F349" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F350" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F351" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F352" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F353" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F354" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F355" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F356" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F357" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F358" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F359" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F360" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F361" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$142</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$387</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1127">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">aspiração ao poder, direção do agrupamento político, influenciar a divisão do poder</t>
   </si>
   <si>
-    <t xml:space="preserve">Weber entende a política como o conjunto de esforços feitos para participar ou influenciar a divisão do poder, seja entre Estados, seja no interior de um único Estado. Todo homem que se dedica à política aspira ao poder.</t>
+    <t xml:space="preserve">Weber entende a política como o “conjunto de esforços feitos com vistas a *participar do poder* ou *influenciar a divisão do poder*, seja *entre Estados*, seja no interior de um *único Estado*.” Todo homem que se dedica à política aspira ao poder.</t>
   </si>
   <si>
     <t xml:space="preserve">Policy (Política como Ação)</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">Cap. 2 – A questão do Poder</t>
   </si>
   <si>
-    <t xml:space="preserve">O poder supremo ao qual todos os outros estão submetidos, fundamental para organizar a vida em sociedade ou estabelecer a dominação, e que se caracteriza pela exclusividade do uso da força.</t>
+    <t xml:space="preserve">O *poder supremo* ao qual todos os outros estão submetidos, fundamental para *organizar a vida em sociedade* ou *estabelecer a dominação*, e que se caracteriza pela exclusividade do uso da força. Para se ter o poder político necessita-se *legitimidade*. Assim tolera-se um *grau maior ou menor de dominação* entre os grupos sociais.</t>
   </si>
   <si>
     <t xml:space="preserve">Conceito de Poder</t>
@@ -1688,16 +1688,106 @@
     <t xml:space="preserve">Processo social, Relação social, Coação, Capacidade de decisão, Superioridade</t>
   </si>
   <si>
-    <t xml:space="preserve">Processo social que implica a capacidade de indivíduos ou grupos de modificar o comportamento de outros, pressupondo uma relação de superioridade e dependência.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite</t>
+    <t xml:space="preserve">*Processos sociais* que implicam a capacidade de indivíduos ou grupos de modificar o comportamento de outros, pressupondo uma *relação de poder* (superioridade e dependência). O Poder pode ser *econômico*, *militar*, *cultural*, *familiar*, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despersonalização do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação aceita, Ente abstrato, Submissão facilitada, Elite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A *despersonalização do poder* é um fator que facilita a *submissão* e *aceitação da dominação*, pois se exige que se aceite a dominação de um *ente abstrato*. Embora o poder seja despersonalizado e aceito como um ente abstrato, o seu exercício é feito por *pessoas reais (as elites)*, que detêm a primazia de determinar as ações.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elites e o Poder</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo dominante, Minoria, Prestigio, Dominância, Classe governante, Mosca, Pareto</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo de indivíduos pouco numeroso que se destaca em determinada atividade, detendo o prestígio e o domínio social, e que exerce o poder político num determinado momento histórico.</t>
+    <t xml:space="preserve">*É uma minoria que possui, qualitativamente, poder* para tomar decisões e influenciar a maioria que a envolve. *Em toda sociedade há numerosas elites*: elite militar, sindical, cultural, econômica, religiosa, política, etc.
+No sistema político, somente a *elite governante*, os titulares do poder político, *possui o poder político*. 
+*As demais elites sociais e políticas possuem capacidade de influenciar o poder político oficial, mas, na maioria das vezes, não o detém.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Friedrich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem adquire Poder adquire também a capacidade de coagir. Assim, a origem do poder é a coação. O poder relacional é bastante consensual e cooperativo. Para que tenha seguidores e estes lutem por seus objetivos. Base essencial está na submissão e no conformismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Parsons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a capacidade de um sistema social para mobilizar recursos para atingir metas coletivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Aristóteles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define 3 tipos de poder:
+Patriarcal(Paterno) - Do Pai sobre os filhos ........ Exercido no interesse dos filhos.
+Do Senhor sobre escravos .......Exercido no interesse do Senhor.
+Do Governo sobre os governados ......Exercido no interesse de ambos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Bobbio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define 3 tipos de poder social:
+Poder Econômico ..........Se vale de quem tem posses sobre os que não têm.
+Poder Ideológico............Capacidade de influenciar (sacerdotes, cientistas, intelectuais).
+Poder Político................ Se vale da posse dos instrumentos que exercem força física.
+Esses três tipos têm a característica comum de manter uma *sociedade de desiguais*: pobre e rico, sapientes e ignorantes, fortes e fracos. Ou seja, superiores e inferiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Sartori)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Todo processo político é um “processo de poder”.* Deve-se distinguir entre um tipo e outro de poder: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Poder como Força ≠ Poder como Autoridade*
+*Poder de Coagir ≠ Poder de Persuasão*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Para ele, *a autoridade é “um poder baseado na persuasão, no prestígio, na deferência”*. 
+Autoridade = *liderança, apoio espontâneo*.
+*Democracia caracteriza-se pela capacidade de transformar poder em autoridade.*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de Poder (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“poder significa toda probabilidade de *impor a própria vontade numa relação social*; mesmo contra resistências...”
+*ATENÇÃO: A maior parte dos cientistas sociais compartilha da ideia de que poder é a capacidade para afetar o comportamento dos outros.*</t>
   </si>
   <si>
     <t xml:space="preserve">Tipos de Poder Social (Bobbio)</t>
@@ -1709,13 +1799,40 @@
     <t xml:space="preserve">Classificação do poder social em três tipos: poder econômico (posse de bens escassos), poder ideológico (influência de ideias) e poder político (uso da força física).</t>
   </si>
   <si>
+    <t xml:space="preserve">Poder Legítimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceitação, Obediência, Autoridade, Legalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder é legítimo quando é *aceito* e existe a *disposição de obediência* por parte daqueles que não o detêm, baseando-se no *consentimento durável* e tendente à unanimidade e na *crença de que quem manda possui razões para isso*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Ilegítimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistência, Não aceitação, Força, Poder de Fato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder é *ilegítimo* quando exercido por indivíduo ou grupo social que *não é aceito pelos demais* e impõe sua vontade mesmo havendo resistência. *Seu contrário é o poder de fato*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fontes de Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Força, Autoridade, Coerção física, Legitimação, Consentimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As principais fontes de poder são a *força* e a *autoridade*.  Essas fontes raramente aparecem isoladas, surgindo associadas em diferentes graus.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Força</t>
   </si>
   <si>
     <t xml:space="preserve">Coerção física, Monopólio do Estado, Armas, Fonte de poder</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonte de poder que se refere ao uso ou ameaça de coerção física, sendo o monopólio do uso da força uma das principais características do Estado.</t>
+    <t xml:space="preserve">Fonte de poder que se refere ao uso ou ameaça de coerção física, sendo o *monopólio* do uso da força uma das principais características do Estado. Há muitos casos em que a forca e a autoridade se combinam: FFAA, polícia, guarda municipal, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Autoridade</t>
@@ -1724,34 +1841,34 @@
     <t xml:space="preserve">Direito de decisão, Legitimidade, Conteúdo jurídico/moral, Consentimento, Poder de persuasão</t>
   </si>
   <si>
-    <t xml:space="preserve">Legitimacão do poder que ocorre através da incorporação de conteúdo jurídico e/ou moral, baseada no consentimento durável e na persuasão, sendo um direito estabelecido para ordenar ações de outrem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoridade Racional-Legal</t>
+    <t xml:space="preserve">*Legitimacão* do poder que ocorre através da incorporação de conteúdo jurídico e/ou moral, baseada no consentimento durável e na persuasão, sendo um direito estabelecido para ordenar ações de outrem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Racional-Legal (Max Weber)</t>
   </si>
   <si>
     <t xml:space="preserve">Max Weber, Burocrática, Cargo, Lei, Regras escritas, Consenso, Modernos Estados</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada no cargo ou posição formalmente instituída, legítima por estar de acordo com as leis e regras escritas, e encontrada nos modernos Estados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoridade Carismática</t>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada no *cargo ou posição formalmente instituída*, legítima por estar de acordo com as leis e regras escritas, e encontrada nos modernos Estados. (Organizações, Juiz, Funcionário Público, Presidência…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Carismática (Max Weber)</t>
   </si>
   <si>
     <t xml:space="preserve">Max Weber, Carisma, Qualidades pessoais excepcionais, Líder, Irracional, Revolucionária, Populismo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada nas qualidades pessoais extraordinárias de um indivíduo, como heroísmo ou santidade, e que é especificamente irracional e revolucionária.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoridade Tradicional</t>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada nas qualidades pessoais extraordinárias de um indivíduo *(Líder)*, como heroísmo ou santidade, e que é especificamente irracional e revolucionária. (Jesus, Ghandi, Hitler, Fidel, Vargas, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Tradicional (Max Weber)</t>
   </si>
   <si>
     <t xml:space="preserve">Max Weber, Crença, Costumes, Tradições, Vontade da pessoa, Vassalagem</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada na crença, normas e tradições sagradas, onde a obediência é devida ao senhor em virtude da dignidade pessoal que lhe atribui a tradição.</t>
+    <t xml:space="preserve">Tipo de autoridade (ou dominação) baseada na *crença, normas e tradições sagradas*, onde a obediência é devida ao senhor em virtude da dignidade pessoal que lhe atribui a tradição. (Rei, Padre, Pai…)</t>
   </si>
   <si>
     <t xml:space="preserve">Maquiavel e o Poder</t>
@@ -1760,16 +1877,109 @@
     <t xml:space="preserve">Nicolau Maquiavel, O Príncipe, Técnica política, Força e Astúcia, Ser temido, Razão de Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Análise que rompe com a tradição moral e religiosa, tratando a política como uma técnica a serviço da conquista e manutenção do poder, justificando o uso da força e da astúcia, e considerando mais importante ser temido do que amado.</t>
+    <t xml:space="preserve">*Ruptura* com princípios medievais de que a política era inseparável da *moral e da religião*, tratando a política como uma *técnica* a serviço da conquista e manutenção do poder, justificando o uso da força e da astúcia, e considerando mais importante ser *temido do que amado*. *Religião e a Moral* podem ser utilizadas para consolidar o Poder, mas *não são necessárias para o seu funcionamento*.
+É fácil convencer o homem, mas difícil mantê-lo nas convicções. *Quando houver tendência a não acreditarem mais, a força será usada para mantê-los*.
+Não é preciso ser piedoso, fiel, humanitário, integro ou religioso. *É suficiente parecer com tudo isso!*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividades, Primazia política, Dominação institucionalizada, Funcionamento concreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo é concebido como um complexo de atividades que detém a primazia política na sociedade. *Constitui-se no modelo institucionalizado de uma dominação estabilizada*, sendo a manifestação e o funcionamento concreto do que se denomina política. As organizações governamentais geram poder e o fornecem às demais partes da sociedade.</t>
   </si>
   <si>
     <t xml:space="preserve">Dominação</t>
   </si>
   <si>
-    <t xml:space="preserve">Obediência, Max Weber, Quadro administrativo, Legitimidade, Vontades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidade de encontrar obediência a uma ordem, ligada à presença efetiva de alguém mandando eficazmente em outros e que, essencialmente, exige bases de legitimidade para se apoiar.</t>
+    <t xml:space="preserve">Probabilidade de obediência, Vontades, Quadro administrativo, Legitimidade, Autoridade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação significa a probabilidade de encontrar obediência (dentro de um grupo determinado) a uma ordem e está ligada à presença efetiva de alguém mandando eficazmente em outros. Envolve uma inclinação de vontades que aceitam uma base mínima de autoridade e exige, essencialmente, bases de legitimidade para se apoiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obediência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submissão, Conformismo, Disposição, Legitimidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A obediência está intrinsecamente ligada à dominação (*aceitação da autoridade*), sendo um componente essencial do poder. O poder encontra sua base essencial na submissão e no conformismo dos membros do grupo. A disposição de obediência por parte daqueles que não detêm o poder é o que confere a legitimidade a este poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação Política (Marxista)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes sociais, Meios de produção, Comitê executivo, Violência organizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a concepção marxista, o fundamento da dominação reside na divisão *econômica das classes sociais*. A classe social que mantém o controle dos meios de produção obtém a dominação, sob a forma de governo, que é visto como o comitê executivo da classe dominante exercendo a violência organizada para oprimir a classe dominada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação Política (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimidade, Quadro administrativo, Crença, Autoridade, Estabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na vertente de Max Weber, a dominação vai além dos meios econômicos e de classe. A estabilidade da dominação decorre, sobretudo, da existência de um *quadro administrativo ou burocracia* e, como fator essencial, da *crença na legitimidade* da posição para governar com autoridade.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dominação Legal (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Max Weber)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatutos, Impessoal, Legalidade, Servidor do Estado, Burocracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É *baseada em estatutos*, na crença na validez de um estatuto legal e de uma competência positiva. A obediência é devida a ordens impessoais, objetivas e legalmente instituídas. *É o poder exercido pelo servidor do Estado ou funcionário público.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação Tradicional (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devoção, Costumes, Passado eterno, Fidelidade pessoal, Patrimonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseada na crença, normas e tradições sagradas. *Obedece-se à pessoa nomeada pela tradição em virtude da devoção de hábitos costumeiros*. O fundamento de sua legitimidade é dado pela autoridade do *“passado eterno”* e dos *costumes santificados*. A obediência se dá à pessoa, não a estatutos. Pode ser exercida com quadro administrativo (dominação patrimonial) ou sem ele (dominação patriarcal). Ex: Obediência ao Estado Religioso (Irã)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação Carismática (Max Weber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualidades pessoais, Confiança, Revolucionária, Populismo, Líder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseada em dons pessoais e extraordinários do indivíduo (carisma) e na confiança estritamente pessoal depositada nele. A associação dos adeptos é uma relação comunitária de *caráter emocional*. Opõe-se dominação racional e tradicional, sendo especificamente revolucionária por derrubar o passado e não conhecer regras. *Manifesta-se no populismo* e só é legítima enquanto o carisma pessoal encontrar reconhecimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominação Política</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monopólio da força, Coerção, Estado, Obediência cotidiana, Supremo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A forma mais perfeita dessa *dominação ocorre no Estado como instituição política*, que detém o monopólio do *uso legítimo da força*. Este poder coercitivo caracteriza a obediência cotidiana. </t>
   </si>
   <si>
     <t xml:space="preserve">Legitimidade</t>
@@ -1778,7 +1988,19 @@
     <t xml:space="preserve">Crença predominante, Obrigação política, Validade, Justificação, Autoridade</t>
   </si>
   <si>
-    <t xml:space="preserve">Consiste na crença predominante de que quem manda possui razões para isso, gerando a convicção do dever moral de obediência e o reconhecimento social da validade do poder.</t>
+    <t xml:space="preserve">Legitimidade se refere à autoridade e à dominação.
+Consiste na crença predominante de que quem manda possui razões para isso, gerando a convicção do dever moral de obediência e o reconhecimento social da validade do poder.
+Não há um único fundamento da legitimidade, mas uma pluralidade de fontes.
+*Um poder só é legítimo, quando quem o detém o exerce a justo título, norma ou conjunto de normas gerais (Constituição)*. Ex: No rio de janeiro, algumas áreas dominadas pelos criminosos ou milícias, o poder do Estado não é legítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legitimidade renovada, Eleições, Autoridade, Acordo básico, Delegação de poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A democracia é um sistema político que, essencialmente, exige a constante *renovação da legitimidade dos governos*, o que é realizado pela *submissão periódica à vontade popular* através de eleições. Mesmo os *governos autocráticos*, que detém , de fato, o poder pelo *monopólio da força*, buscam legitimar-se por *eleições controladas*. Ex: Cuba, Coréia do Norte, China, Rússia (Meio-termo).</t>
   </si>
   <si>
     <t xml:space="preserve">Teoria da Circulação das Elites</t>
@@ -1790,13 +2012,104 @@
     <t xml:space="preserve">Teoria que descreve o processo dinâmico e permanente de formação e substituição das elites no poder, onde membros das camadas inferiores ascendem aos postos superiores, e cuja interrupção pode levar a revoluções.</t>
   </si>
   <si>
-    <t xml:space="preserve">Legalidade vs. Legitimidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de valores, Ordenamento legal, Poder de direito, Poder de fato, Poder arbitrário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distinção fundamental onde a legitimidade relaciona o poder com um sistema de valores (direito de possuí-lo), e a legalidade o relaciona com o ordenamento legal (modo como deve ser exercido), sendo o contrário da legitimidade o poder de fato, e o da legalidade o poder arbitrário.</t>
+    <t xml:space="preserve">Legitimidade do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crença, Dever moral de obediência, Valores, Poder de fato, Direito de possuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legitimidade consiste na crença predominante de que quem manda possui razões para isso e gera a convicção do dever moral de obediência. Quando se exige que o poder seja legítimo, espera-se que aquele que o detém tenha o *direito de possuí-lo*.
+Pode existir *legitimidade, sem legalidade* - quando os governantes cometem impunemente atos de abuso de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legalidade do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordenamento jurídico, Não arbitrário, Modo de exercício, Poder arbitrário, Estado de direito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legalidade relaciona o poder a um determinado ordenamento legal (sistema de normas e regras jurídicas). Diz respeito ao *modo como o poder deve ser exercido*, exigindo que este não seja exercido de forma arbitrária. 
+Pode existir *legalidade sem legitimidade* – quando o poder anterior foi substituído por um poder de fato, quando este não cumpre com determinado sistema de valores. *Por exemplo, devido a opressão que aplicava, apesar da legalidade que o amparava.* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre Poder Legal e Legítimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores vs. Normas, Poder de Fato, Poder Arbitrário, Modo de Exercício, Direito de Possuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O contrário do *poder legítimo* é o *poder de fato*.
+O contrário do *poder legal* é o *poder arbitrário*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria das Elites (Mosca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governantes, Governados, Minoria Dominante, Monopólio do Poder, Elite-Massas, Classe Política Organizada, Elementi di scienza politica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Gaetano Mosca*, estabelece que em todas as sociedades existem duas classes: a dos *governantes* e a dos *governados*. A classe dos governantes (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">poder verdadeiro) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">é sempre a menos numerosa, mas monopoliza o poder, cumpre todas as funções públicas e goza das vantagens a elas anexas. Essa classe política obtém sua força por estar organizada em torno de interesses comuns, tornando-se um grupo homogêneo e solidário. A classe dos governados é a mais numerosa, mas é dirigida e regulada pela elite, sendo desorganizada, dividida, desarticulada, dispersa e desunida (*COMPROVA A ANTÍTESE Elites-Massas*).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria da Circulação das Elites (Teorema de Pareto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulação das Elites, Desigualdade, Aristocracia, Camada Superior/Inferior, Elite Governante/Não Governante, Revoluções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilfredo Pareto popularizou o uso do termo "elite". O teorema de Pareto desenvolve o conceito de *circulação das elites*, descrevendo o processo *dinâmico e inevitável* de formação e *substituição sucessiva das elites no poder*. A história, segundo Pareto, exibe uma luta contínua e sucessiva entre uma aristocracia e outra. A circulação lenta de indivíduos das camadas inferiores para a classe governante é normal, mas quando a força propulsora da camada superior diminui e há carência de indivíduos decididos a usar a força, as camadas inferiores podem produzir novas elites, gerando condições para o *nascimento de revoluções*. No entanto, após as revoluções, o *dualismo elites-massas se reconstitui*, confirmando que somente as elites dispõem de capacidade para manter o poder político.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria das Elites (C. Wright Mills)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elite no Poder, Três Setores, Economia, Exército, Política, Homem Comum, Posições Estratégicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Wright Mills desenvolveu uma análise sociológica focada na sociedade norte-americana (dominados por um restrito grupo de poder). Essa Elite no Poder (*Power Elite*) é formada por aqueles que ocupam posições-chave em três setores principais: *economia, forças armadas e política*. *Esses indivíduos estão ligados, sustentam-se e reforçam-se reciprocamente*, tendendo a concentrar seus instrumentos de poder em instituições centralizadas e independentes (*Complexo Militar-industrial, superbilionários*).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria da Elites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Há sempre uma minoria que detém o poder em suas diversas formas*, diante de uma maioria que não a possui.
+*Antítese elites-massas* – as elites tem um papel positivo, contrapondo-se ao ideário socialista no qual esta polarização é favorável às massas.
+Os elementos comuns das teorias das elites estabelecem que: 
+1) Em toda sociedade organizada, as relações entre os indivíduos ou entre grupos são relações de desigualdade;
+2) Distribuição desigual do poder (Minorias);
+3) O poder político é o mais determinante nas relações;
+4) A classe política, minoritária, é mais organizada e apresentam interesses comuns;
+5) O grupo que se contrapõe a elite é a massa – não detém poder relevante, apesar de ser maioria;
+6) O poder pertence sempre a uma minoria; e
+7)  A única diferença entre um regime e outro se encontra na existência ou não de disputa entre as minorias.</t>
   </si>
   <si>
     <t xml:space="preserve">Estado Nacional</t>
@@ -2442,9 +2755,6 @@
   </si>
   <si>
     <t xml:space="preserve">Forma de governo de fato (e não de *jure*) onde o poder se concentra em torno de um único indivíduo ou grupo com poder absoluto, controlando os três poderes do Estado com base no domínio da força.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democracia</t>
   </si>
   <si>
     <t xml:space="preserve">Governo do povo, Participação, Decisões coletivas, Livre e igual perante a lei</t>
@@ -3252,7 +3562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3305,6 +3615,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3355,7 +3678,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3364,8 +3687,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3385,6 +3716,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3597,42 +3944,42 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G361"/>
+  <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B335" activeCellId="0" sqref="B335"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E390" activeCellId="0" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="71.94"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="71.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3876,7 +4223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -3896,7 +4243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3916,7 +4263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -3936,7 +4283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3956,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3976,7 +4323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -3996,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,7 +4363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -4036,7 +4383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,7 +4403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -4076,7 +4423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -4096,7 +4443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -4116,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -4136,7 +4483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -4156,7 +4503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4176,7 +4523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -4196,7 +4543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -4216,7 +4563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -5116,7 +5463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>245</v>
       </c>
@@ -5136,14 +5483,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5156,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>245</v>
       </c>
@@ -5176,7 +5523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -5196,7 +5543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -5209,14 +5556,14 @@
       <c r="D80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="6" t="s">
         <v>257</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -5236,7 +5583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -5256,7 +5603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
@@ -5276,7 +5623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
@@ -5296,7 +5643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -5316,7 +5663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>245</v>
       </c>
@@ -5329,14 +5676,14 @@
       <c r="D86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="6" t="s">
         <v>270</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -5349,14 +5696,14 @@
       <c r="D87" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="6" t="s">
         <v>272</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
@@ -5369,14 +5716,14 @@
       <c r="D88" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="6" t="s">
         <v>274</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
@@ -5389,14 +5736,14 @@
       <c r="D89" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="6" t="s">
         <v>276</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -5409,14 +5756,14 @@
       <c r="D90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="6" t="s">
         <v>278</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>245</v>
       </c>
@@ -5429,14 +5776,14 @@
       <c r="D91" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="6" t="s">
         <v>280</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -5449,14 +5796,14 @@
       <c r="D92" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="6" t="s">
         <v>282</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>245</v>
       </c>
@@ -5469,14 +5816,14 @@
       <c r="D93" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="6" t="s">
         <v>284</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
@@ -5489,14 +5836,14 @@
       <c r="D94" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="6" t="s">
         <v>286</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>245</v>
       </c>
@@ -5509,74 +5856,74 @@
       <c r="D95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="6" t="s">
         <v>289</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>291</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="6" t="s">
         <v>292</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>294</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="6" t="s">
         <v>295</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="6" t="s">
         <v>298</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -5589,14 +5936,14 @@
       <c r="D99" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="6" t="s">
         <v>300</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -5606,14 +5953,14 @@
       <c r="D100" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="6" t="s">
         <v>302</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -5623,14 +5970,14 @@
       <c r="D101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>245</v>
       </c>
@@ -5640,14 +5987,14 @@
       <c r="D102" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="6" t="s">
         <v>306</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -5657,14 +6004,14 @@
       <c r="D103" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="6" t="s">
         <v>308</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>245</v>
       </c>
@@ -5674,11 +6021,11 @@
       <c r="D104" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>245</v>
       </c>
@@ -5688,11 +6035,11 @@
       <c r="D105" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
@@ -5702,11 +6049,11 @@
       <c r="D106" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>245</v>
       </c>
@@ -5716,11 +6063,11 @@
       <c r="D107" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
@@ -5730,11 +6077,11 @@
       <c r="D108" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -5747,11 +6094,11 @@
       <c r="D109" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -5761,96 +6108,96 @@
       <c r="D110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>325</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="7" t="s">
         <v>328</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -5860,11 +6207,11 @@
       <c r="D116" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>245</v>
       </c>
@@ -5874,11 +6221,11 @@
       <c r="D117" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
@@ -5888,1004 +6235,1004 @@
       <c r="D118" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
+    <row r="119" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+    <row r="120" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+    <row r="121" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+    <row r="122" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
+    <row r="123" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
+    <row r="124" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+    <row r="125" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
+    <row r="126" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
+    <row r="127" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
+    <row r="128" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+    <row r="129" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
+    <row r="130" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+    <row r="131" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
+    <row r="132" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
+    <row r="133" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
+    <row r="134" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
+    <row r="135" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
+    <row r="136" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
+    <row r="137" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="s">
+    <row r="138" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="s">
+    <row r="139" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="s">
+    <row r="140" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="s">
+    <row r="141" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="s">
+    <row r="142" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="s">
+    <row r="143" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="s">
+    <row r="144" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
+    <row r="145" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="6" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="6" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>503</v>
       </c>
@@ -6898,14 +7245,14 @@
       <c r="D179" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="2" t="s">
         <v>507</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -6918,14 +7265,14 @@
       <c r="D180" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" s="2" t="s">
         <v>510</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>503</v>
       </c>
@@ -6938,14 +7285,14 @@
       <c r="D181" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="2" t="s">
         <v>513</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>503</v>
       </c>
@@ -6958,14 +7305,14 @@
       <c r="D182" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="2" t="s">
         <v>516</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>503</v>
       </c>
@@ -6978,14 +7325,14 @@
       <c r="D183" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="2" t="s">
         <v>519</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>503</v>
       </c>
@@ -6998,14 +7345,14 @@
       <c r="D184" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="2" t="s">
         <v>522</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>503</v>
       </c>
@@ -7018,14 +7365,14 @@
       <c r="D185" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="2" t="s">
         <v>525</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>503</v>
       </c>
@@ -7038,14 +7385,14 @@
       <c r="D186" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="2" t="s">
         <v>528</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>503</v>
       </c>
@@ -7058,14 +7405,14 @@
       <c r="D187" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="2" t="s">
         <v>531</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>503</v>
       </c>
@@ -7078,14 +7425,14 @@
       <c r="D188" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="2" t="s">
         <v>534</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>503</v>
       </c>
@@ -7098,14 +7445,14 @@
       <c r="D189" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="2" t="s">
         <v>538</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>503</v>
       </c>
@@ -7118,14 +7465,14 @@
       <c r="D190" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="2" t="s">
         <v>541</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -7138,14 +7485,14 @@
       <c r="D191" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="2" t="s">
         <v>544</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>503</v>
       </c>
@@ -7158,748 +7505,700 @@
       <c r="D192" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="2" t="s">
         <v>547</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>553</v>
+      <c r="E194" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>555</v>
+      <c r="B195" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>556</v>
+      <c r="E195" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>558</v>
+      <c r="B196" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>559</v>
+      <c r="E196" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="138.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>561</v>
+      <c r="B197" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>562</v>
+      <c r="E197" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>564</v>
+      <c r="B198" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>565</v>
+      <c r="E198" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+    </row>
+    <row r="201" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E201" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+    </row>
+    <row r="202" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B202" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C202" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D202" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E202" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+    </row>
+    <row r="203" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E203" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="F203" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E204" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B203" s="1" t="s">
+      <c r="F204" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D205" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F205" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E204" s="1" t="s">
+      <c r="D206" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B205" s="1" t="s">
+      <c r="F206" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E205" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B206" s="1" t="s">
+      <c r="F207" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="165.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E206" s="1" t="s">
+      <c r="D208" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="F208" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B209" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C209" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="D209" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+    </row>
+    <row r="210" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C210" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="D210" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E210" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+    </row>
+    <row r="211" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B211" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C211" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="D211" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E211" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+    </row>
+    <row r="212" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B212" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C212" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E210" s="1" t="s">
+      <c r="D212" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E212" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C213" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="D213" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+    </row>
+    <row r="214" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C214" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="D214" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E214" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+    </row>
+    <row r="215" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C215" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E213" s="1" t="s">
+      <c r="D215" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E215" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+    </row>
+    <row r="216" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B216" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C216" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E214" s="1" t="s">
+      <c r="D216" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E216" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+    </row>
+    <row r="217" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C217" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E215" s="1" t="s">
+      <c r="D217" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E217" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+    </row>
+    <row r="218" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E216" s="1" t="s">
+      <c r="D218" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E218" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="F218" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C219" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D219" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+    </row>
+    <row r="220" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D220" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="F220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B221" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="C221" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D221" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E219" s="1" t="s">
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+    </row>
+    <row r="222" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B222" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="C222" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D222" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E220" s="1" t="s">
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+    </row>
+    <row r="223" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B223" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B221" s="1" t="s">
+      <c r="C223" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D223" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E223" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E221" s="1" t="s">
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+    </row>
+    <row r="224" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B224" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B222" s="1" t="s">
+      <c r="C224" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D224" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E224" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E222" s="1" t="s">
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+    </row>
+    <row r="225" customFormat="false" ht="255.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B225" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="C225" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D225" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E225" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E223" s="1" t="s">
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+    </row>
+    <row r="226" customFormat="false" ht="210.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B226" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C224" s="1" t="s">
+      <c r="C226" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E224" s="1" t="s">
+      <c r="D226" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E226" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C225" s="1" t="s">
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+    </row>
+    <row r="227" customFormat="false" ht="240.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E225" s="1" t="s">
+      <c r="C227" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="F227" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="228" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>12</v>
@@ -7910,16 +8209,16 @@
         <v>503</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>658</v>
+        <v>336</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>12</v>
@@ -7930,16 +8229,16 @@
         <v>503</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>12</v>
@@ -7950,16 +8249,16 @@
         <v>503</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>12</v>
@@ -7970,16 +8269,16 @@
         <v>503</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>12</v>
@@ -7990,16 +8289,16 @@
         <v>503</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>12</v>
@@ -8010,16 +8309,16 @@
         <v>503</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>12</v>
@@ -8030,16 +8329,16 @@
         <v>503</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>12</v>
@@ -8050,16 +8349,16 @@
         <v>503</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>12</v>
@@ -8070,16 +8369,16 @@
         <v>503</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>12</v>
@@ -8090,16 +8389,16 @@
         <v>503</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>12</v>
@@ -8110,16 +8409,16 @@
         <v>503</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>12</v>
@@ -8130,16 +8429,16 @@
         <v>503</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>12</v>
@@ -8150,2406 +8449,2931 @@
         <v>503</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E242" s="1" t="s">
+      <c r="D245" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B243" s="1" t="s">
+      <c r="F245" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E243" s="1" t="s">
+      <c r="D246" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B244" s="1" t="s">
+      <c r="F246" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E244" s="1" t="s">
+      <c r="D247" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B245" s="1" t="s">
+      <c r="F247" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E245" s="1" t="s">
+      <c r="D248" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F245" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="F248" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E246" s="1" t="s">
+      <c r="D249" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B247" s="0" t="s">
+      <c r="F249" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="D250" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D247" s="0" t="s">
+      <c r="F250" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="D251" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="F247" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B248" s="0" t="s">
+      <c r="F251" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C252" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D248" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E248" s="0" t="s">
+      <c r="D252" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F248" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B249" s="0" t="s">
+      <c r="F252" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C253" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D249" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E249" s="0" t="s">
+      <c r="D253" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F249" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B250" s="0" t="s">
+      <c r="F253" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C254" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D250" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E250" s="0" t="s">
+      <c r="D254" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F250" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B251" s="0" t="s">
+      <c r="F254" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C255" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D251" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E251" s="0" t="s">
+      <c r="D255" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F251" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B252" s="0" t="s">
+      <c r="F255" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C256" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D252" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E252" s="0" t="s">
+      <c r="D256" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="F252" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B253" s="0" t="s">
+      <c r="F256" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C257" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D253" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E253" s="0" t="s">
+      <c r="D257" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="F253" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B254" s="0" t="s">
+      <c r="F257" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C258" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D254" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E254" s="0" t="s">
+      <c r="D258" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F254" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B255" s="0" t="s">
+      <c r="F258" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C259" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D255" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E255" s="0" t="s">
+      <c r="D259" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F255" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B256" s="0" t="s">
+      <c r="F259" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C260" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D256" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E256" s="0" t="s">
+      <c r="D260" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F256" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B257" s="0" t="s">
+      <c r="E260" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="F260" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D257" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E257" s="0" t="s">
+      <c r="C261" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="F257" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B258" s="0" t="s">
+      <c r="D261" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="F261" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D258" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E258" s="0" t="s">
+      <c r="C262" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="F258" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B259" s="0" t="s">
+      <c r="D262" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="F262" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D259" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E259" s="0" t="s">
+      <c r="C263" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F259" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B260" s="0" t="s">
+      <c r="D263" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="F263" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D260" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E260" s="0" t="s">
+      <c r="C264" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F260" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B261" s="0" t="s">
+      <c r="D264" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="F264" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D261" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E261" s="0" t="s">
+      <c r="C265" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F261" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B262" s="0" t="s">
+      <c r="D265" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="F265" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D262" s="0" t="s">
+      <c r="C266" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E262" s="0" t="s">
+      <c r="D266" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="F262" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B263" s="0" t="s">
+      <c r="F266" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C267" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D263" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E263" s="0" t="s">
+      <c r="D267" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="F263" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B264" s="0" t="s">
+      <c r="F267" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C268" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D264" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E264" s="0" t="s">
+      <c r="D268" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F264" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B265" s="0" t="s">
+      <c r="F268" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C269" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D265" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E265" s="0" t="s">
+      <c r="D269" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="F265" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B266" s="0" t="s">
+      <c r="F269" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C270" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D266" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E266" s="0" t="s">
+      <c r="D270" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="F266" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B267" s="0" t="s">
+      <c r="F270" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C271" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D267" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E267" s="0" t="s">
+      <c r="D271" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F267" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B268" s="0" t="s">
+      <c r="F271" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C272" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D268" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E268" s="0" t="s">
+      <c r="D272" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F268" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B269" s="0" t="s">
+      <c r="F272" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C273" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D269" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E269" s="0" t="s">
+      <c r="D273" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="F269" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B270" s="0" t="s">
+      <c r="E273" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="F273" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D270" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E270" s="0" t="s">
+      <c r="C274" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="F270" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B271" s="0" t="s">
+      <c r="D274" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="F274" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D271" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E271" s="0" t="s">
+      <c r="C275" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="F271" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B272" s="0" t="s">
+      <c r="D275" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="F275" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D272" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E272" s="0" t="s">
+      <c r="C276" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="F272" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B273" s="0" t="s">
+      <c r="D276" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="F276" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D273" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E273" s="0" t="s">
+      <c r="C277" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F273" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B274" s="0" t="s">
+      <c r="D277" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="F277" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D274" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E274" s="0" t="s">
+      <c r="C278" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="F274" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B275" s="0" t="s">
+      <c r="D278" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="F278" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D275" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E275" s="0" t="s">
+      <c r="C279" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="F275" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B276" s="0" t="s">
+      <c r="D279" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="F279" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D276" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E276" s="0" t="s">
+      <c r="C280" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="F276" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B277" s="0" t="s">
+      <c r="D280" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="F280" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D277" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E277" s="0" t="s">
+      <c r="C281" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F277" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B278" s="0" t="s">
+      <c r="D281" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C278" s="0" t="s">
+      <c r="F281" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D278" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E278" s="0" t="s">
+      <c r="C282" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F278" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B279" s="0" t="s">
+      <c r="D282" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="F282" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D279" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E279" s="0" t="s">
+      <c r="C283" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F279" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B280" s="0" t="s">
+      <c r="D283" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="F283" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D280" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E280" s="0" t="s">
+      <c r="C284" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="F280" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B281" s="0" t="s">
+      <c r="D284" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="F284" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D281" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E281" s="0" t="s">
+      <c r="C285" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="F281" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B282" s="0" t="s">
+      <c r="D285" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="F285" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D282" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E282" s="0" t="s">
+      <c r="C286" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F282" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B283" s="0" t="s">
+      <c r="D286" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="F286" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D283" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E283" s="0" t="s">
+      <c r="C287" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="F283" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B284" s="0" t="s">
+      <c r="D287" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="F287" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D284" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="E284" s="0" t="s">
+      <c r="C288" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="F284" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B285" s="0" t="s">
+      <c r="D288" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="E288" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D285" s="0" t="s">
+      <c r="F288" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="C289" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="F285" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B286" s="0" t="s">
+      <c r="D289" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="F289" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D286" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E286" s="0" t="s">
+      <c r="C290" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="F286" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B287" s="0" t="s">
+      <c r="D290" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E290" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="F290" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D287" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E287" s="0" t="s">
+      <c r="C291" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F287" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B288" s="0" t="s">
+      <c r="D291" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E291" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="F291" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D288" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E288" s="0" t="s">
+      <c r="C292" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="F288" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B289" s="0" t="s">
+      <c r="D292" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E292" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="F292" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D289" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E289" s="0" t="s">
+      <c r="C293" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="F289" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B290" s="0" t="s">
+      <c r="D293" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="F293" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D290" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E290" s="0" t="s">
+      <c r="C294" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F290" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B291" s="0" t="s">
+      <c r="D294" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="F294" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D291" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E291" s="0" t="s">
+      <c r="C295" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F291" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B292" s="0" t="s">
+      <c r="D295" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="F295" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D292" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E292" s="0" t="s">
+      <c r="C296" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F292" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B293" s="0" t="s">
+      <c r="D296" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="F296" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D293" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E293" s="0" t="s">
+      <c r="C297" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F293" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B294" s="0" t="s">
+      <c r="D297" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="F297" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D294" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E294" s="0" t="s">
+      <c r="C298" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="F294" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B295" s="0" t="s">
+      <c r="D298" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="F298" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D295" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E295" s="0" t="s">
+      <c r="C299" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="F295" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B296" s="0" t="s">
+      <c r="D299" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="F299" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D296" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E296" s="0" t="s">
+      <c r="D300" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F296" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B297" s="0" t="s">
+      <c r="F300" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="C301" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D297" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E297" s="0" t="s">
+      <c r="D301" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="F297" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B298" s="0" t="s">
+      <c r="F301" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C302" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D298" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E298" s="0" t="s">
+      <c r="D302" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F298" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B299" s="0" t="s">
+      <c r="F302" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="C303" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D299" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E299" s="0" t="s">
+      <c r="D303" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F299" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B300" s="0" t="s">
+      <c r="F303" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="C304" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D300" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E300" s="0" t="s">
+      <c r="D304" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="F300" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B301" s="0" t="s">
+      <c r="F304" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C305" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D301" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E301" s="0" t="s">
+      <c r="D305" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="F301" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B302" s="0" t="s">
+      <c r="F305" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="C306" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D302" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E302" s="0" t="s">
+      <c r="D306" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F302" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B303" s="0" t="s">
+      <c r="F306" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="C307" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="D303" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E303" s="0" t="s">
+      <c r="D307" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F303" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B304" s="0" t="s">
+      <c r="F307" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="C308" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D304" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E304" s="0" t="s">
+      <c r="D308" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="F304" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B305" s="0" t="s">
+      <c r="F308" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="C309" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D305" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E305" s="0" t="s">
+      <c r="D309" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="F305" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B306" s="0" t="s">
+      <c r="F309" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="C310" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D306" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E306" s="0" t="s">
+      <c r="D310" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F306" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B307" s="0" t="s">
+      <c r="F310" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="C311" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D307" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E307" s="0" t="s">
+      <c r="D311" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F307" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B308" s="0" t="s">
+      <c r="E311" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="F311" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D308" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E308" s="0" t="s">
+      <c r="C312" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="F308" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B309" s="0" t="s">
+      <c r="D312" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="0" t="s">
+      <c r="F312" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E309" s="0" t="s">
+      <c r="C313" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F309" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B310" s="0" t="s">
+      <c r="D313" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="0" t="s">
+      <c r="F313" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E310" s="0" t="s">
+      <c r="C314" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F310" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B311" s="0" t="s">
+      <c r="D314" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="F314" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D311" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E311" s="0" t="s">
+      <c r="C315" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F311" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B312" s="0" t="s">
+      <c r="D315" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="F315" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D312" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E312" s="0" t="s">
+      <c r="C316" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="F312" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B313" s="0" t="s">
+      <c r="D316" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="F316" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D313" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="E313" s="0" t="s">
+      <c r="C317" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F313" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B314" s="0" t="s">
+      <c r="D317" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="F317" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D314" s="0" t="s">
+      <c r="C318" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E314" s="0" t="s">
+      <c r="D318" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F314" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B315" s="0" t="s">
+      <c r="F318" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="C319" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D315" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E315" s="0" t="s">
+      <c r="D319" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="F315" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B316" s="0" t="s">
+      <c r="F319" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="C320" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D316" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E316" s="0" t="s">
+      <c r="D320" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="F316" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B317" s="0" t="s">
+      <c r="F320" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="C321" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="D317" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E317" s="0" t="s">
+      <c r="D321" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F317" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B318" s="0" t="s">
+      <c r="F321" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="C322" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D318" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E318" s="0" t="s">
+      <c r="D322" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="F318" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B319" s="0" t="s">
+      <c r="F322" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="C323" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D319" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E319" s="0" t="s">
+      <c r="D323" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="F319" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B320" s="0" t="s">
+      <c r="F323" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C320" s="0" t="s">
+      <c r="C324" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="D320" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E320" s="0" t="s">
+      <c r="D324" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F320" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B321" s="0" t="s">
+      <c r="F324" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C321" s="0" t="s">
+      <c r="C325" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D321" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E321" s="0" t="s">
+      <c r="D325" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="F321" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B322" s="0" t="s">
+      <c r="F325" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C322" s="0" t="s">
+      <c r="C326" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D322" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E322" s="0" t="s">
+      <c r="D326" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E326" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="F322" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B323" s="0" t="s">
+      <c r="F326" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C323" s="0" t="s">
+      <c r="C327" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D323" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E323" s="0" t="s">
+      <c r="D327" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F323" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B324" s="0" t="s">
+      <c r="F327" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C324" s="0" t="s">
+      <c r="C328" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="D324" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E324" s="0" t="s">
+      <c r="D328" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="F324" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B325" s="0" t="s">
+      <c r="F328" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C325" s="0" t="s">
+      <c r="C329" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="D325" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E325" s="0" t="s">
+      <c r="D329" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="F325" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B326" s="0" t="s">
+      <c r="F329" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C326" s="0" t="s">
+      <c r="C330" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D326" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E326" s="0" t="s">
+      <c r="D330" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="F326" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B327" s="0" t="s">
+      <c r="F330" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C327" s="0" t="s">
+      <c r="C331" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D327" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E327" s="0" t="s">
+      <c r="D331" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="F327" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B328" s="0" t="s">
+      <c r="F331" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="C332" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D328" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E328" s="0" t="s">
+      <c r="D332" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E332" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="F328" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B329" s="0" t="s">
+      <c r="F332" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C329" s="0" t="s">
+      <c r="C333" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D329" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E329" s="0" t="s">
+      <c r="D333" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="F329" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="C330" s="0" t="s">
+      <c r="F333" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D330" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E330" s="0" t="s">
+      <c r="C334" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="F330" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B331" s="0" t="s">
+      <c r="D334" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C331" s="0" t="s">
+      <c r="F334" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D331" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E331" s="0" t="s">
+      <c r="C335" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="F331" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B332" s="0" t="s">
+      <c r="D335" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E335" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="F335" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E332" s="0" t="s">
+      <c r="C336" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="F332" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B333" s="0" t="s">
+      <c r="D336" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="F336" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D333" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E333" s="0" t="s">
+      <c r="C337" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="F333" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B334" s="0" t="s">
+      <c r="D337" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="F337" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D334" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E334" s="0" t="s">
+      <c r="C338" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="F334" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="D338" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="F338" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="C339" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D335" s="0" t="s">
+      <c r="D339" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="E335" s="0" t="s">
+      <c r="F339" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="F335" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B336" s="0" t="s">
+      <c r="C340" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C336" s="0" t="s">
+      <c r="D340" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D336" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E336" s="0" t="s">
+      <c r="E340" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="F336" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B337" s="0" t="s">
+      <c r="F340" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C341" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="D337" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E337" s="0" t="s">
+      <c r="D341" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E341" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="F337" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B338" s="0" t="s">
+      <c r="F341" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C342" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="D338" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E338" s="0" t="s">
+      <c r="D342" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="F338" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B339" s="0" t="s">
+      <c r="F342" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C343" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D339" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E339" s="0" t="s">
+      <c r="D343" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E343" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="F339" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B340" s="0" t="s">
+      <c r="F343" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C344" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="D340" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E340" s="0" t="s">
+      <c r="D344" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E344" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="F340" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B341" s="0" t="s">
+      <c r="F344" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C341" s="0" t="s">
+      <c r="C345" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D341" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E341" s="0" t="s">
+      <c r="D345" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E345" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="F341" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B342" s="0" t="s">
+      <c r="F345" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C342" s="0" t="s">
+      <c r="C346" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D342" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E342" s="0" t="s">
+      <c r="D346" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E346" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="F342" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B343" s="0" t="s">
+      <c r="F346" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="C347" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="D343" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E343" s="0" t="s">
+      <c r="D347" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="F343" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B344" s="0" t="s">
+      <c r="F347" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="C348" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D344" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E344" s="0" t="s">
+      <c r="D348" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="F344" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B345" s="0" t="s">
+      <c r="F348" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="C349" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D345" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E345" s="0" t="s">
+      <c r="D349" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E349" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="F345" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B346" s="0" t="s">
+      <c r="F349" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="C350" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D346" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E346" s="0" t="s">
+      <c r="D350" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="F346" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B347" s="0" t="s">
+      <c r="F350" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="C351" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D347" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E347" s="0" t="s">
+      <c r="D351" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="F347" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B348" s="0" t="s">
+      <c r="F351" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="C352" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D348" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E348" s="0" t="s">
+      <c r="D352" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F348" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B349" s="0" t="s">
+      <c r="F352" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C353" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D349" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E349" s="0" t="s">
+      <c r="D353" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="F349" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B350" s="0" t="s">
+      <c r="F353" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="C354" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D350" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E350" s="0" t="s">
+      <c r="D354" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="F350" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B351" s="0" t="s">
+      <c r="F354" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C351" s="0" t="s">
+      <c r="C355" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D351" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E351" s="0" t="s">
+      <c r="D355" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="F351" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B352" s="0" t="s">
+      <c r="F355" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C352" s="0" t="s">
+      <c r="D356" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E356" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D352" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E352" s="0" t="s">
+      <c r="F356" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="F352" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B353" s="0" t="s">
+      <c r="C357" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C353" s="0" t="s">
+      <c r="D357" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D353" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E353" s="0" t="s">
+      <c r="F357" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="F353" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B354" s="0" t="s">
+      <c r="C358" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C354" s="0" t="s">
+      <c r="D358" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D354" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E354" s="0" t="s">
+      <c r="F358" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="F354" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B355" s="0" t="s">
+      <c r="C359" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C355" s="0" t="s">
+      <c r="D359" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D355" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E355" s="0" t="s">
+      <c r="F359" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="F355" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B356" s="0" t="s">
+      <c r="C360" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C356" s="0" t="s">
+      <c r="D360" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E360" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D356" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E356" s="0" t="s">
+      <c r="F360" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="F356" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B357" s="0" t="s">
+      <c r="B361" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C357" s="0" t="s">
+      <c r="C361" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D357" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E357" s="0" t="s">
+      <c r="D361" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="F357" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B358" s="0" t="s">
+      <c r="E361" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C358" s="0" t="s">
+      <c r="F361" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D358" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E358" s="0" t="s">
+      <c r="C362" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="F358" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B359" s="0" t="s">
+      <c r="D362" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E362" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C359" s="0" t="s">
+      <c r="F362" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D359" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E359" s="0" t="s">
+      <c r="C363" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="F359" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B360" s="0" t="s">
+      <c r="D363" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C360" s="0" t="s">
+      <c r="F363" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D360" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E360" s="0" t="s">
+      <c r="C364" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="F360" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="B361" s="0" t="s">
+      <c r="D364" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C361" s="0" t="s">
+      <c r="F364" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D361" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E361" s="0" t="s">
+      <c r="C365" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="F361" s="0" t="s">
+      <c r="D365" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F387" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G142">
+  <autoFilter ref="A1:G387">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ciência Política"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Rússia"/>
+        <filter val="Cap. 3 – O conceito de Estado"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1125">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -1928,25 +1928,7 @@
     <t xml:space="preserve">Na vertente de Max Weber, a dominação vai além dos meios econômicos e de classe. A estabilidade da dominação decorre, sobretudo, da existência de um *quadro administrativo ou burocracia* e, como fator essencial, da *crença na legitimidade* da posição para governar com autoridade.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dominação Legal (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Max Weber)</t>
-    </r>
+    <t xml:space="preserve">Dominação Legal (Max Weber)</t>
   </si>
   <si>
     <t xml:space="preserve">Estatutos, Impessoal, Legalidade, Servidor do Estado, Burocracia</t>
@@ -2003,15 +1985,6 @@
     <t xml:space="preserve">A democracia é um sistema político que, essencialmente, exige a constante *renovação da legitimidade dos governos*, o que é realizado pela *submissão periódica à vontade popular* através de eleições. Mesmo os *governos autocráticos*, que detém , de fato, o poder pelo *monopólio da força*, buscam legitimar-se por *eleições controladas*. Ex: Cuba, Coréia do Norte, China, Rússia (Meio-termo).</t>
   </si>
   <si>
-    <t xml:space="preserve">Teoria da Circulação das Elites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilfredo Pareto, Teorema de Pareto, Aristocracia, Substituição das elites, Revoluções</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teoria que descreve o processo dinâmico e permanente de formação e substituição das elites no poder, onde membros das camadas inferiores ascendem aos postos superiores, e cuja interrupção pode levar a revoluções.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Legitimidade do Poder</t>
   </si>
   <si>
@@ -2048,35 +2021,7 @@
     <t xml:space="preserve">Governantes, Governados, Minoria Dominante, Monopólio do Poder, Elite-Massas, Classe Política Organizada, Elementi di scienza politica</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Gaetano Mosca*, estabelece que em todas as sociedades existem duas classes: a dos *governantes* e a dos *governados*. A classe dos governantes (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">poder verdadeiro) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">é sempre a menos numerosa, mas monopoliza o poder, cumpre todas as funções públicas e goza das vantagens a elas anexas. Essa classe política obtém sua força por estar organizada em torno de interesses comuns, tornando-se um grupo homogêneo e solidário. A classe dos governados é a mais numerosa, mas é dirigida e regulada pela elite, sendo desorganizada, dividida, desarticulada, dispersa e desunida (*COMPROVA A ANTÍTESE Elites-Massas*).</t>
-    </r>
+    <t xml:space="preserve">*Gaetano Mosca*, estabelece que em todas as sociedades existem duas classes: a dos *governantes* e a dos *governados*. A classe dos governantes (poder verdadeiro) é sempre a menos numerosa, mas monopoliza o poder, cumpre todas as funções públicas e goza das vantagens a elas anexas. Essa classe política obtém sua força por estar organizada em torno de interesses comuns, tornando-se um grupo homogêneo e solidário. A classe dos governados é a mais numerosa, mas é dirigida e regulada pela elite, sendo desorganizada, dividida, desarticulada, dispersa e desunida (*COMPROVA A ANTÍTESE Elites-Massas*).</t>
   </si>
   <si>
     <t xml:space="preserve">Teoria da Circulação das Elites (Teorema de Pareto)</t>
@@ -2121,13 +2066,43 @@
     <t xml:space="preserve">Cap. 3 – O conceito de Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">A unidade social básica atual, apresentada como uma corporação territorial de um povo constituído como nação, com um ordenamento jurídico e um aparato de poder independente e soberano.</t>
+    <t xml:space="preserve">
+Pessoa jurídica *soberana*, constituída de um *povo* organizado sobre um *território*, sob o comando de um poder político (*poder supremo*), para fins de defesa, ordem, bem estar e progresso social.
+*A unidade social básica na qual vivem as pessoas.*
+Elementos do Estado:
+1- *Grupo* humano ou corpo *social* organizado (*povo*);
+2- *Território* sobre o qual vive o grupo social;
+3- *Poder* que dirige o grupo; e
+4- *Ordem* econômica, social, política e jurídica, que o poder procura estabelecer e realizar.
+*Com os 4 elementos tem-se a soberania*.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Monopólio da força, Poder de mando originário, Traço peculiar, Autonomia</t>
   </si>
   <si>
-    <t xml:space="preserve">O traço mais peculiar do Estado que o diferencia de outras formas de organização política, consistindo no poder ilimitado e incondicionado de vencer outras vontades, sendo independente no plano externo e supremo no plano interno.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O traço mais peculiar do Estado que o diferencia de outras formas de organização política, consistindo no poder ilimitado e incondicionado de vencer outras vontades, sendo independente no plano externo e supremo no plano interno.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">É tangível = *se concretiza nas ações*, na ocupação do espaço por seus órgãos e na presença constante *normatizadora* dos indivíduos.
+É intangível = *abstração*. não existe fora da mente articulada do indivíduo. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Definição de Estado (Max Weber)</t>
@@ -2136,7 +2111,8 @@
     <t xml:space="preserve">Monopólio legítimo da coação física, Associação de dominação, Quadro administrativo</t>
   </si>
   <si>
-    <t xml:space="preserve">Associação política que reivindica com êxito o **monopólio legítimo da coação física** para realizar as ordens vigentes dentro de um determinado território geográfico.</t>
+    <t xml:space="preserve">Associação política que reivindica com êxito o *monopólio legítimo da coação física* para realizar as ordens vigentes dentro de um determinado território geográfico. 
+O Estado só pode existir “sob condição de que os homens dominados se *submetam a autoridade* continuamente reivindicada pelos *dominadores*”. *AUTORIDADE E DOMINAÇÃO* x *LEGALIDADE E LEGITIMIDADE*.</t>
   </si>
   <si>
     <t xml:space="preserve">Estado (Concepção Racional-Jurídica)</t>
@@ -2154,7 +2130,20 @@
     <t xml:space="preserve">Despersonalização do poder, Século XVI, Sistema feudal, Soberania</t>
   </si>
   <si>
-    <t xml:space="preserve">Surge no século XVI, coincidindo com o Renascimento, quando o poder político se despersonaliza, separando a vida pública da privada, concentrando a dispersão de poderes do sistema feudal.</t>
+    <t xml:space="preserve">Surge no século XVI, coincidindo com o Renascimento, quando o poder político se despersonaliza, *separando a vida pública da privada*, concentrando a dispersão de poderes do sistema feudal.
+*A Sociedade feudal não conhecia o conceito de Estado e achava inconcebível.*
+Primeira Etapa: Absolutismo Monárquico = *CONCENTRAÇÃO DE PODER*.
+Segunda Etapa: Garantias que *LIMITASSEM O PODER PÚBLICO (Constituição)*.
+Premissa p/ surgimento:
+Progressiva centralização do poder, superando dependência à igreja, à ideia de império e à dispersão de poder medieval.
+*Superação do pacto de lealdade* entre os senhores feudais e seus vassalos (trabalho em troca de proteção e comida, o que era pouco vantajoso para os vassalos).
+a) Criação de um Exercito permanente (membros dependiam de pagamento), antes, os senhores feudais forneciam pessoal p/ defender o reino.
+b) Criação de uma Burocracia dotada de funcionários “competentes”.
+c) Criação de um *Sistema de Tributos*  - reino não dependia mais de contribuições da nobreza.
+d) Estabelecimento de uma única *Ordem Jurídica* em todo o território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principais fatores para a origem do Estado Moderno</t>
   </si>
   <si>
     <t xml:space="preserve">Estado Absolutista</t>
@@ -2163,16 +2152,38 @@
     <t xml:space="preserve">Monopólio da força, Uniformidade legislativa, Despolitização da sociedade, Burocracia</t>
   </si>
   <si>
-    <t xml:space="preserve">Primeira forma do Estado moderno, definida como o monopólio da força em três planos (jurídico, político e sociológico), impondo uniformidade legislativa e administrativa e eliminando o pluralismo orgânico estamental.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paz de Westfália (1648)</t>
+    <t xml:space="preserve">1) Adoção do *Direito Romano*: instrumento para criar uma ordem jurídica objetiva. Estabeleceu princípios e instituições. Ex: conceito de propriedade (principal delas);
+2) *Reforma Protestante (Separar Igreja do Estado)*: contribuiu para tornar secular o poder político;
+3) Papel da *burguesia emergente*: financiava as grandes ações do Estado e seus exércitos. 
+O pensamento mercantilista considerava o Estado como o instrumento mais eficaz para defender o mercado.
+4) *Transferência de lealdade* dos indivíduos para o Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado de Westfália (1648)</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema de Estados, Igualdade soberana, Não intervenção, Fronteiras, Tratado</t>
   </si>
   <si>
-    <t xml:space="preserve">Tratado que pode ser considerado a primeira tentativa de paz na Europa e a **pedra angular do moderno sistema de relações internacionais**, reconhecendo a soberania dos monarcas e a igualdade soberana dos Estados.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tratado que pode ser considerado a primeira tentativa de paz na Europa e a *pedra angular do moderno sistema de relações internacionais*, reconhecendo a soberania dos monarcas e a igualdade soberana dos Estados.
+Estabeleceu os parâmetros pelos quais ocorreriam as relações internacionais nos próximos século:
+- *Soberania* dos monarcas sobre os seus territórios;
+- *Igualdade* soberana dos Estados; e
+- *Não-intervenção* nos seus assuntos internos.
+*Princípios para assegurar a coexistência dos Estados:*
+- observância do tratado pelos Estados-partes que assinaram o tratado;
+- resolução de conflitos através da *negociação*; e
+- não excluía a guerra, mas a submetia a regras de cunho diplomático.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Contratualismo</t>
@@ -2181,7 +2192,13 @@
     <t xml:space="preserve">Contrato social, Estado de natureza, Hobbes, Locke, Rousseau</t>
   </si>
   <si>
-    <t xml:space="preserve">Concepção segundo a qual o Estado é o produto de uma decisão racional e deliberada dos homens (contrato) para resolver conflitos ou problemas do estado de natureza.</t>
+    <t xml:space="preserve">Concepção segundo a qual o *Estado é o produto de uma decisão racional e deliberada dos homens (contrato)*, destinado a resolver os conflitos gerados por seu instinto antissocial ou para solucionar os problemas advindos da convivência.
+Principais Clássicos: Thomas Hobbes; John Locke; e Jean-Jacques Rousseau
+Pontos em comum:
+1) partem da hipótese de um *Estado de natureza*, anterior a constituição de uma sociedade regida por leis positivas. Os indivíduos teriam direitos naturais;
+2) através de um *contrato social* os indivíduos decidem constituir uma sociedade civil regida por *leis positivas*, surgindo assim o Estado para resolver problemas do estado de natureza;
+3) Há diversos tipos de Estado.
+</t>
   </si>
   <si>
     <t xml:space="preserve">Contrato Social (Hobbes)</t>
@@ -2190,7 +2207,15 @@
     <t xml:space="preserve">Leviatã, Guerra de todos contra todos, Segurança individual, Renúncia incondicional</t>
   </si>
   <si>
-    <t xml:space="preserve">Explica a origem do Estado absolutista através de um pacto pelo qual os homens renunciam incondicionalmente ao direito de autogovernar-se, transferindo-o ao soberano para obter segurança e ordem.</t>
+    <t xml:space="preserve">Explica a origem do Estado absolutista através de um pacto pelo qual os homens renunciam incondicionalmente ao direito de autogovernar-se, transferindo-o ao soberano para obter segurança e ordem.
+- estado da natureza - *ser humano antissocial e egoísta*.
+- os pactos somente podem ser mantidos se existe um *governo forte (Leviatã)*
+- unicamente *o temor ao castigo* torna os indivíduos aptos a formarem uma sociedade
+- o *Estado* é um artifício que foi criado com o fim de se obter a *segurança individual*.
+*Estado Absolutista, o Rei não se submete ao contrato.*
+A *natureza humana* se compõe de duas tendências: a razão e a paixão:
+1) *Paixão* - desejar e conseguir os bens e privilégios do próximo leva ao enfrentamento.
+2) *Razão* - sem segurança, os bens não podem ser desfrutados leva ao pacto, entregando os seus direitos naturais (LIBERDADE) ao soberano, em troca de ordem e a segurança.</t>
   </si>
   <si>
     <t xml:space="preserve">Contrato Social (Locke)</t>
@@ -2199,7 +2224,24 @@
     <t xml:space="preserve">Direitos naturais, Vida, Liberdade, Propriedade, Estado liberal, Mínimo de funções</t>
   </si>
   <si>
-    <t xml:space="preserve">O contrato visa à manutenção dos direitos naturais (vida, liberdade e propriedade), transferindo à comunidade o poder mínimo necessário para a segurança e o cumprimento das leis, resultando no Estado liberal.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O contrato visa à manutenção dos direitos naturais (vida, liberdade e propriedade), transferindo à comunidade o poder mínimo necessário para a segurança e o cumprimento das leis, resultando no Estado liberal.
+1) Os homens em estado de natureza têm direitos fundamentais: *a vida, a liberdade e a propriedade*. 
+2) O egoísmo coloca os direitos individuais em constante *risco*.  
+3) Necessidade de um contrato para defender seus direitos. 
+4) O poder concedido ao governante deve ser mínimo. 
+5) *Deveres do Estado*: legislar, educar, e prover segurança e justiça.
+Principal obra: Tratado Sobre o Governo Civil.
+O resultado do contrato é o *ESTADO LIBERAL*.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Contrato Social (Rousseau)</t>
@@ -2208,7 +2250,35 @@
     <t xml:space="preserve">Vontade geral, Corpo moral e coletivo, Soberano (ativo), Estado (passivo)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ato de associação que cria um **corpo moral e coletivo**, visando defender e proteger pessoas e bens, onde cada um, unindo-se a todos, obedece à **vontade geral** e permanece tão livre quanto antes.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ato de associação que cria um *corpo moral e coletivo*, visando defender e proteger pessoas e bens, onde cada um, unindo-se a todos, obedece à *vontade geral* e permanece tão livre quanto antes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) O homem nasce bom e se corrompe pelo meio que habita.
+2) Dificuldades para satisfazer todas as necessidades no estado de natureza (Contrato Social)
+3) O poder social não pode estar baseado na força. A força, por si mesma não pode legitimar o direito.
+4) Deve-se obedecer somente aos poderes legítimos. 
+5) O soberano não pode ultrapassar os limites das convenções.
+6) O resultado do contrato é o *Estado democrático de direito*, representativo, em que o parlamento é o instrumento fundamental da vontade geral que se expressa pela lei.
+7) As leis são justas porque se originam da vontade geral.
+8) Principal obra: Contrato Social
+*Crítica à propriedade privada. Modo de vida liberal*</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Concepção Marxista de Estado</t>
@@ -3562,7 +3632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3622,12 +3692,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3678,7 +3742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3719,19 +3783,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3946,8 +4002,8 @@
   </sheetPr>
   <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E390" activeCellId="0" sqref="E390"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D238" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6239,7 +6295,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
@@ -6256,7 +6312,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
@@ -6324,7 +6380,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -6358,7 +6414,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>245</v>
       </c>
@@ -6426,7 +6482,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>245</v>
       </c>
@@ -6630,7 +6686,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>245</v>
       </c>
@@ -6664,7 +6720,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>245</v>
       </c>
@@ -6681,7 +6737,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>245</v>
       </c>
@@ -7635,61 +7691,61 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B200" s="10" t="s">
+      <c r="A200" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="E200" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B201" s="10" t="s">
+      <c r="A201" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E201" s="10" t="s">
+      <c r="E201" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B202" s="10" t="s">
+      <c r="A202" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
@@ -7704,7 +7760,7 @@
       <c r="D203" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E203" s="10" t="s">
+      <c r="E203" s="6" t="s">
         <v>574</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -7812,175 +7868,175 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B209" s="10" t="s">
+      <c r="A209" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E209" s="10" t="s">
+      <c r="E209" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
-    </row>
-    <row r="210" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B210" s="10" t="s">
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D210" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E210" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B211" s="10" t="s">
+      <c r="A211" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B212" s="10" t="s">
+      <c r="A212" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
-    </row>
-    <row r="213" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B213" s="10" t="s">
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="E213" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B214" s="10" t="s">
+      <c r="A214" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B215" s="10" t="s">
+      <c r="A215" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="D215" s="10" t="s">
+      <c r="D215" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B216" s="10" t="s">
+      <c r="A216" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E216" s="10" t="s">
+      <c r="E216" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
-    </row>
-    <row r="217" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B217" s="10" t="s">
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
@@ -7995,7 +8051,7 @@
       <c r="D218" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E218" s="12" t="s">
+      <c r="E218" s="10" t="s">
         <v>619</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -8003,228 +8059,228 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B219" s="10" t="s">
+      <c r="A219" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-    </row>
-    <row r="220" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B221" s="10" t="s">
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="D221" s="10" t="s">
+      <c r="D221" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
-    </row>
-    <row r="222" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B222" s="10" t="s">
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="D222" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
-    </row>
-    <row r="223" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B223" s="10" t="s">
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="D223" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E223" s="13" t="s">
+      <c r="E223" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
-    </row>
-    <row r="224" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B224" s="10" t="s">
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224" customFormat="false" ht="165.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D224" s="10" t="s">
+      <c r="D224" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E224" s="10" t="s">
+      <c r="E224" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-    </row>
-    <row r="225" customFormat="false" ht="255.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B225" s="10" t="s">
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C225" s="10" t="s">
+      <c r="C225" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="D225" s="10" t="s">
+      <c r="D225" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E225" s="10" t="s">
+      <c r="E225" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-    </row>
-    <row r="226" customFormat="false" ht="210.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B226" s="10" t="s">
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" customFormat="false" ht="240.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D226" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="E226" s="10" t="s">
+      <c r="F226" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-    </row>
-    <row r="227" customFormat="false" ht="240.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>646</v>
+        <v>336</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="F229" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>650</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E230" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>651</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>503</v>
       </c>
@@ -8235,16 +8291,16 @@
         <v>653</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E231" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>654</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>503</v>
       </c>
@@ -8255,16 +8311,16 @@
         <v>656</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E232" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>657</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>503</v>
       </c>
@@ -8272,193 +8328,193 @@
         <v>658</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E233" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="D234" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="F234" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="194" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E234" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B235" s="1" t="s">
+      <c r="D235" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="F235" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E235" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B236" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="F236" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E236" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B237" s="1" t="s">
+      <c r="D237" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="F237" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B238" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E238" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="F238" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="196.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E238" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B239" s="1" t="s">
+      <c r="D239" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="F239" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E239" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B240" s="1" t="s">
+      <c r="D240" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="F240" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E240" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="D241" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="F241" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E241" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B242" s="1" t="s">
+      <c r="D242" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>12</v>
@@ -8469,16 +8525,16 @@
         <v>503</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>12</v>
@@ -8489,16 +8545,16 @@
         <v>503</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>12</v>
@@ -8509,16 +8565,16 @@
         <v>503</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>12</v>
@@ -8529,16 +8585,16 @@
         <v>503</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>12</v>
@@ -8549,16 +8605,16 @@
         <v>503</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>12</v>
@@ -8569,16 +8625,16 @@
         <v>503</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>12</v>
@@ -8589,16 +8645,16 @@
         <v>503</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>12</v>
@@ -8612,13 +8668,13 @@
         <v>468</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>12</v>
@@ -8632,13 +8688,13 @@
         <v>456</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>12</v>
@@ -8649,16 +8705,16 @@
         <v>503</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>12</v>
@@ -8669,16 +8725,16 @@
         <v>503</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>12</v>
@@ -8689,16 +8745,16 @@
         <v>503</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>12</v>
@@ -8709,16 +8765,16 @@
         <v>503</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>12</v>
@@ -8729,16 +8785,16 @@
         <v>503</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>12</v>
@@ -8749,16 +8805,16 @@
         <v>503</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>12</v>
@@ -8769,16 +8825,16 @@
         <v>503</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>12</v>
@@ -8789,16 +8845,16 @@
         <v>503</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>12</v>
@@ -8809,16 +8865,16 @@
         <v>503</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>12</v>
@@ -8829,16 +8885,16 @@
         <v>503</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>12</v>
@@ -8849,16 +8905,16 @@
         <v>503</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>12</v>
@@ -8869,16 +8925,16 @@
         <v>503</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>12</v>
@@ -8889,16 +8945,16 @@
         <v>503</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>12</v>
@@ -8909,16 +8965,16 @@
         <v>503</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>12</v>
@@ -8929,16 +8985,16 @@
         <v>503</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>12</v>
@@ -8949,16 +9005,16 @@
         <v>503</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>12</v>
@@ -8969,16 +9025,16 @@
         <v>503</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>12</v>
@@ -8989,16 +9045,16 @@
         <v>503</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>12</v>
@@ -9009,16 +9065,16 @@
         <v>503</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>12</v>
@@ -9029,16 +9085,16 @@
         <v>503</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>12</v>
@@ -9049,16 +9105,16 @@
         <v>503</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>12</v>
@@ -9069,16 +9125,16 @@
         <v>503</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>12</v>
@@ -9089,16 +9145,16 @@
         <v>503</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>12</v>
@@ -9109,16 +9165,16 @@
         <v>503</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>12</v>
@@ -9129,16 +9185,16 @@
         <v>503</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>12</v>
@@ -9149,16 +9205,16 @@
         <v>503</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>12</v>
@@ -9169,16 +9225,16 @@
         <v>503</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>12</v>
@@ -9189,16 +9245,16 @@
         <v>503</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>12</v>
@@ -9209,16 +9265,16 @@
         <v>503</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>12</v>
@@ -9229,16 +9285,16 @@
         <v>503</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>12</v>
@@ -9249,16 +9305,16 @@
         <v>503</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>12</v>
@@ -9269,16 +9325,16 @@
         <v>503</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>12</v>
@@ -9289,16 +9345,16 @@
         <v>503</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>12</v>
@@ -9309,16 +9365,16 @@
         <v>503</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>12</v>
@@ -9329,16 +9385,16 @@
         <v>503</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>12</v>
@@ -9349,16 +9405,16 @@
         <v>503</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>12</v>
@@ -9369,16 +9425,16 @@
         <v>503</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>12</v>
@@ -9389,16 +9445,16 @@
         <v>503</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>12</v>
@@ -9409,16 +9465,16 @@
         <v>503</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E290" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>12</v>
@@ -9429,16 +9485,16 @@
         <v>503</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E291" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>12</v>
@@ -9449,16 +9505,16 @@
         <v>503</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E292" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>12</v>
@@ -9469,16 +9525,16 @@
         <v>503</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>12</v>
@@ -9489,16 +9545,16 @@
         <v>503</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E294" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>12</v>
@@ -9509,16 +9565,16 @@
         <v>503</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>12</v>
@@ -9529,16 +9585,16 @@
         <v>503</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>12</v>
@@ -9549,16 +9605,16 @@
         <v>503</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>12</v>
@@ -9569,16 +9625,16 @@
         <v>503</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>12</v>
@@ -9589,16 +9645,16 @@
         <v>503</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>12</v>
@@ -9612,13 +9668,13 @@
         <v>620</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>12</v>
@@ -9629,16 +9685,16 @@
         <v>503</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>12</v>
@@ -9649,16 +9705,16 @@
         <v>503</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>12</v>
@@ -9669,16 +9725,16 @@
         <v>503</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>12</v>
@@ -9689,16 +9745,16 @@
         <v>503</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>12</v>
@@ -9709,16 +9765,16 @@
         <v>503</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E305" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>12</v>
@@ -9729,16 +9785,16 @@
         <v>503</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>12</v>
@@ -9749,16 +9805,16 @@
         <v>503</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>12</v>
@@ -9769,16 +9825,16 @@
         <v>503</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E308" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>12</v>
@@ -9789,16 +9845,16 @@
         <v>503</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>12</v>
@@ -9809,16 +9865,16 @@
         <v>503</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E310" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
@@ -9829,16 +9885,16 @@
         <v>503</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>12</v>
@@ -9849,16 +9905,16 @@
         <v>503</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>12</v>
@@ -9869,16 +9925,16 @@
         <v>503</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>12</v>
@@ -9889,16 +9945,16 @@
         <v>503</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>12</v>
@@ -9909,16 +9965,16 @@
         <v>503</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>12</v>
@@ -9929,16 +9985,16 @@
         <v>503</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>12</v>
@@ -9949,16 +10005,16 @@
         <v>503</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>12</v>
@@ -9969,16 +10025,16 @@
         <v>503</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>12</v>
@@ -9989,16 +10045,16 @@
         <v>503</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>12</v>
@@ -10009,16 +10065,16 @@
         <v>503</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>12</v>
@@ -10029,16 +10085,16 @@
         <v>503</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>12</v>
@@ -10049,16 +10105,16 @@
         <v>503</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>12</v>
@@ -10069,16 +10125,16 @@
         <v>503</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>12</v>
@@ -10089,16 +10145,16 @@
         <v>503</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>12</v>
@@ -10109,16 +10165,16 @@
         <v>503</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>12</v>
@@ -10129,16 +10185,16 @@
         <v>503</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E326" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>12</v>
@@ -10149,16 +10205,16 @@
         <v>503</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>12</v>
@@ -10169,16 +10225,16 @@
         <v>503</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>12</v>
@@ -10189,16 +10245,16 @@
         <v>503</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>12</v>
@@ -10209,16 +10265,16 @@
         <v>503</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>12</v>
@@ -10229,16 +10285,16 @@
         <v>503</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>12</v>
@@ -10249,16 +10305,16 @@
         <v>503</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E332" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>12</v>
@@ -10269,16 +10325,16 @@
         <v>503</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>12</v>
@@ -10289,16 +10345,16 @@
         <v>503</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E334" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>12</v>
@@ -10309,16 +10365,16 @@
         <v>503</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E335" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>12</v>
@@ -10329,16 +10385,16 @@
         <v>503</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>12</v>
@@ -10349,16 +10405,16 @@
         <v>503</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>12</v>
@@ -10369,16 +10425,16 @@
         <v>503</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>12</v>
@@ -10389,16 +10445,16 @@
         <v>503</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>12</v>
@@ -10409,16 +10465,16 @@
         <v>503</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>12</v>
@@ -10429,16 +10485,16 @@
         <v>503</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E341" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>12</v>
@@ -10449,16 +10505,16 @@
         <v>503</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>12</v>
@@ -10469,16 +10525,16 @@
         <v>503</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E343" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>12</v>
@@ -10489,16 +10545,16 @@
         <v>503</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E344" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>12</v>
@@ -10509,16 +10565,16 @@
         <v>503</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E345" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>12</v>
@@ -10529,16 +10585,16 @@
         <v>503</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E346" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>12</v>
@@ -10549,16 +10605,16 @@
         <v>503</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>12</v>
@@ -10569,16 +10625,16 @@
         <v>503</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>12</v>
@@ -10589,16 +10645,16 @@
         <v>503</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E349" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>12</v>
@@ -10609,16 +10665,16 @@
         <v>503</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>12</v>
@@ -10629,16 +10685,16 @@
         <v>503</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>12</v>
@@ -10649,16 +10705,16 @@
         <v>503</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>12</v>
@@ -10669,16 +10725,16 @@
         <v>503</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>12</v>
@@ -10689,16 +10745,16 @@
         <v>503</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>12</v>
@@ -10709,16 +10765,16 @@
         <v>503</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>12</v>
@@ -10729,16 +10785,16 @@
         <v>503</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>12</v>
@@ -10749,16 +10805,16 @@
         <v>503</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>12</v>
@@ -10769,16 +10825,16 @@
         <v>503</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>12</v>
@@ -10789,16 +10845,16 @@
         <v>503</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>12</v>
@@ -10809,16 +10865,16 @@
         <v>503</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E360" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>12</v>
@@ -10826,19 +10882,19 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="E361" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>12</v>
@@ -10846,19 +10902,19 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E362" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>1051</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>12</v>
@@ -10866,19 +10922,19 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>12</v>
@@ -10886,19 +10942,19 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>12</v>
@@ -10906,19 +10962,19 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>12</v>
@@ -10926,19 +10982,19 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>12</v>
@@ -10946,19 +11002,19 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>12</v>
@@ -10966,19 +11022,19 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>12</v>
@@ -10986,19 +11042,19 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E369" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>12</v>
@@ -11006,19 +11062,19 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>12</v>
@@ -11026,19 +11082,19 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>12</v>
@@ -11046,19 +11102,19 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E372" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>12</v>
@@ -11066,19 +11122,19 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>12</v>
@@ -11086,19 +11142,19 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E374" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>12</v>
@@ -11106,19 +11162,19 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E375" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>12</v>
@@ -11126,19 +11182,19 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E376" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>12</v>
@@ -11146,19 +11202,19 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E377" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>12</v>
@@ -11166,19 +11222,19 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>12</v>
@@ -11186,19 +11242,19 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E379" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>12</v>
@@ -11206,19 +11262,19 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E380" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>12</v>
@@ -11226,19 +11282,19 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E381" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>12</v>
@@ -11246,19 +11302,19 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E382" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>12</v>
@@ -11266,19 +11322,19 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E383" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>12</v>
@@ -11286,19 +11342,19 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E384" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>12</v>
@@ -11306,19 +11362,19 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E385" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>12</v>
@@ -11326,19 +11382,19 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B386" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E386" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>12</v>
@@ -11346,19 +11402,19 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>12</v>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$387</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$396</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1153">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -2066,43 +2066,22 @@
     <t xml:space="preserve">Cap. 3 – O conceito de Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Pessoa jurídica *soberana*, constituída de um *povo* organizado sobre um *território*, sob o comando de um poder político (*poder supremo*), para fins de defesa, ordem, bem estar e progresso social.
+    <t xml:space="preserve">Pessoa jurídica *soberana*, constituída de um *povo* organizado sobre um *território*, sob o comando de um poder político (*poder supremo*), para fins de defesa, ordem, bem estar e progresso social.
 *A unidade social básica na qual vivem as pessoas.*
 Elementos do Estado:
 1- *Grupo* humano ou corpo *social* organizado (*povo*);
 2- *Território* sobre o qual vive o grupo social;
 3- *Poder* que dirige o grupo; e
 4- *Ordem* econômica, social, política e jurídica, que o poder procura estabelecer e realizar.
-*Com os 4 elementos tem-se a soberania*.
-</t>
+*Com os 4 elementos tem-se a soberania*.</t>
   </si>
   <si>
     <t xml:space="preserve">Monopólio da força, Poder de mando originário, Traço peculiar, Autonomia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O traço mais peculiar do Estado que o diferencia de outras formas de organização política, consistindo no poder ilimitado e incondicionado de vencer outras vontades, sendo independente no plano externo e supremo no plano interno.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">É tangível = *se concretiza nas ações*, na ocupação do espaço por seus órgãos e na presença constante *normatizadora* dos indivíduos.
+    <t xml:space="preserve">O traço mais peculiar do Estado que o diferencia de outras formas de organização política, consistindo no poder ilimitado e incondicionado de vencer outras vontades, sendo independente no plano externo e supremo no plano interno.
+É tangível = *se concretiza nas ações*, na ocupação do espaço por seus órgãos e na presença constante *normatizadora* dos indivíduos.
 É intangível = *abstração*. não existe fora da mente articulada do indivíduo. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Definição de Estado (Max Weber)</t>
@@ -2165,15 +2144,7 @@
     <t xml:space="preserve">Sistema de Estados, Igualdade soberana, Não intervenção, Fronteiras, Tratado</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tratado que pode ser considerado a primeira tentativa de paz na Europa e a *pedra angular do moderno sistema de relações internacionais*, reconhecendo a soberania dos monarcas e a igualdade soberana dos Estados.
+    <t xml:space="preserve">Tratado que pode ser considerado a primeira tentativa de paz na Europa e a *pedra angular do moderno sistema de relações internacionais*, reconhecendo a soberania dos monarcas e a igualdade soberana dos Estados.
 Estabeleceu os parâmetros pelos quais ocorreriam as relações internacionais nos próximos século:
 - *Soberania* dos monarcas sobre os seus territórios;
 - *Igualdade* soberana dos Estados; e
@@ -2183,7 +2154,6 @@
 - resolução de conflitos através da *negociação*; e
 - não excluía a guerra, mas a submetia a regras de cunho diplomático.
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Contratualismo</t>
@@ -2224,6 +2194,110 @@
     <t xml:space="preserve">Direitos naturais, Vida, Liberdade, Propriedade, Estado liberal, Mínimo de funções</t>
   </si>
   <si>
+    <t xml:space="preserve">O contrato visa à manutenção dos direitos naturais (vida, liberdade e propriedade), transferindo à comunidade o poder mínimo necessário para a segurança e o cumprimento das leis, resultando no Estado liberal.
+1) Os homens em estado de natureza têm direitos fundamentais: *a vida, a liberdade e a propriedade*. 
+2) O egoísmo coloca os direitos individuais em constante *risco*.  
+3) Necessidade de um contrato para defender seus direitos. 
+4) O poder concedido ao governante deve ser mínimo. 
+5) *Deveres do Estado*: legislar, educar, e prover segurança e justiça.
+Principal obra: Tratado Sobre o Governo Civil.
+O resultado do contrato é o *ESTADO LIBERAL*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Social (Rousseau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontade geral, Corpo moral e coletivo, Soberano (ativo), Estado (passivo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato de associação que cria um *corpo moral e coletivo*, visando defender e proteger pessoas e bens, onde cada um, unindo-se a todos, obedece à *vontade geral* e permanece tão livre quanto antes.
+1) O homem nasce bom e se corrompe pelo meio que habita.
+2) Dificuldades para satisfazer todas as necessidades no estado de natureza (Contrato Social)
+3) O poder social não pode estar baseado na força. A força, por si mesma não pode legitimar o direito.
+4) Deve-se obedecer somente aos poderes legítimos. 
+5) O soberano não pode ultrapassar os limites das convenções.
+6) O resultado do contrato é o *Estado democrático de direito*, representativo, em que o parlamento é o instrumento fundamental da vontade geral que se expressa pela lei.
+7) As leis são justas porque se originam da vontade geral.
+8) Principal obra: Contrato Social
+*Crítica à propriedade privada. Modo de vida liberal*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepção Marxista de Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento de dominação de classe, Superestrutura, Relações de produção, Mais-valia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visão de que o Estado é um instrumento de dominação das classes dominantes (burguesia) para manter seu poder e a exploração (apropriação da mais-valia) sobre as demais classes na sociedade capitalista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado como Organização do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporação territorial, Soberania, Aparato de poder, Monopólio da força, Institucionalização, Ordem jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Um elemento fundamental do Estado é, certamente, a *existência de um poder*. O Estado é um aparato de poder independente e soberano, sendo uma *supraorganização* que regula e é o objeto dessa organização. O poder do Estado é *institucionalizado*, despersonalizado da vontade individual e *direcionado ao bem público*. Ele se apresenta como *dominante*, sendo um poder originário (não derivado) que o diferencia de todos os outros. O Poder dominante do Estado *possui os meios coercitivos.*. Estado possui o *monopólio do uso legítimo da força*. Estado formula suas próprias leis. Não há Poder acima dele. 
+Importante: *É independente no plano externo e supremo no interno.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institucionalização do Poder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despersonalização, Suporte impessoal, Transferência de poder, Permanência dos atos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação jurídica que transfere o poder político *da pessoa* dos governantes para *uma entidade*(Instituição – o Estado), que se torna o suporte impessoal do poder e garante a permanência dos atos legais. Os governantes exercem o Poder em nome do Estado. 
+Estado tem *natureza representativa* (Rousseau).
+O Estado não morre, o que assegura a permanência de todos os seus atos (Hobbes).
+Os Governantes recebem o poder para o *exercício de sua função, delegada pelo povo.* (Hobbes Locke e Rousseau).
+Quanto à representação, a institucionalização se dá:
+1- pelo *fundamento ou base do poder* – A instituição estatal;
+2- No exercício do poder pelos *governantes*; e
+3- em seu *controle pelo soberano*: o rei no Estado absolutista, o povo no Estado democrático de Direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subordinação do Estado à Lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de Direito, Domesticação do Poder, Impessoalidade, Direito, Vontade Geral, Representação Política, Lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas relações políticas, os indivíduos *não obedecem uns aos outros, mas à lei*. O Direito é o modo clássico de expressão do Estado, sua própria linguagem e veículo essencial de sua atividade. A função legislativa é a manifestação da vontade do Estado, que se concretiza em leis. Essa vontade do Estado (as leis) é, na realidade, a manifestação da *VONTADE GERAL da sociedade (conforme Rousseau)*. A *representação política* (senado, câmara) é a *presença da sociedade no Estado*. O Estado não se limita a si mesmo; *ele nasce limitado pelo direito que o legitima*, conforme o estatuto do poder que estabelece e regula a relação entre governantes e governados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de Direito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subordinação à lei, Legalidade, Domesticação do poder, Constituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal moral e político que legitima o Estado moderno através da despersonalização do exercício do poder, onde o poder é gerado e regulamentado por leis gerais, e os indivíduos obedecem à lei e não a outros homens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalidades do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fins Objetivos/Subjetivos, Corporação Territorial, Povo, Poder, Ordem Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 4 – Finalidades e elementos do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado não possui consciência ou vontade própria. As suas finalidades podem ser divididas em: 
+*Fins Objetivos (próprios do Estado, absolutos e incondicionados)*, que se resumem no Bem Comum – criar as condições para que todos os indivíduos alcancem seus fins particulares; e
+*Fins Subjetivos (atribuídos pelos governantes, relativos e condicionados)*, que são próprios de cada Estado, sustentados pelas diferentes doutrinas políticas. 
+*Groppali* define o Estado como a “pessoa jurídica soberana, constituída de um povo organizado sobre um território sob o comando de um poder supremo, para *fins de defesa, ordem, bem-estar e progresso social*”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos Essenciais do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Povo, Território, Poder, Soberania, Direito</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2232,33 +2306,67 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">O contrato visa à manutenção dos direitos naturais (vida, liberdade e propriedade), transferindo à comunidade o poder mínimo necessário para a segurança e o cumprimento das leis, resultando no Estado liberal.
-1) Os homens em estado de natureza têm direitos fundamentais: *a vida, a liberdade e a propriedade*. 
-2) O egoísmo coloca os direitos individuais em constante *risco*.  
-3) Necessidade de um contrato para defender seus direitos. 
-4) O poder concedido ao governante deve ser mínimo. 
-5) *Deveres do Estado*: legislar, educar, e prover segurança e justiça.
-Principal obra: Tratado Sobre o Governo Civil.
-O resultado do contrato é o *ESTADO LIBERAL*.
+      <t xml:space="preserve">Os elementos principais do Estado moderno, consensualmente considerados essenciais, são o povo, o território e o poder, sendo que alguns autores incluem o direito ou a soberania.
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrato Social (Rousseau)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vontade geral, Corpo moral e coletivo, Soberano (ativo), Estado (passivo)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Os Elementos constituintes do Estado são:
+1) um grupo humano ou corpo social organizado;
+2) um território sobre o qual vive o grupo social;
+3) um poder que dirige o grupo; e
+4) uma ordem econômica, social, política e jurídica, que o poder procura estabelecer e realizar.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim Objetivo do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem Comum, Fim próprio, Incondicionado, Santo Tomás de Aquino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fim próprio, objetivo e necessário do Estado, que consiste na criação das condições apropriadas para que todos os grupos e pessoas alcancem seu "bem particular".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fim Subjetivo do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governantes, Contingente, Valores, Propósitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fins atribuídos ao Estado por seus governantes ou integrantes da comunidade, que são relativos e contingentes, e expressam os valores e propósitos daqueles que ocupam temporariamente o governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território do Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base material, Limite espacial, Soberania territorial, Poder de império</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ato de associação que cria um *corpo moral e coletivo*, visando defender e proteger pessoas e bens, onde cada um, unindo-se a todos, obedece à *vontade geral* e permanece tão livre quanto antes.
+      <t xml:space="preserve">É uma porção da *Terra*(Terra em maisculo  demarcada nos limites precisos de suas fronteiras e constitui uma unidade geográfica.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Importante: *Terra em maiúsculo refere-se à territorialidade marítima também*
 </t>
     </r>
     <r>
@@ -2269,91 +2377,84 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1) O homem nasce bom e se corrompe pelo meio que habita.
-2) Dificuldades para satisfazer todas as necessidades no estado de natureza (Contrato Social)
-3) O poder social não pode estar baseado na força. A força, por si mesma não pode legitimar o direito.
-4) Deve-se obedecer somente aos poderes legítimos. 
-5) O soberano não pode ultrapassar os limites das convenções.
-6) O resultado do contrato é o *Estado democrático de direito*, representativo, em que o parlamento é o instrumento fundamental da vontade geral que se expressa pela lei.
-7) As leis são justas porque se originam da vontade geral.
-8) Principal obra: Contrato Social
-*Crítica à propriedade privada. Modo de vida liberal*</t>
+      <t xml:space="preserve">O território é a *base física* do Estado, e este não pode prescindir do seu solo
+*Não existe Estado Moderno sem território.*
+Sociedades não territoriais podem ser consideradas sociedades políticas, mas não Estados.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Concepção Marxista de Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumento de dominação de classe, Superestrutura, Relações de produção, Mais-valia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visão de que o Estado é um instrumento de dominação das classes dominantes (burguesia) para manter seu poder e a exploração (apropriação da mais-valia) sobre as demais classes na sociedade capitalista.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institucionalização do Poder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despersonalização, Suporte impessoal, Transferência de poder, Permanência dos atos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação jurídica que transfere o poder político da pessoa dos governantes para uma entidade, o Estado, que se torna o suporte impessoal do poder e garante a permanência dos atos legais.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado de Direito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subordinação à lei, Legalidade, Domesticação do poder, Constituição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ideal moral e político que legitima o Estado moderno através da despersonalização do exercício do poder, onde o poder é gerado e regulamentado por leis gerais, e os indivíduos obedecem à lei e não a outros homens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elementos Essenciais do Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Povo, Território, Poder, Soberania, Direito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap. 4 – Finalidades e elementos do Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os elementos principais do Estado moderno, consensualmente considerados essenciais, são o povo, o território e o poder, sendo que alguns autores incluem o direito ou a soberania.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fim Objetivo do Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bem Comum, Fim próprio, Incondicionado, Santo Tomás de Aquino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O fim próprio, objetivo e necessário do Estado, que consiste na criação das condições apropriadas para que todos os grupos e pessoas alcancem seu "bem particular".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fim Subjetivo do Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governantes, Contingente, Valores, Propósitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os fins atribuídos ao Estado por seus governantes ou integrantes da comunidade, que são relativos e contingentes, e expressam os valores e propósitos daqueles que ocupam temporariamente o governo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Território do Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base material, Limite espacial, Soberania territorial, Poder de império</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A base física e porção limitada da superfície terrestre necessária para a organização do Estado, onde ele exerce seu poder de domínio com exclusividade.</t>
+    <t xml:space="preserve">Propriedades do Território</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É local onde um único Estado exerce a *soberania.*
+ Âmbito espacial do *poder de império* do Estado sobre os habitantes
+É um *meio de ação* do Estado quanto à Defesa Nacional, exploração, dos recursos naturais, etc.
+*Importante: Doutrinas sobre território tem caráter puramente jurídico, não geográfico!*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemplo de Conceito de Território (Groppali e Fishback)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Âmbito espacial, Ordem jurídica, Validade, Ato coativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Groppali e Fishback: sobre o território se estende o *Poder de domínio do Estado*, que alcança os cidadãos mesmo em território de outro Estado, como também Navios e aviões militares (*sob jurisdição nacional ou princípio da territorialidade*). 
+*Assim, trata de onde o poder tem validade e não sobre sua eficácia!*
+</t>
   </si>
   <si>
     <t xml:space="preserve">Conceito de Território (Kelsen)</t>
   </si>
   <si>
-    <t xml:space="preserve">Âmbito espacial, Ordem jurídica, Validade, Ato coativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">É o âmbito espacial de validade da ordem jurídica do Estado, o espaço no qual devem se realizar os atos coativos regulados pela ordem estatal.</t>
+    <t xml:space="preserve">É o *âmbito espacial de validade da ordem jurídica do Estado*, o espaço no qual devem se realizar os atos coativos regulados pela ordem estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limites Territoriais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divisão precisa, Linha contínua, Convenções, Jurisdições estatais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Limite é uma divisão precisa, resultado de convenções. Consiste numa linha *contínua de separação de distintas* jurisdições estatais soberanas seja no mar ou na terra. É o traçado que estabelece a separação física e jurídica entre Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronteiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áreas de contato, Extensão de limites comuns, Relações internacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As *Fronteiras são as áreas de contato* de dois ou mais Estados na extensão de seus limites comuns. Diferente do limite, que é uma linha, a fronteira é a área que circunda essa linha. Ex: A soberania marítima brasileira faz fronteira com a França (Guiana Francesa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limites Naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidentes geográficos, Rios, Cadeias montanhosas, Traçado físico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São estabelecidos quando o traçado do limite se apoia em *acidentes geográficos*, como rios ou a base de cadeias montanhosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limites Artificiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha ideal, Latitude, Longitude, Demarcação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A demarcação desses limites é resultado de uma *linha ideal traçada* em função da latitude e longitude. Ex: São resultados de tratados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soberania Territorial e Limitações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder Dominante, Monopólio da Coação, Supremacia Interna, Igualdade Soberana, Relações Externas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado exerce *soberania territorial* sobre *todas as pessoas* que se encontram em seu território, quer estejam em caráter *permanente* como habitantes (nacionais e estrangeiros), ou em caráter *transitório* (turistas, viajantes, etc.)
+As prerrogativas e imunidades diplomáticas, por exemplo, são regidas pelas normas do Direito Internacional Público.
+*Assim, ao mesmo tempo que o espaço onde atua o poder é ilimitado, há limitações para a soberania territorial plena e exclusiva.*</t>
   </si>
   <si>
     <t xml:space="preserve">Povo do Estado</t>
@@ -2362,7 +2463,28 @@
     <t xml:space="preserve">Categoria jurídica, Cidadania, Vínculo, Unidade cultural</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjunto de pessoas cuja conduta está regulada por uma ordem jurídica nacional, ligados ao Estado pelo vínculo da cidadania, excluindo estrangeiros e apátridas.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Conjunto de pessoas cuja conduta está regulada por uma ordem jurídica nacional, ligados ao Estado pelo vínculo da cidadania, excluindo estrangeiros e apátridas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*Portanto, não são considerados como cidadãos os estrangeiros, os apátridas, etc*.
+Constitui unidade cultural e histórica.
+Não distingue etnia.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">População do Estado</t>
@@ -2371,7 +2493,7 @@
     <t xml:space="preserve">Conceito demográfico, Quantitativo, Número de indivíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">Conceito que se refere ao aspecto quantitativo, ou seja, o número de indivíduos que habitam o território do Estado, sem considerar sua condição jurídica.</t>
+    <t xml:space="preserve">Conceito que se refere ao aspecto quantitativo, ou seja, o número de indivíduos que habitam o território do Estado, sem considerar sua condição jurídica, não revela qualquer vínculo pessoa x Estado.</t>
   </si>
   <si>
     <t xml:space="preserve">Cultura semelhante, História comum, Autonomia, Singularidade</t>
@@ -3632,7 +3754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3692,6 +3814,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3742,7 +3882,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3787,7 +3927,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4000,18 +4156,18 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D238" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E238" activeCellId="0" sqref="E238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B398" activeCellId="0" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="71.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.58"/>
   </cols>
@@ -4020,7 +4176,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -5599,7 +5755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -5719,7 +5875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>245</v>
       </c>
@@ -5739,7 +5895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -5759,7 +5915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
@@ -5779,7 +5935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
@@ -5799,7 +5955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -5819,7 +5975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>245</v>
       </c>
@@ -5839,7 +5995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -5859,7 +6015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>245</v>
       </c>
@@ -5879,7 +6035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
@@ -5899,7 +6055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>245</v>
       </c>
@@ -5919,7 +6075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -5939,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
@@ -5959,7 +6115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
@@ -5979,7 +6135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -5999,7 +6155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -6016,7 +6172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -6033,7 +6189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>245</v>
       </c>
@@ -6050,7 +6206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>245</v>
       </c>
@@ -6081,7 +6237,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>245</v>
       </c>
@@ -6095,7 +6251,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
@@ -6109,7 +6265,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>245</v>
       </c>
@@ -6123,7 +6279,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
@@ -6137,7 +6293,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -6154,7 +6310,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -6168,7 +6324,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>245</v>
       </c>
@@ -6185,7 +6341,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -6202,7 +6358,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>245</v>
       </c>
@@ -6219,7 +6375,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
@@ -6253,7 +6409,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -6267,7 +6423,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>245</v>
       </c>
@@ -6281,7 +6437,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
@@ -6295,7 +6451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
@@ -6312,7 +6468,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
@@ -6329,7 +6485,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
@@ -6346,7 +6502,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>245</v>
       </c>
@@ -6363,7 +6519,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>245</v>
       </c>
@@ -6380,7 +6536,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -6397,7 +6553,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>245</v>
       </c>
@@ -6414,7 +6570,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>245</v>
       </c>
@@ -6431,7 +6587,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>245</v>
       </c>
@@ -6448,7 +6604,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>245</v>
       </c>
@@ -6465,7 +6621,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>245</v>
       </c>
@@ -6482,7 +6638,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>245</v>
       </c>
@@ -6499,7 +6655,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>245</v>
       </c>
@@ -6516,7 +6672,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>245</v>
       </c>
@@ -6533,7 +6689,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>245</v>
       </c>
@@ -6550,7 +6706,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>245</v>
       </c>
@@ -6567,7 +6723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
@@ -6584,7 +6740,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>245</v>
       </c>
@@ -6601,7 +6757,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>245</v>
       </c>
@@ -6618,7 +6774,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>245</v>
       </c>
@@ -6635,7 +6791,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>245</v>
       </c>
@@ -6652,7 +6808,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>245</v>
       </c>
@@ -6669,7 +6825,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>245</v>
       </c>
@@ -6686,7 +6842,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>245</v>
       </c>
@@ -6703,7 +6859,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>245</v>
       </c>
@@ -6720,7 +6876,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>245</v>
       </c>
@@ -6737,7 +6893,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>245</v>
       </c>
@@ -6884,7 +7040,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>423</v>
       </c>
@@ -7093,7 +7249,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>423</v>
       </c>
@@ -7110,7 +7266,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>423</v>
       </c>
@@ -7127,7 +7283,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>423</v>
       </c>
@@ -7144,7 +7300,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>423</v>
       </c>
@@ -7161,7 +7317,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
@@ -7178,7 +7334,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
@@ -7192,7 +7348,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
@@ -7209,7 +7365,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>423</v>
       </c>
@@ -7226,7 +7382,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>423</v>
       </c>
@@ -7240,7 +7396,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
@@ -7257,7 +7413,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>423</v>
       </c>
@@ -7271,7 +7427,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
@@ -7288,7 +7444,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>503</v>
       </c>
@@ -7308,7 +7464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -7328,7 +7484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>503</v>
       </c>
@@ -7348,7 +7504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>503</v>
       </c>
@@ -7368,7 +7524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>503</v>
       </c>
@@ -7388,7 +7544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>503</v>
       </c>
@@ -7408,7 +7564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>503</v>
       </c>
@@ -7428,7 +7584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>503</v>
       </c>
@@ -7448,7 +7604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>503</v>
       </c>
@@ -7468,7 +7624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>503</v>
       </c>
@@ -7488,7 +7644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>503</v>
       </c>
@@ -7508,7 +7664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>503</v>
       </c>
@@ -7528,7 +7684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -7548,7 +7704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>503</v>
       </c>
@@ -7568,7 +7724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>503</v>
       </c>
@@ -7585,7 +7741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>503</v>
       </c>
@@ -7602,7 +7758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>503</v>
       </c>
@@ -7619,7 +7775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>503</v>
       </c>
@@ -7636,7 +7792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="138.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="138.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>503</v>
       </c>
@@ -7653,7 +7809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>503</v>
       </c>
@@ -7670,7 +7826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>503</v>
       </c>
@@ -7690,7 +7846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>503</v>
       </c>
@@ -7709,7 +7865,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>503</v>
       </c>
@@ -7728,7 +7884,7 @@
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>503</v>
       </c>
@@ -7747,7 +7903,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>503</v>
       </c>
@@ -7767,7 +7923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>503</v>
       </c>
@@ -7787,7 +7943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>503</v>
       </c>
@@ -7807,7 +7963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>503</v>
       </c>
@@ -7827,7 +7983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>503</v>
       </c>
@@ -7847,7 +8003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="165.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>503</v>
       </c>
@@ -7867,7 +8023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>503</v>
       </c>
@@ -7886,7 +8042,7 @@
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>503</v>
       </c>
@@ -7905,7 +8061,7 @@
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>503</v>
       </c>
@@ -7924,7 +8080,7 @@
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
         <v>503</v>
       </c>
@@ -7943,7 +8099,7 @@
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>503</v>
       </c>
@@ -7962,7 +8118,7 @@
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>503</v>
       </c>
@@ -7981,7 +8137,7 @@
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>503</v>
       </c>
@@ -8000,7 +8156,7 @@
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>503</v>
       </c>
@@ -8019,7 +8175,7 @@
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>503</v>
       </c>
@@ -8038,7 +8194,7 @@
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="97" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>503</v>
       </c>
@@ -8058,7 +8214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>503</v>
       </c>
@@ -8077,7 +8233,7 @@
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>503</v>
       </c>
@@ -8096,7 +8252,7 @@
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>503</v>
       </c>
@@ -8115,7 +8271,7 @@
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>503</v>
       </c>
@@ -8134,7 +8290,7 @@
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="120.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>503</v>
       </c>
@@ -8153,7 +8309,7 @@
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" customFormat="false" ht="165.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>503</v>
       </c>
@@ -8172,7 +8328,7 @@
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>503</v>
       </c>
@@ -8191,7 +8347,7 @@
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" customFormat="false" ht="240.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>503</v>
       </c>
@@ -8211,101 +8367,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-    </row>
-    <row r="228" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>643</v>
+      <c r="B228" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E228" s="10" t="s">
-        <v>646</v>
+      <c r="E228" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>336</v>
+      <c r="B229" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>649</v>
+      <c r="B230" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>652</v>
+      <c r="B231" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>655</v>
+      <c r="B232" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>656</v>
@@ -8320,720 +8487,720 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="150.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>658</v>
+      <c r="B233" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="195.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>659</v>
+      <c r="B234" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="194" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>662</v>
+      <c r="B235" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>665</v>
+      <c r="B236" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="240.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>668</v>
+      <c r="B237" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>670</v>
+      <c r="E237" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>671</v>
+      <c r="B238" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E238" s="11" t="s">
-        <v>673</v>
+      <c r="E238" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="196.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>674</v>
+      <c r="B239" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>645</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="151.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>678</v>
+      <c r="B240" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E240" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
+    </row>
+    <row r="241" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>680</v>
+      <c r="B241" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>682</v>
+      <c r="E241" s="10" t="s">
+        <v>685</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>684</v>
+      <c r="B242" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E242" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
+    </row>
+    <row r="243" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>686</v>
+      <c r="B243" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>689</v>
+        <v>645</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>691</v>
+      <c r="B244" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>694</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
+    </row>
+    <row r="245" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>693</v>
+      <c r="B245" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>695</v>
+      <c r="E245" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>696</v>
+      <c r="B246" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>699</v>
+      <c r="B247" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>702</v>
+      <c r="B248" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>707</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>705</v>
+      <c r="B249" s="14" t="s">
+        <v>708</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>706</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>707</v>
+        <v>694</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>709</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="254" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254" s="13"/>
+    </row>
+    <row r="255" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G255" s="13"/>
+    </row>
+    <row r="256" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
+    </row>
+    <row r="257" customFormat="false" ht="72.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="73.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B251" s="1" t="s">
+      <c r="C259" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="C260" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E260" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>739</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="2" t="s">
         <v>740</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E261" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>742</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="2" t="s">
         <v>743</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>744</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E262" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>745</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="2" t="s">
         <v>746</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>747</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E263" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>748</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="2" t="s">
         <v>749</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>750</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E264" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>751</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="2" t="s">
         <v>752</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E265" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>754</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="2" t="s">
         <v>755</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>756</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E266" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>757</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="2" t="s">
         <v>758</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E267" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>760</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="2" t="s">
         <v>761</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>762</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E268" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>763</v>
       </c>
       <c r="F268" s="1" t="s">
@@ -9051,10 +9218,10 @@
         <v>765</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>12</v>
@@ -9065,16 +9232,16 @@
         <v>503</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>12</v>
@@ -9085,16 +9252,16 @@
         <v>503</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>12</v>
@@ -9105,16 +9272,16 @@
         <v>503</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>12</v>
@@ -9125,13 +9292,13 @@
         <v>503</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>779</v>
@@ -9151,7 +9318,7 @@
         <v>781</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>782</v>
@@ -9171,7 +9338,7 @@
         <v>784</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>785</v>
@@ -9191,7 +9358,7 @@
         <v>787</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>788</v>
@@ -9211,7 +9378,7 @@
         <v>790</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>791</v>
@@ -9231,7 +9398,7 @@
         <v>793</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>794</v>
@@ -9251,7 +9418,7 @@
         <v>796</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>797</v>
@@ -9271,7 +9438,7 @@
         <v>799</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>800</v>
@@ -9291,7 +9458,7 @@
         <v>802</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>803</v>
@@ -9311,10 +9478,10 @@
         <v>805</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>12</v>
@@ -9325,16 +9492,16 @@
         <v>503</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>12</v>
@@ -9345,16 +9512,16 @@
         <v>503</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>12</v>
@@ -9365,16 +9532,16 @@
         <v>503</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>12</v>
@@ -9385,16 +9552,16 @@
         <v>503</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>12</v>
@@ -9405,16 +9572,16 @@
         <v>503</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>12</v>
@@ -9425,13 +9592,13 @@
         <v>503</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>825</v>
@@ -9451,7 +9618,7 @@
         <v>827</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>828</v>
@@ -9471,7 +9638,7 @@
         <v>830</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>831</v>
@@ -9491,7 +9658,7 @@
         <v>833</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>834</v>
@@ -9511,7 +9678,7 @@
         <v>836</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>837</v>
@@ -9531,7 +9698,7 @@
         <v>839</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>840</v>
@@ -9551,7 +9718,7 @@
         <v>842</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>843</v>
@@ -9571,7 +9738,7 @@
         <v>845</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>846</v>
@@ -9591,7 +9758,7 @@
         <v>848</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>849</v>
@@ -9611,10 +9778,10 @@
         <v>851</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>12</v>
@@ -9625,16 +9792,16 @@
         <v>503</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>12</v>
@@ -9645,16 +9812,16 @@
         <v>503</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>12</v>
@@ -9665,16 +9832,16 @@
         <v>503</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>620</v>
+        <v>860</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>12</v>
@@ -9685,16 +9852,16 @@
         <v>503</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>12</v>
@@ -9705,16 +9872,16 @@
         <v>503</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>12</v>
@@ -9725,16 +9892,16 @@
         <v>503</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>12</v>
@@ -9745,16 +9912,16 @@
         <v>503</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>12</v>
@@ -9765,16 +9932,16 @@
         <v>503</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>12</v>
@@ -9785,16 +9952,16 @@
         <v>503</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>12</v>
@@ -9805,16 +9972,16 @@
         <v>503</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>12</v>
@@ -9825,16 +9992,16 @@
         <v>503</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>12</v>
@@ -9845,16 +10012,16 @@
         <v>503</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>885</v>
+        <v>620</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>12</v>
@@ -9865,16 +10032,16 @@
         <v>503</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
@@ -9885,13 +10052,13 @@
         <v>503</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>894</v>
@@ -9911,7 +10078,7 @@
         <v>896</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>897</v>
@@ -9931,7 +10098,7 @@
         <v>899</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>900</v>
@@ -9951,7 +10118,7 @@
         <v>902</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>903</v>
@@ -9971,7 +10138,7 @@
         <v>905</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>906</v>
@@ -9991,7 +10158,7 @@
         <v>908</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>909</v>
@@ -10011,7 +10178,7 @@
         <v>911</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>912</v>
@@ -10031,7 +10198,7 @@
         <v>914</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>915</v>
@@ -10051,7 +10218,7 @@
         <v>917</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>918</v>
@@ -10071,10 +10238,10 @@
         <v>920</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>12</v>
@@ -10085,16 +10252,16 @@
         <v>503</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>12</v>
@@ -10105,16 +10272,16 @@
         <v>503</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>12</v>
@@ -10125,16 +10292,16 @@
         <v>503</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>12</v>
@@ -10145,16 +10312,16 @@
         <v>503</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>12</v>
@@ -10165,16 +10332,16 @@
         <v>503</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>12</v>
@@ -10185,16 +10352,16 @@
         <v>503</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>12</v>
@@ -10205,16 +10372,16 @@
         <v>503</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>12</v>
@@ -10225,16 +10392,16 @@
         <v>503</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>12</v>
@@ -10245,16 +10412,16 @@
         <v>503</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>12</v>
@@ -10265,16 +10432,16 @@
         <v>503</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>12</v>
@@ -10285,16 +10452,16 @@
         <v>503</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>12</v>
@@ -10305,16 +10472,16 @@
         <v>503</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>12</v>
@@ -10325,16 +10492,16 @@
         <v>503</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>12</v>
@@ -10345,16 +10512,16 @@
         <v>503</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>12</v>
@@ -10365,16 +10532,16 @@
         <v>503</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>12</v>
@@ -10385,16 +10552,16 @@
         <v>503</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>12</v>
@@ -10405,16 +10572,16 @@
         <v>503</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>12</v>
@@ -10425,16 +10592,16 @@
         <v>503</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>12</v>
@@ -10445,16 +10612,16 @@
         <v>503</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>12</v>
@@ -10465,13 +10632,13 @@
         <v>503</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>982</v>
@@ -10491,7 +10658,7 @@
         <v>984</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>985</v>
@@ -10511,7 +10678,7 @@
         <v>987</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>988</v>
@@ -10531,7 +10698,7 @@
         <v>990</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>991</v>
@@ -10551,7 +10718,7 @@
         <v>993</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>994</v>
@@ -10571,7 +10738,7 @@
         <v>996</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>997</v>
@@ -10591,7 +10758,7 @@
         <v>999</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>1000</v>
@@ -10611,7 +10778,7 @@
         <v>1002</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>1003</v>
@@ -10631,7 +10798,7 @@
         <v>1005</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>981</v>
+        <v>921</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>1006</v>
@@ -10651,10 +10818,10 @@
         <v>1008</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>12</v>
@@ -10665,16 +10832,16 @@
         <v>503</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>12</v>
@@ -10685,16 +10852,16 @@
         <v>503</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>12</v>
@@ -10705,16 +10872,16 @@
         <v>503</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>12</v>
@@ -10725,16 +10892,16 @@
         <v>503</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>12</v>
@@ -10745,16 +10912,16 @@
         <v>503</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>12</v>
@@ -10765,16 +10932,16 @@
         <v>503</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>12</v>
@@ -10785,16 +10952,16 @@
         <v>503</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>683</v>
+        <v>1029</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>12</v>
@@ -10805,16 +10972,16 @@
         <v>503</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>12</v>
@@ -10825,16 +10992,16 @@
         <v>503</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>12</v>
@@ -10845,16 +11012,16 @@
         <v>503</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>12</v>
@@ -10865,16 +11032,16 @@
         <v>503</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>12</v>
@@ -10882,16 +11049,16 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>1046</v>
@@ -10902,7 +11069,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1047</v>
@@ -10911,7 +11078,7 @@
         <v>1048</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>1049</v>
@@ -10922,7 +11089,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1050</v>
@@ -10931,7 +11098,7 @@
         <v>1051</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>1052</v>
@@ -10942,7 +11109,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1053</v>
@@ -10951,7 +11118,7 @@
         <v>1054</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>1055</v>
@@ -10962,19 +11129,19 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>12</v>
@@ -10982,19 +11149,19 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>12</v>
@@ -11002,19 +11169,19 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>12</v>
@@ -11022,19 +11189,19 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>12</v>
@@ -11042,19 +11209,19 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>1042</v>
+        <v>503</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E369" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>12</v>
@@ -11062,7 +11229,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1071</v>
@@ -11071,10 +11238,10 @@
         <v>1072</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>12</v>
@@ -11082,19 +11249,19 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>12</v>
@@ -11102,19 +11269,19 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>12</v>
@@ -11122,19 +11289,19 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>12</v>
@@ -11142,19 +11309,19 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>12</v>
@@ -11162,19 +11329,19 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>12</v>
@@ -11182,19 +11349,19 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>12</v>
@@ -11202,19 +11369,19 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>12</v>
@@ -11222,19 +11389,19 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>12</v>
@@ -11242,19 +11409,19 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>12</v>
@@ -11262,19 +11429,19 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>12</v>
@@ -11282,19 +11449,19 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>12</v>
@@ -11302,19 +11469,19 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>12</v>
@@ -11322,19 +11489,19 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>12</v>
@@ -11342,19 +11509,19 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>12</v>
@@ -11362,19 +11529,19 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>12</v>
@@ -11382,19 +11549,19 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>12</v>
@@ -11402,26 +11569,206 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G387">
+  <autoFilter ref="A1:G396">
     <filterColumn colId="0">
       <filters>
         <filter val="Ciência Política"/>
@@ -11429,7 +11776,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Cap. 3 – O conceito de Estado"/>
+        <filter val="Cap. 4 – Finalidades e elementos do Estado"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1431">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -2298,30 +2298,12 @@
     <t xml:space="preserve">Povo, Território, Poder, Soberania, Direito</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Os elementos principais do Estado moderno, consensualmente considerados essenciais, são o povo, o território e o poder, sendo que alguns autores incluem o direito ou a soberania.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Os Elementos constituintes do Estado são:
+    <t xml:space="preserve">Os elementos principais do Estado moderno, consensualmente considerados essenciais, são o povo, o território e o poder, sendo que alguns autores incluem o direito ou a soberania.
+Os Elementos constituintes do Estado são:
 1) um grupo humano ou corpo social organizado;
 2) um território sobre o qual vive o grupo social;
 3) um poder que dirige o grupo; e
 4) uma ordem econômica, social, política e jurídica, que o poder procura estabelecer e realizar.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Fim Objetivo do Estado</t>
@@ -2348,39 +2330,11 @@
     <t xml:space="preserve">Base material, Limite espacial, Soberania territorial, Poder de império</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">É uma porção da *Terra*(Terra em maisculo  demarcada nos limites precisos de suas fronteiras e constitui uma unidade geográfica.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Importante: *Terra em maiúsculo refere-se à territorialidade marítima também*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O território é a *base física* do Estado, e este não pode prescindir do seu solo
+    <t xml:space="preserve">É uma porção da *Terra*(Terra em maisculo  demarcada nos limites precisos de suas fronteiras e constitui uma unidade geográfica.
+Importante: *Terra em maiúsculo refere-se à territorialidade marítima também*
+O território é a *base física* do Estado, e este não pode prescindir do seu solo
 *Não existe Estado Moderno sem território.*
 Sociedades não territoriais podem ser consideradas sociedades políticas, mas não Estados.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Propriedades do Território</t>
@@ -2480,6 +2434,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*Portanto, não são considerados como cidadãos os estrangeiros, os apátridas, etc*.
 Constitui unidade cultural e histórica.
@@ -3745,6 +3700,868 @@
   </si>
   <si>
     <t xml:space="preserve">Inclui todas as disciplinas relacionadas ao estudo do oceano, como ciências físicas, biológicas, químicas e sociais, e busca entender os complexos sistemas sociais e ecológicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economia Brasileira Contemporânea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandemia, Mortalidade, Esperança de vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 – Aspectos Demográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandemia que elevou a taxa de mortalidade no Brasil e alterou as principais causas de morte para doenças infecciosas, reduzindo a esperança de vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento demográfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalidade, Mortalidade, Migração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinado pela soma algébrica das taxas de natalidade, mortalidade e migração; no Brasil, houve queda no ritmo, convergindo para padrões de países desenvolvidos,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento populacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variação da população resultante da combinação entre a taxa de natalidade, a taxa de mortalidade e a taxa de migração (saldo migratório).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esperança de vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longevidade, Nascidos vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média de anos que se espera que uma pessoa viva ao nascer; indicador que vinha crescendo no Brasil, mas sofreu queda devido à pandemia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrutura etária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo de vida, Jovens, Idosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composição da população por idade, cujas alterações afetam o consumo, a poupança e as demandas por políticas públicas (educação vs. previdência).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Êxodo rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migração, Campo-cidade, Industrialização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deslocamento em massa da população do campo para as cidades, impulsionado pela industrialização, especialmente em direção ao Sudeste entre 1950 e 1990.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronteiras agrícolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão territorial, Migração, Norte/Centro-Oeste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regiões onde novas terras são incorporadas à produção (primeiro Sul, depois Centro-Oeste e Norte), atraindo fluxos migratórios e nova urbanização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de envelhecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idosos, Jovens, IBGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre a população com mais de 65 anos e a população com menos de 15 anos, evidenciando o envelhecimento da estrutura populacional brasileira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metropolização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandes cidades, Concentração urbana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo de urbanização caracterizado pelo crescimento desmesurado das grandes regiões metropolitanas, predominante até a década de 1970.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migração: força de expulsão e atração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deslocamento, Condições socioeconômicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores que levam as pessoas a sair de sua origem (expulsão) e escolher um destino (atração), geralmente buscando melhores condições de vida e emprego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrações internas e externas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição regional, Imigração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As migrações externas alteram a população total do país, enquanto as internas modificam apenas a distribuição regional e localizacional da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neomalthusianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malthus, Pobreza, Recursos naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrente teórica que associa o crescimento populacional à pobreza e ao esgotamento de recursos, defendendo políticas de limitação da natalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População aberta e fechada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imigração, Crescimento vegetativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População aberta cresce influenciada pela imigração; população fechada depende apenas do crescimento vegetativo (diferença entre nascimentos e óbitos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População economicamente ativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Força de trabalho, Trabalhadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela da população que representa o potencial de trabalhadores e produtores de um país, distinta dos apenas consumidores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razão de dependência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependentes, Idade ativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre os dependentes (menores de 15 e maiores de 65 anos) e a população em idade ativa (15 a 65 anos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de desemprego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emprego, Mercado de trabalho, Vagas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextualizada pela pressão populacional sobre o mercado de trabalho; o texto estima a necessidade de geração de 900.000 novos empregos anuais para manter o nível de emprego,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de fecundidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulheres idade fértil, Reposição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre nascimentos e mulheres em idade fértil (15-44 anos); no Brasil, encontra-se abaixo da taxa de reposição populacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de migração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo migratório, População</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador calculado pela divisão do saldo migratório (diferença entre entradas e saídas definitivas) pela população total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de mortalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óbitos, Saúde pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre o número de óbitos e a população; afetada por condições sanitárias, epidemias e estrutura etária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de mortalidade infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiro ano de vida, Nascidos vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de crianças falecidas durante o primeiro ano de vida para cada grupo de 1.000 recém-nascidos vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de natalidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nascimentos, População</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre o número de nascimentos e a população total, sendo um dos componentes do crescimento populacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transição demográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalidade, Mortalidade, Fases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo histórico de passagem de taxas elevadas de natalidade e mortalidade para taxas baixas, com uma fase intermediária de alto crescimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbanização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidades, Desconcentração, Interiorização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento da população urbana em detrimento da rural; recentemente marcado pela desconcentração para cidades médias e interior, reduzindo o ritmo das metrópoles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorção interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo, Investimento, Demanda interna</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cap. 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Contabilidade Nacional: Agregados Macroeconômicos</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde à soma do consumo (público e privado) e do investimento, diferindo do produto por não incluir o saldo comercial (exportações e importações).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens de capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento, Máquinas, Produção futura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens de produção (máquinas, edifícios) adquiridos para aumentar a oferta futura; sofrem desgaste (depreciação) ao longo do tempo,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessidades humanas, Dupla contagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens destinados diretamente à satisfação das necessidades humanas, contabilizados no produto para evitar a dupla contagem dos bens intermediários,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens intermediários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insumos, Matéria-prima, Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercadorias utilizadas na produção de outros bens (ex: aço no automóvel); não são somadas ao PIB para evitar o erro de dupla contagem,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não rival, Não excludente, Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens que o mercado não provê (como segurança nacional), caracterizados pelo consumo não rival e não excludente, financiados por impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famílias, Mercado, Satisfação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens e serviços adquiridos voluntariamente pelas famílias no mercado para a satisfação de suas necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo, Serviços gratuitos, Coletivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens e serviços oferecidos de forma "gratuita" pelo governo e consumidos coletivamente, como iluminação pública, educação e saúde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento econômico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento do produto, Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definido como o aumento do produto (produção de bens e serviços) de um país em determinado período,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento público, Poupança pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde à diferença entre o investimento público (Ig) e a poupança pública (Sg), indicando quando o governo gasta mais do que poupa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deflator implícito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços, PIB real, PIB nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice geral de preços obtido pela razão entre o PIB nominal e o PIB real, medindo a variação média dos preços da economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispêndio, Consumo, Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identidade macroeconômica igual ao produto e à renda, composta por Consumo, Investimento, Exportações menos Importações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desgaste, Capital, Reposição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela dos bens de capital consumida a cada período produtivo, representando a diferença entre o Investimento Bruto e o Investimento Líquido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendas externas, Não residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela do produto gerado internamente que é vendida para agentes do resto do mundo,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores de produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos, Terra, Capital, Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos utilizados na produção de bens e serviços, geralmente divididos em terra, capital e trabalho,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo circular da renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famílias, Empresas, Mercados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação esquemática das transações entre agentes (famílias, empresas, governo), mostrando a equivalência entre produto, renda e despesa,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo do governo, Demanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referem-se ao consumo do governo (bens e serviços); os investimentos do governo são classificados separadamente como investimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras externas, Oferta interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela dos bens consumidos e investidos no país que foi produzida no exterior e adquirida de não residentes,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos diretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda, Propriedade, Famílias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tributos que incidem diretamente sobre a renda ou propriedade do agente, como o Imposto de Renda e o IPTU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos indiretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços, Mercadorias, Consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tributos que incidem sobre a mercadoria (ICMS, IPI), embutidos no preço final e pagos, em última instância, pelo consumidor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de preços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação, Deflacionamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médias ponderadas das mudanças de preços usadas para retirar o efeito da inflação (deflacionar) e calcular o produto real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens de capital, Estoques, Futuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquisição de bens de capital (máquinas, edifícios) e acumulação de estoques visando ampliar a oferta de produtos no futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento bruto e líquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciação, Capacidade produtiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Investimento Bruto (IB) é o total adquirido; o Líquido (IL) desconta a depreciação, medindo o aumento efetivo da capacidade produtiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ótica da renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remuneração, Salários, Lucros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensuração do produto através da soma das remunerações pagas aos fatores de produção (salários, juros, aluguéis e lucros).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ótica do dispêndio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda, Gastos, Absorção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensuração do produto somando os destinos da produção: consumo, investimento e exportações, subtraindo as importações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ótica do produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor adicionado, Bens finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensuração do PIB pela soma dos valores monetários dos bens finais ou pela soma dos valores adicionados em cada etapa produtiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda não consumida, Financiamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela da renda das famílias (ou outros agentes) que não é destinada ao consumo em determinado período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda enviada, Déficit, Balança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre a renda líquida enviada ao exterior e o saldo das exportações e importações de bens e serviços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita líquida, Gastos, Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre a renda líquida do setor público (impostos menos transferências e subsídios) e o consumo do governo (gastos públicos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Interno Bruto a custo de fatores (PIBcf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos indiretos, Subsídios, Preços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida do produto que exclui os impostos indiretos e adiciona os subsídios ao PIB a preços de mercado, refletindo o custo dos fatores de produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Interno Bruto a preços de mercado (PIBpm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor monetário, Bens finais, Venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor monetário total de venda dos produtos finais produzidos dentro do país em determinado período; indicador padrão de desempenho econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Interno Líquido a preço de mercado (PILpm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciação, Capital, Desgaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde ao PIB a preços de mercado subtraindo-se a depreciação, ou seja, o consumo do estoque de capital ocorrido no período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Nacional Bruto a custo de fatores (PNBcf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda enviada, Nacionalidade, Residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre o PIB a custo de fatores e a renda líquida enviada ao exterior, focando na produção dos fatores nacionais, onde quer que estejam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto Nacional Líquido a custo de fatores (PNLcf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Nacional, Agregado, Líquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregado macroeconômico equivalente à Renda Nacional (RN), obtido subtraindo a depreciação do PNBcf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema da dupla contagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens intermediários, Bens finais, Erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro contábil de somar o valor dos bens intermediários (insumos) junto com o dos bens finais, inflando artificialmente o produto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade social, Natureza, Necessidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade social de adaptação da natureza para a criação de bens e serviços visando a satisfação das necessidades humanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxo, Valor monetário, Período</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressão monetária da produção de bens e serviços finais de uma sociedade em determinado período (variável fluxo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto real x produto nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços constantes, Preços correntes, Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O produto nominal é medido a preços correntes (do ano); o real é medido a preços constantes, descontando a inflação para avaliar o crescimento físico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda enviada ao exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores externos, Remuneração, Não residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela da renda gerada internamente usada para remunerar fatores de produção (trabalho, capital) pertencentes a não residentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda líquida enviada ao exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo, Remessas, Fatores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre o que é pago a fatores de produção externos utilizados no país e o que é recebido por fatores nacionais no exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda líquida do setor público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos, Transferências, Subsídios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita do governo composta por impostos diretos e indiretos, deduzidos os subsídios e as transferências governamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Nacional (RN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNLcf, Remuneração, Fatores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identidade macroeconômica definida como o Produto Nacional Líquido a custo de fatores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Pessoal (RP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famílias, Lucros retidos, Transferências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda total recebida pelas famílias, calculada a partir da Renda Nacional subtraindo lucros retidos/impostos de empresas e somando transferências.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Pessoal Disponível (RPD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo, Poupança, Impostos diretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda que efetivamente sobra para as famílias consumirem ou pouparem, obtida subtraindo os impostos diretos da Renda Pessoal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda recebida do exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores nacionais, Residentes, Exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remuneração recebida por fatores de produção (trabalho e capital) de residentes nacionais que estão empregados em outros países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de fatores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalho, Capital, Remuneração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamentos pelo uso de fatores de produção (salários, juros, lucros, aluguéis), que compõem a renda líquida enviada ao exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços não fatores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fretes, Seguros, Royalties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamentos por serviços internacionais que não remuneram diretamente fatores de produção, como fretes, seguros e viagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsídios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo, Custo de produção, Imposto negativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamento do governo para cobrir parte dos custos de produção das empresas; atua como um imposto indireto negativo, reduzindo o preço de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferências do governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aposentadorias, Benefícios, Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagamentos do governo a agentes (ex: aposentadorias, seguro-desemprego) sem contrapartida de produção, considerados impostos diretos negativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor adicionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapas, Insumos, Contribuição setorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor acrescido em cada etapa produtiva, calculado pela diferença entre o valor bruto da mercadoria e o valor dos insumos (bens intermediários).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor bruto da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBP, Bens finais, Bens intermediários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma do valor total da produção de todos os bens (finais e intermediários) sem descontar a dupla contagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variáveis fluxo x variáveis estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo, Instante, Medição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxos são medidos ao longo de um período (ex: PIB, renda); estoques são medidos em um instante específico (ex: riqueza, dívida).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção quantitativa, PIB, Necessidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se à ampliação quantitativa da produção de bens e serviços; difere do desenvolvimento por não englobar necessariamente a qualidade de vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curva de Lorenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfico, Desigualdade, Distribuição acumulada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representação gráfica que relaciona a porcentagem acumulada da população com a porcentagem acumulada da renda; quanto mais distante da diagonal, maior a desigualdade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento econômico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualidade de vida, Bem-estar, Crescimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito amplo que engloba o crescimento econômico, mas adiciona a natureza e a qualidade desse crescimento, refletindo as condições de vida da população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento participativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisão comunitária, Envolvimento, Sociedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo de desenvolvimento onde a estratégia é definida assegurando que as pessoas participem plenamente das decisões que afetam suas vidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento sustentado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerações futuras, Meio ambiente, Recursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que atende às necessidades do presente sem comprometer a possibilidade de as gerações futuras atenderem às suas próprias necessidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição pessoal de renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indivíduos, Ricos e pobres, Desigualdade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma como a renda é partilhada entre os indivíduos ou famílias, refletindo o grau de concentração de rendimentos entre os residentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição regional da renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regiões, Concentração geográfica, PIB regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise da participação de cada região (ex: Sudeste, Nordeste) na renda global do país, evidenciando desigualdades espaciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oportunidades, Acesso, Barreiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente do desenvolvimento humano que implica acesso a iguais oportunidades para que as pessoas se beneficiem dos frutos do crescimento econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Desenvolvimento Humano (IDH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONU, Saúde, Educação, Renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice da ONU (0 a 1) que agrega indicadores de renda (per capita), saúde (longevidade) e educação para medir o desenvolvimento social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicadores sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saúde, Educação, Qualidade de vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados que informam diretamente sobre a qualidade de vida, como esperança de vida, alfabetização, saneamento e acesso a serviços básicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Gini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentração, 0 a 1, Coeficiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida de concentração de renda derivada da Curva de Lorenz, variando de 0 (igualdade perfeita) a 1 (desigualdade/concentração máxima).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha de pobreza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda mínima, Carência, Cesta de consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor monetário ou de consumo definido como limite mínimo para suprir necessidades básicas; quem está abaixo dele é considerado pobre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivos de Desenvolvimento Sustentável (ODS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONU, Agenda 2030, Metas globais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coleção de 17 metas globais estabelecidas pela ONU (Agenda 2030) abrangendo dimensões sociais, econômicas e ambientais do desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobreza multidimensional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privações, Saúde, Educação, Padrões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito que avalia a pobreza considerando diversas privações simultâneas (moradia, saúde, educação), não apenas a falta de renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIB per capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda média, População, Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado da divisão do PIB pela população total; indica a renda média e o acesso potencial a bens, sendo uma primeira aproximação do desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNB per capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Nacional, IDH, Habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida de renda média nacional por habitante; no contexto do IDH, o texto refere-se à Renda Nacional Bruta per capita ajustada pelo poder de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto per capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção, Habitantes, Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito geral que define a produção do país dividida pelo número de habitantes, utilizado para comparar o grau de desenvolvimento entre nações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria do Bolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescer, Distribuir, Milagre Econômico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tese associada ao "Milagre Econômico" (anos 70) que defendia primeiro crescer a economia ("o bolo") para só depois distribuir a renda.</t>
   </si>
 </sst>
 </file>
@@ -3754,7 +4571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3820,18 +4637,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3882,7 +4687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3920,26 +4725,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4156,10 +4941,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G488"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B398" activeCellId="0" sqref="B398"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C504" activeCellId="0" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7943,7 +8728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>503</v>
       </c>
@@ -7963,7 +8748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>503</v>
       </c>
@@ -8194,7 +8979,7 @@
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" customFormat="false" ht="97" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>503</v>
       </c>
@@ -8627,26 +9412,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="151.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="149.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C240" s="6" t="s">
         <v>681</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E240" s="12" t="s">
+      <c r="E240" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-    </row>
-    <row r="241" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>503</v>
       </c>
@@ -8670,20 +9455,20 @@
       <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="6" t="s">
         <v>687</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E242" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="F242" s="13"/>
-      <c r="G242" s="13"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
@@ -8709,20 +9494,20 @@
       <c r="A244" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C244" s="6" t="s">
         <v>693</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="E244" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="F244" s="13"/>
-      <c r="G244" s="13"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
@@ -8784,7 +9569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>503</v>
       </c>
@@ -8804,11 +9589,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="8" t="s">
         <v>708</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -8817,18 +9602,18 @@
       <c r="D249" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E249" s="15" t="s">
+      <c r="E249" s="10" t="s">
         <v>709</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="8" t="s">
         <v>710</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -8865,109 +9650,109 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B252" s="11" t="s">
+      <c r="A252" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="6" t="s">
         <v>716</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E252" s="11" t="s">
+      <c r="E252" s="6" t="s">
         <v>717</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G252" s="13"/>
+      <c r="G252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B253" s="11" t="s">
+      <c r="A253" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C253" s="6" t="s">
         <v>719</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E253" s="6" t="s">
         <v>720</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G253" s="13"/>
+      <c r="G253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B254" s="11" t="s">
+      <c r="A254" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C254" s="6" t="s">
         <v>722</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E254" s="11" t="s">
+      <c r="E254" s="6" t="s">
         <v>723</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G254" s="13"/>
+      <c r="G254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B255" s="11" t="s">
+      <c r="A255" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="6" t="s">
         <v>725</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E255" s="6" t="s">
         <v>726</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G255" s="13"/>
-    </row>
-    <row r="256" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B256" s="11" t="s">
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C256" s="6" t="s">
         <v>728</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E256" s="12" t="s">
+      <c r="E256" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
-    </row>
-    <row r="257" customFormat="false" ht="72.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>503</v>
       </c>
@@ -8987,7 +9772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="73.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>503</v>
       </c>
@@ -9007,7 +9792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>503</v>
       </c>
@@ -9027,7 +9812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>503</v>
       </c>
@@ -9047,7 +9832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
@@ -9067,7 +9852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>503</v>
       </c>
@@ -9087,7 +9872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>503</v>
       </c>
@@ -9107,7 +9892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>503</v>
       </c>
@@ -9127,7 +9912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>503</v>
       </c>
@@ -9147,7 +9932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>503</v>
       </c>
@@ -9167,7 +9952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>503</v>
       </c>
@@ -9187,7 +9972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>503</v>
       </c>
@@ -9207,7 +9992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>503</v>
       </c>
@@ -9227,7 +10012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>503</v>
       </c>
@@ -9247,7 +10032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>503</v>
       </c>
@@ -9267,7 +10052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
@@ -9287,7 +10072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>503</v>
       </c>
@@ -9307,7 +10092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>503</v>
       </c>
@@ -9327,7 +10112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>503</v>
       </c>
@@ -9347,7 +10132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>503</v>
       </c>
@@ -9367,7 +10152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>503</v>
       </c>
@@ -9387,7 +10172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>503</v>
       </c>
@@ -9407,7 +10192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>503</v>
       </c>
@@ -9427,7 +10212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>503</v>
       </c>
@@ -9447,7 +10232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>503</v>
       </c>
@@ -9467,7 +10252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>503</v>
       </c>
@@ -9487,7 +10272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>503</v>
       </c>
@@ -9507,7 +10292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>503</v>
       </c>
@@ -9527,7 +10312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>503</v>
       </c>
@@ -9547,7 +10332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>503</v>
       </c>
@@ -9567,7 +10352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>503</v>
       </c>
@@ -9587,7 +10372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>503</v>
       </c>
@@ -9607,7 +10392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>503</v>
       </c>
@@ -9627,7 +10412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>503</v>
       </c>
@@ -9647,7 +10432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>503</v>
       </c>
@@ -9667,7 +10452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>503</v>
       </c>
@@ -9687,7 +10472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>503</v>
       </c>
@@ -9707,7 +10492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>503</v>
       </c>
@@ -9727,7 +10512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>503</v>
       </c>
@@ -9747,7 +10532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>503</v>
       </c>
@@ -9767,7 +10552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>503</v>
       </c>
@@ -9787,7 +10572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>503</v>
       </c>
@@ -9807,7 +10592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>503</v>
       </c>
@@ -9827,7 +10612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>503</v>
       </c>
@@ -9847,7 +10632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>503</v>
       </c>
@@ -9867,7 +10652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>503</v>
       </c>
@@ -9887,7 +10672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>503</v>
       </c>
@@ -9907,7 +10692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>503</v>
       </c>
@@ -9927,7 +10712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>503</v>
       </c>
@@ -9947,7 +10732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>503</v>
       </c>
@@ -9967,7 +10752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>503</v>
       </c>
@@ -9987,7 +10772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>503</v>
       </c>
@@ -10007,7 +10792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>503</v>
       </c>
@@ -10027,7 +10812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>503</v>
       </c>
@@ -10047,7 +10832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>503</v>
       </c>
@@ -10067,7 +10852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>503</v>
       </c>
@@ -10087,7 +10872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>503</v>
       </c>
@@ -10107,7 +10892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>503</v>
       </c>
@@ -10127,7 +10912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>503</v>
       </c>
@@ -10147,7 +10932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>503</v>
       </c>
@@ -10167,7 +10952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>503</v>
       </c>
@@ -10187,7 +10972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>503</v>
       </c>
@@ -10207,7 +10992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>503</v>
       </c>
@@ -10227,7 +11012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>503</v>
       </c>
@@ -10247,7 +11032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>503</v>
       </c>
@@ -10267,7 +11052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>503</v>
       </c>
@@ -10287,7 +11072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>503</v>
       </c>
@@ -10307,7 +11092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>503</v>
       </c>
@@ -10327,7 +11112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>503</v>
       </c>
@@ -10347,7 +11132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>503</v>
       </c>
@@ -10367,7 +11152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>503</v>
       </c>
@@ -10387,7 +11172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>503</v>
       </c>
@@ -10407,7 +11192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>503</v>
       </c>
@@ -10427,7 +11212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>503</v>
       </c>
@@ -10447,7 +11232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>503</v>
       </c>
@@ -10467,7 +11252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>503</v>
       </c>
@@ -10487,7 +11272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>503</v>
       </c>
@@ -10507,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>503</v>
       </c>
@@ -10527,7 +11312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>503</v>
       </c>
@@ -10547,7 +11332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>503</v>
       </c>
@@ -10567,7 +11352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>503</v>
       </c>
@@ -10587,7 +11372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -10607,7 +11392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>503</v>
       </c>
@@ -10627,7 +11412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>503</v>
       </c>
@@ -10647,7 +11432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>503</v>
       </c>
@@ -10667,7 +11452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>503</v>
       </c>
@@ -10687,7 +11472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>503</v>
       </c>
@@ -10707,7 +11492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>503</v>
       </c>
@@ -10727,7 +11512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>503</v>
       </c>
@@ -10747,7 +11532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>503</v>
       </c>
@@ -10767,7 +11552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>503</v>
       </c>
@@ -10787,7 +11572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>503</v>
       </c>
@@ -10807,7 +11592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>503</v>
       </c>
@@ -10827,7 +11612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>503</v>
       </c>
@@ -10847,7 +11632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>503</v>
       </c>
@@ -10867,7 +11652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>503</v>
       </c>
@@ -10887,7 +11672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>503</v>
       </c>
@@ -10907,7 +11692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>503</v>
       </c>
@@ -10927,7 +11712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>503</v>
       </c>
@@ -10947,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>503</v>
       </c>
@@ -10967,7 +11752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>503</v>
       </c>
@@ -10987,7 +11772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>503</v>
       </c>
@@ -11007,7 +11792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>503</v>
       </c>
@@ -11027,7 +11812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>503</v>
       </c>
@@ -11047,7 +11832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>503</v>
       </c>
@@ -11067,7 +11852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>503</v>
       </c>
@@ -11087,7 +11872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>503</v>
       </c>
@@ -11107,7 +11892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>503</v>
       </c>
@@ -11127,7 +11912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>503</v>
       </c>
@@ -11147,7 +11932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>503</v>
       </c>
@@ -11167,7 +11952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>503</v>
       </c>
@@ -11187,7 +11972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>503</v>
       </c>
@@ -11207,7 +11992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>503</v>
       </c>
@@ -11227,7 +12012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11247,7 +12032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11267,7 +12052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11287,7 +12072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11307,7 +12092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11327,7 +12112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11347,7 +12132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11367,7 +12152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11387,7 +12172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11407,7 +12192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11427,7 +12212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11447,7 +12232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11467,7 +12252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11487,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11507,7 +12292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11527,7 +12312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11547,7 +12332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11567,7 +12352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11587,7 +12372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11607,7 +12392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11627,7 +12412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11647,7 +12432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11667,7 +12452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11687,7 +12472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11707,7 +12492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11727,7 +12512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11747,7 +12532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11764,6 +12549,1897 @@
         <v>1152</v>
       </c>
       <c r="F396" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G420" s="0"/>
+    </row>
+    <row r="421" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G423" s="0"/>
+    </row>
+    <row r="424" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G425" s="0"/>
+    </row>
+    <row r="426" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F426" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F427" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F428" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F429" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G429" s="0"/>
+    </row>
+    <row r="430" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F430" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G430" s="0"/>
+    </row>
+    <row r="431" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F431" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G431" s="0"/>
+    </row>
+    <row r="432" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F432" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F433" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G433" s="0"/>
+    </row>
+    <row r="434" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F434" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G434" s="0"/>
+    </row>
+    <row r="435" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F435" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G435" s="0"/>
+    </row>
+    <row r="436" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F436" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G436" s="0"/>
+    </row>
+    <row r="437" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F437" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" s="0"/>
+    </row>
+    <row r="438" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F438" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G438" s="0"/>
+    </row>
+    <row r="439" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F439" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G439" s="0"/>
+    </row>
+    <row r="440" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F440" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G440" s="0"/>
+    </row>
+    <row r="441" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F441" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G441" s="0"/>
+    </row>
+    <row r="442" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F442" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" s="0"/>
+    </row>
+    <row r="443" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F443" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G443" s="0"/>
+    </row>
+    <row r="444" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F444" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G444" s="0"/>
+    </row>
+    <row r="445" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F445" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G445" s="0"/>
+    </row>
+    <row r="446" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F446" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G446" s="0"/>
+    </row>
+    <row r="447" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F447" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G447" s="0"/>
+    </row>
+    <row r="448" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F448" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G448" s="0"/>
+    </row>
+    <row r="449" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F449" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G449" s="0"/>
+    </row>
+    <row r="450" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E450" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F450" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G450" s="0"/>
+    </row>
+    <row r="451" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E451" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F451" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G451" s="0"/>
+    </row>
+    <row r="452" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F452" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G452" s="0"/>
+    </row>
+    <row r="453" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F453" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G453" s="0"/>
+    </row>
+    <row r="454" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F454" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G454" s="0"/>
+    </row>
+    <row r="455" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F455" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G455" s="0"/>
+    </row>
+    <row r="456" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F456" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G456" s="0"/>
+    </row>
+    <row r="457" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F457" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G457" s="0"/>
+    </row>
+    <row r="458" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F458" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G458" s="0"/>
+    </row>
+    <row r="459" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F459" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G459" s="0"/>
+    </row>
+    <row r="460" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F460" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G460" s="0"/>
+    </row>
+    <row r="461" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F461" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G461" s="0"/>
+    </row>
+    <row r="462" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F462" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G462" s="0"/>
+    </row>
+    <row r="463" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F463" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G463" s="0"/>
+    </row>
+    <row r="464" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F464" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G464" s="0"/>
+    </row>
+    <row r="465" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F465" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G465" s="0"/>
+    </row>
+    <row r="466" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F466" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G466" s="0"/>
+    </row>
+    <row r="467" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F467" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G467" s="0"/>
+    </row>
+    <row r="468" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F468" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G468" s="0"/>
+    </row>
+    <row r="469" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F469" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G469" s="0"/>
+    </row>
+    <row r="470" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F470" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G470" s="0"/>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F471" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F472" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F473" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F474" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F475" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F476" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F477" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F478" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F479" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E480" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F480" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F481" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E482" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F482" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E483" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F483" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E484" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F484" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F485" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F486" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F488" s="0" t="s">
         <v>12</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$396</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$663</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="1957">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -3270,7 +3270,7 @@
     <t xml:space="preserve">Politeia, Constitutio, Distribuição de funções, Poder político</t>
   </si>
   <si>
-    <t xml:space="preserve">Cap. 10 – O Estado Constitucional</t>
+    <t xml:space="preserve">Cap.  10 – O Estado Constitucional</t>
   </si>
   <si>
     <t xml:space="preserve">Estudo essencial para o entendimento do Estado de direito, que representa um paradigma de distribuição de funções e normatização de competências no exercício do poder político, desde a antiguidade.</t>
@@ -3723,7 +3723,7 @@
     <t xml:space="preserve">Natalidade, Mortalidade, Migração</t>
   </si>
   <si>
-    <t xml:space="preserve">Determinado pela soma algébrica das taxas de natalidade, mortalidade e migração; no Brasil, houve queda no ritmo, convergindo para padrões de países desenvolvidos,.</t>
+    <t xml:space="preserve">Determinado pela soma algébrica das taxas de natalidade, mortalidade e migração; no Brasil, houve queda no ritmo, convergindo para padrões de países desenvolvidos.</t>
   </si>
   <si>
     <t xml:space="preserve">Crescimento populacional</t>
@@ -3846,7 +3846,7 @@
     <t xml:space="preserve">Emprego, Mercado de trabalho, Vagas</t>
   </si>
   <si>
-    <t xml:space="preserve">Contextualizada pela pressão populacional sobre o mercado de trabalho; o texto estima a necessidade de geração de 900.000 novos empregos anuais para manter o nível de emprego,.</t>
+    <t xml:space="preserve">Contextualizada pela pressão populacional sobre o mercado de trabalho; o texto estima a necessidade de geração de 900.000 novos empregos anuais para manter o nível de emprego.</t>
   </si>
   <si>
     <t xml:space="preserve">Taxa de fecundidade</t>
@@ -3918,35 +3918,7 @@
     <t xml:space="preserve">Consumo, Investimento, Demanda interna</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Cap. 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Contabilidade Nacional: Agregados Macroeconômicos</t>
-    </r>
+    <t xml:space="preserve">Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
   </si>
   <si>
     <t xml:space="preserve">Corresponde à soma do consumo (público e privado) e do investimento, diferindo do produto por não incluir o saldo comercial (exportações e importações).</t>
@@ -3958,7 +3930,7 @@
     <t xml:space="preserve">Investimento, Máquinas, Produção futura</t>
   </si>
   <si>
-    <t xml:space="preserve">Bens de produção (máquinas, edifícios) adquiridos para aumentar a oferta futura; sofrem desgaste (depreciação) ao longo do tempo,.</t>
+    <t xml:space="preserve">Bens de produção (máquinas, edifícios) adquiridos para aumentar a oferta futura; sofrem desgaste (depreciação) ao longo do tempo.</t>
   </si>
   <si>
     <t xml:space="preserve">Bens finais</t>
@@ -3967,7 +3939,7 @@
     <t xml:space="preserve">Necessidades humanas, Dupla contagem</t>
   </si>
   <si>
-    <t xml:space="preserve">Bens destinados diretamente à satisfação das necessidades humanas, contabilizados no produto para evitar a dupla contagem dos bens intermediários,.</t>
+    <t xml:space="preserve">Bens destinados diretamente à satisfação das necessidades humanas, contabilizados no produto para evitar a dupla contagem dos bens intermediários.</t>
   </si>
   <si>
     <t xml:space="preserve">Bens intermediários</t>
@@ -3976,7 +3948,7 @@
     <t xml:space="preserve">Insumos, Matéria-prima, Produção</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercadorias utilizadas na produção de outros bens (ex: aço no automóvel); não são somadas ao PIB para evitar o erro de dupla contagem,.</t>
+    <t xml:space="preserve">Mercadorias utilizadas na produção de outros bens (ex: aço no automóvel); não são somadas ao PIB para evitar o erro de dupla contagem.</t>
   </si>
   <si>
     <t xml:space="preserve">Bens públicos</t>
@@ -4012,7 +3984,7 @@
     <t xml:space="preserve">Aumento do produto, Produção</t>
   </si>
   <si>
-    <t xml:space="preserve">Definido como o aumento do produto (produção de bens e serviços) de um país em determinado período,.</t>
+    <t xml:space="preserve">Definido como o aumento do produto (produção de bens e serviços) de um país em determinado período.</t>
   </si>
   <si>
     <t xml:space="preserve">Déficit público</t>
@@ -4057,7 +4029,7 @@
     <t xml:space="preserve">Vendas externas, Não residentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcela do produto gerado internamente que é vendida para agentes do resto do mundo,.</t>
+    <t xml:space="preserve">Parcela do produto gerado internamente que é vendida para agentes do resto do mundo.</t>
   </si>
   <si>
     <t xml:space="preserve">Fatores de produção</t>
@@ -4066,7 +4038,7 @@
     <t xml:space="preserve">Recursos, Terra, Capital, Trabalho</t>
   </si>
   <si>
-    <t xml:space="preserve">Recursos utilizados na produção de bens e serviços, geralmente divididos em terra, capital e trabalho,.</t>
+    <t xml:space="preserve">Recursos utilizados na produção de bens e serviços, geralmente divididos em terra, capital e trabalho.</t>
   </si>
   <si>
     <t xml:space="preserve">Fluxo circular da renda</t>
@@ -4075,7 +4047,7 @@
     <t xml:space="preserve">Famílias, Empresas, Mercados</t>
   </si>
   <si>
-    <t xml:space="preserve">Representação esquemática das transações entre agentes (famílias, empresas, governo), mostrando a equivalência entre produto, renda e despesa,.</t>
+    <t xml:space="preserve">Representação esquemática das transações entre agentes (famílias, empresas, governo), mostrando a equivalência entre produto, renda e despesa.</t>
   </si>
   <si>
     <t xml:space="preserve">Gastos públicos</t>
@@ -4093,7 +4065,7 @@
     <t xml:space="preserve">Compras externas, Oferta interna</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcela dos bens consumidos e investidos no país que foi produzida no exterior e adquirida de não residentes,.</t>
+    <t xml:space="preserve">Parcela dos bens consumidos e investidos no país que foi produzida no exterior e adquirida de não residentes.</t>
   </si>
   <si>
     <t xml:space="preserve">Impostos diretos</t>
@@ -4562,6 +4534,1584 @@
   </si>
   <si>
     <t xml:space="preserve">Tese associada ao "Milagre Econômico" (anos 70) que defendia primeiro crescer a economia ("o bolo") para só depois distribuir a renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceleração Inflacionária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços crescentes, Ritmo maior, Instabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 5 - Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação em que a taxa de inflação não é constante, mas aumenta progressivamente (ex: 10% num ano, 15% no seguinte), indicando que os preços sobem cada vez mais rápido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choques de Oferta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custos, Estrangulamento, Preços primários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevação abrupta de preços decorrente de pontos de estrangulamento (ex: insuficiência agrícola), elevando custos que são repassados aos produtos finais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrente Fiscalista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação de demanda, Déficit público, Política fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha de pensamento que diagnostica a inflação como de demanda e prioriza políticas fiscais (eliminação do déficit público) para combatê-la.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrente Monetarista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação de demanda, Emissão monetária, Política monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha de pensamento que diagnostica a inflação como de demanda e enfatiza o controle da política monetária e da emissão de moeda para combatê-la.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queda de preços, Variação negativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenômeno oposto à inflação, caracterizado pela baixa generalizada e contínua do nível geral de preços (variação negativa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiperinflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda, Colapso, Perda de valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação extremamente elevada que leva à perda acelerada do poder aquisitivo, fazendo com que agentes abandonem a moeda local e usem divisas estrangeiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços, Poder aquisitivo, Generalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento generalizado e contínuo no nível geral de preços, resultando na perda de poder aquisitivo da unidade monetária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação de Custos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta, Salários, Matéria-prima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Também chamada de inflação de oferta, decorre do aumento dos custos das empresas (insumos, salários, juros) que são repassados aos preços finais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação de Demanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excesso de procura, Pleno emprego, Consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocorre quando há excesso de demanda agregada em relação à produção disponível (oferta), pressionando os preços, geralmente próximo ao pleno emprego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação Inercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memória inflacionária, Patamar constante, Indexação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação que tende a se manter num patamar elevado e estável devido à indexação, onde preços atuais são reajustados automaticamente pela inflação passada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos de Indexação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reajuste, Contratos, Inflação passada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentos formais (contratos) ou informais que atrelam os preços do presente à inflação passada, dificultando a queda da inflação e gerando inércia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos de propagação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repasse, Estrutura de mercado, Perpetuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumentos (como oligopólios e protecionismo) que permitem que choques de oferta sejam repassados aos preços, transformando-os em processo inflacionário contínuo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontos de Estrangulamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigidez de oferta, Curto prazo, Estruturalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação onde a oferta de um bem não pode ser ampliada a curto prazo para atender a demanda, gerando aumentos de custos setoriais (choques).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens de consumo duráveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longo prazo, Automóveis, Financiamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 6 - Consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens cujo consumo se dá por um período longo (ex: geladeira, automóvel), geralmente exigindo financiamento devido ao alto valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens de consumo leves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo imediato, Alimentos, Vestuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens que são consumidos rapidamente ou imediatamente, como alimentos e vestuário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo, Serviços, Impostos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto do capítulo, refere-se aos bens e serviços adquiridos ou providos pelo governo, pagos através da arrecadação de impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispêndio total, Demanda, Famílias e Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispêndio total de recursos na aquisição de bens e serviços; é o maior componente da demanda agregada em todos os países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo do governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado, Serviços públicos, Impostos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela do consumo agregado referente aos bens e serviços adquiridos pelo governo, financiados em boa parte pelos impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famílias, Indivíduos, Aquisições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde às aquisições de bens e serviços realizadas pelos indivíduos ou pelas famílias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda agregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumo, Investimento, Atividade econômica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A demanda total da economia, da qual o consumo é o principal componente; afetada por variáveis como riqueza e taxas de juros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efeito carona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência, Repartição simples, Desestímulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenômeno onde sistemas de previdência pública (repartição) desestimulam a poupança privada, pois o indivíduo tem benefício garantido independente da contribuição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efeito riqueza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativos, Ações, Confiança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração no consumo decorrente de mudanças no valor dos ativos (riqueza) dos agentes, como valorização de ações ou imóveis, independentemente da renda corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efeito substituição da taxa de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo de oportunidade, Poupança, Consumo presente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da taxa de juros encarece o consumo presente em relação ao futuro, estimulando a poupança e reduzindo o consumo atual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escolha intertemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo, Decisão, Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisão de consumo que considera não apenas o período atual, mas a maximização do consumo ao longo de toda a vida, influenciada por juros e expectativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipótese da renda permanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedman, Longo prazo, Renda transitória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria de Milton Friedman segundo a qual o consumo depende da renda esperada de longo prazo (permanente) e não das variações transitórias da renda corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipótese do ciclo de vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ando-Modigliani, Idade, Aposentadoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo que postula que indivíduos poupam quando jovens (trabalhadores) para manter o consumo na velhice (despoupança), alisando o consumo durante a vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei psicológica fundamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynes, Renda, Aumento não proporcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio de Keynes afirmando que, à medida que a renda aumenta, o consumo também aumenta, porém em magnitude menor, gerando poupança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança agregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda não consumida, Futuro, Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela da renda disponível que não é consumida no período corrente, representando uma opção por maior consumo futuro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança precaucionária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incerteza, Renda futura, Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança motivada pela incerteza quanto à renda futura (ex: medo do desemprego); quanto maior a incerteza, menor o consumo corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propensão marginal a consumir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acréscimo, Renda, Variação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela de um aumento (unidade adicional) de renda que é destinada ao consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propensão marginal a poupar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acréscimo, Renda, Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela de um aumento (unidade adicional) de renda que é destinada à poupança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propensão média a consumir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participação, Renda total, Decrescente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre o consumo total e a renda total; segundo Keynes, tende a ser menor para indivíduos de renda mais alta (decrescente).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repressão financeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restrições, Inflação, Falta de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação de sistema financeiro pouco desenvolvido ou restrito, onde a inflação ou falta de instrumentos impede a transferência eficiente de renda no tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riqueza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativos reais, Ativos financeiros, Capital humano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoque de valor (imóveis, aplicações, qualificação) que dá garantias futuras e permite maior consumo corrente para um mesmo nível de renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas previdenciários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguridade, Repartição, Capitalização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos de proteção da renda (velhice/invalidez) que funcionam como transferência de recursos da população ativa para a inativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de dependência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demografia, Ativos/Inativos, Custo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre a população inativa (idosos/jovens) e a ativa; o envelhecimento populacional aumenta essa taxa e o custo do sistema previdenciário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxas de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo do dinheiro, Tempo, Prêmio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço do consumo atual em termos de consumo futuro (custo de oportunidade); reflete o prêmio exigido pelo indivíduo para adiar o consumo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eficiência marginal do capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de desconto, Keynes, Retorno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 7 - Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de desconto que iguala o preço de demanda ao preço de oferta do investimento; o investimento ocorre enquanto essa taxa for superior à taxa de juros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formação Bruta de Capital Fixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBKF, PIB, Indicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador que mensura o nível de investimento em capital fixo (máquinas, construção) na economia; no Brasil, apresenta volatilidade ligada à incerteza econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade produtiva, Bens de capital, Futuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquisição de bens de capital para ampliar a capacidade produtiva futura, conectando o curto prazo (demanda) ao longo prazo (oferta); difere de aplicação financeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado monetário x mercado de capitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prazos, Financiamento, Ações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segmentação do mercado financeiro por prazos: o monetário realiza operações de curto prazo, enquanto o de capitais foca no longo prazo (ações, debêntures).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado primário x mercado secundário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissão, Liquidez, Bolsa de Valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No primário, emitem-se títulos novos gerando recursos para a empresa; no secundário (Bolsa), apenas transfere-se a propriedade, conferindo liquidez aos títulos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço de demanda do investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor presente, Receita esperada, P(dI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde ao valor presente do fluxo de receitas futuras esperadas de um investimento, descontado pela taxa de juros vigente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço de oferta do investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo, Aquisição, P(oI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor monetário atual necessário para a aquisição ou produção de um novo bem de capital (ex: custo de uma máquina).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q de Tobin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de mercado, Custo de reposição, Bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre o valor de mercado de uma empresa e o custo de criar uma nova (reposição); se q &gt; 1, estimula-se o investimento e a formação de novas empresas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno esperado do investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita futura, Custos, Decisão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal fator da decisão de investir, dependente da comparação entre o fluxo de receitas futuras esperadas (vendas/preços) e os gastos de execução.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor presente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparação intertemporal, Taxa de desconto, Juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnica que expressa valores futuros em termos do período corrente utilizando uma taxa de desconto (juros), permitindo comparar receitas e custos em datas diferentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não rival, Não excludente, Consumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 8 - Política Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens cujo consumo é não excludente e não rival (ex: segurança nacional), que o mercado não revela disposição a pagar, devendo ser ofertados pelo Estado e financiados por impostos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga tributária bruta e líquida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrecadação, Transferências, Receita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bruta é o total de impostos arrecadados; a líquida desconta as transferências (juros, subsídios, previdência) da bruta e financia os gastos correntes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déficit primário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFSP, Juros, Esforço fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito que engloba apenas receitas e despesas não financeiras (G - T), excluindo os gastos com juros da dívida, isolando o esforço fiscal do governo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimento público, Poupança pública, Financiamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre o investimento público e a poupança do governo em conta-corrente; quando positivo, indica que o gasto total supera a arrecadação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas correntes x transferências do governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessoal, Custeio, Contrapartida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas correntes incluem pessoal e custeio de serviços; transferências são pagamentos sem contrapartida (ex: previdência, juros) que ampliam a renda disponível.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economias de escala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo médio, Monopólios naturais, Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação em que o aumento da produção reduz o custo médio, podendo levar a monopólios naturais que exigem regulação estatal (função alocativa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externalidades (economias externas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falhas de mercado, Impacto, Poluição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impactos da ação de um agente sobre outros não transacionados pelo mercado (positivas ou negativas), exigindo intervenção do governo para internalizá-los.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função alocativa, distributiva e estabilizadora do governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falhas de mercado, Renda, Emprego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividem-se em alocativa (correção de falhas de mercado), distributiva (redistribuição de renda/regiões) e estabilizadora (emprego, crescimento e preços),.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos diretos x impostos indiretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda, Preços, Ônus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diretos incidem sobre renda/propriedade (ônus no contribuinte); indiretos incidem sobre transações/preços, transferindo o ônus ao consumidor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos específicos x impostos ad valorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor fixo, Alíquota, Valor adicionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Específicos têm valor monetário fixo e são pró-cíclicos; ad valorem (valor adicionado) têm alíquota sobre a base, aumentando a arrecadação na expansão econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos progressivos, regressivos e neutros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição, Renda, Proporção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressivo: paga mais (relativo) quem ganha mais; Regressivo: paga mais quem ganha menos (comum em impostos indiretos); Neutro: mesma proporção independente da renda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessidade de Financiamento do Setor Público não financeiro (NFSP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressão financeira, Poupança, Setor público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida abrangente que avalia a pressão do setor público não financeiro sobre os recursos financeiros (poupança interna e externa) da economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFSP conceito nominal x NFSP conceito operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juros nominais, Juros reais, Correção monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal inclui despesas com juros nominais; Operacional (usado em alta inflação) excluía correções monetária/cambial, considerando apenas juros reais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política econômica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção, Emprego, Estabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção do governo na economia (via política fiscal e monetária) visando manter elevados níveis de emprego, crescimento e estabilidade de preços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos, Gastos públicos, Demanda agregada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação do governo na arrecadação de impostos (afeta renda disponível) e execução de gastos para influenciar a demanda agregada e o produto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política fiscal contracionista e expansionista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superávit, Déficit, Atividade econômica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansionista ocorre com déficit público (aumenta demanda/produto); contracionista ocorre com superávit (restringe demanda).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança do governo em conta-corrente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga líquida, Consumo do governo, Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre a carga tributária líquida e o consumo do governo; indica a capacidade de investimento sem pressionar outras fontes de financiamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabilizadores automáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impostos ad valorem, Ciclo econômico, Arrecadação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos (como impostos ad valorem) em que a arrecadação varia automaticamente com a base tributável, aumentando na expansão e diminuindo na recessão, sem necessidade de mudança na alíquota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execução orçamentária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos públicos, Demanda agregada, Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refere-se à atuação do governo na realização efetiva dos gastos públicos que, juntamente com a arrecadação, afeta o nível de demanda agregada da economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política fiscal compensatória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contracíclica, Conjuntura, Maleabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação do governo (via sistema tributário ou gastos) de forma contracíclica, adaptando-se à conjuntura para não acentuar recessões ou crescimentos desajustados (booms).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas keynesianas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção, Emprego, Crescimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abordagem em que o governo intervém na economia (via política fiscal e monetária) com o objetivo de manter níveis elevados de emprego e crescimento econômico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsídio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferências, Carga tributária líquida, Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de transferência governamental ou gasto (como em crédito ou produção) que reduz a carga tributária líquida e não possui contrapartida direta de serviço.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregados monetários: BM, M1, M2, M3, M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidez, Ativos, Classificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 9 - Política Monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas de quantidade de moeda classificadas pelo grau de liquidez; M1 (mais líquido) até M4 (inclui poupança financeira e títulos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base monetária (BM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Powered Money, Reservas, Papel-moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda injetada inicialmente pelo Bacen, correspondendo à soma do papel-moeda em poder do público e das reservas bancárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correção monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação, Valor nominal, Reajuste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo de reajuste dos valores nominais por um índice de preços para compensar a perda de valor da moeda decorrente da inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda por moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda, Juros, Retenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desejo dos agentes de reter moeda; depende diretamente da renda (motivos transação/precaução) e inversamente da taxa de juros (motivo especulação).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda por moeda por motivos: Transação, precaução e portfólio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos, Incerteza, Especulação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transação: para pagamentos cotidianos; Precaução: segurança contra incertezas; Portfólio (Especulação): aguardar melhor momento para investir em títulos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominador comum de valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de conta, Preços, Referência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função da moeda (unidade de conta) que fornece uma referência padrão para cotar e comparar os valores das demais mercadorias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósitos à vista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conta-corrente, Bancos, Liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos mantidos em conta-corrente nos bancos que podem ser sacados a qualquer momento para liquidar transações; compõem o M1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desmonetização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação, M1, Perda de valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução do agregado M1 em comparação aos demais agregados (M4), ocorrendo geralmente quando a inflação acelera e a moeda perde valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empréstimos de assistência à liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesconto, Bacen, Insuficiência de caixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empréstimos do Bacen às instituições financeiras para cobrir insuficiência de caixa; a taxa cobrada é a taxa de redesconto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equação de trocas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria quantitativa, Velocidade, MV=PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação matemática (V = PY/M) que fundamenta a teoria quantitativa, relacionando moeda, velocidade de circulação, preços e produto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funções do Banco Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissor, Banco dos bancos, Reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluem: emissão de moeda, ser o "banco dos bancos", banco do Tesouro Nacional e depositário das reservas internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteção, Contratos, Inflação passada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos de proteção dos valores monetários (contratos) contra perdas inflacionárias, atrelando valores presentes à inflação passada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantia, Conversibilidade, Reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativo ou mercadoria (como ouro ou dólares) que respalda o valor da moeda e no qual a moeda-papel pode ser convertida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastro-ouro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversão, Metal, Garantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema em que as notas de papel representam e podem ser convertidas em uma determinada quantidade de ouro física.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversibilidade, Meio de troca, Rapidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade e facilidade de um ativo se converter rapidamente em poder de compra (meio de troca) sem perda de valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meio de troca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediário, Transação, Compra e venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal função da moeda, atuando como intermediário que separa os atos de compra e venda, eliminando a necessidade de dupla coincidência de desejos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meios de pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1, Liquidez absoluta, Transações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de ativos com liquidez absoluta (papel-moeda em poder do público + depósitos à vista) usados para liquidar transações (M1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativo, Liquidez absoluta, Funções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativo geralmente aceito para liquidar transações e quitar obrigações; possui liquidez absoluta e serve como meio de troca, unidade de conta e reserva de valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda fiduciária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem lastro, Confiança, Imposição legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Também chamada de papel-moeda, é a moeda emitida pelo governo sem lastro metálico, cuja aceitação decorre de imposição legal e credibilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda-mercadoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escambo, Bem físico, Valor intrínseco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de moeda onde uma mercadoria específica (boi, sal, metal) é usada como meio de troca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda metálica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouro, Prata, Metais preciosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de moeda-mercadoria constituída por metais preciosos ou semipreciosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda-papel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificado, Lastro, Representação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota de papel que expressa determinado valor e possui lastro integral em uma mercadoria (ex: ouro).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monetização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabilidade, M1, Aumento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento da participação de M1 em relação aos agregados financeiros (M4), ocorrendo geralmente quando a inflação diminui e a moeda recupera funções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral hazard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risco moral, Juros altos, Inadimplência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação onde taxas de juros altas induzem tomadores a escolherem projetos mais arriscados, aumentando a probabilidade de inadimplência (risco moral).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplicador bancário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de moeda, Reservas, Depósitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo pelo qual os bancos criam moeda ao emprestar parte dos depósitos captados; varia inversamente à taxa de reservas compulsórias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplicador monetário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base monetária, M1, Expansão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação (k) entre os meios de pagamento (M1) e a base monetária (B), indicando quanto a moeda se expande no sistema bancário (M1 = k x B).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta de moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade, Bacen, Bancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de moeda disponível na economia, determinada pela emissão do Bacen e pela criação de moeda (multiplicação) pelos bancos comerciais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operações ativas e passivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediários, Aplicações, Captação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativas: aplicações dos recursos (empréstimos, títulos); Passivas: captação de recursos (depósitos à vista, a prazo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operações de mercado aberto (open market)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Títulos públicos, Compra e venda, Liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra e venda de títulos públicos pelo Bacen para regular a liquidez; compra expande a oferta de moeda, venda contrai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papel-moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem lastro, Fiduciária, Governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda emitida pelo governo sem lastro em mercadoria, aceita por lei; explicita que o valor vem do poder de compra e não do material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papel-moeda em poder do público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulação, Fora dos bancos, M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela da moeda emitida que está em posse dos agentes econômicos (fora do caixa dos bancos); componente do M1 e da Base Monetária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perpetuidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título, Renda fixa, Infinita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Título hipotético que paga um rendimento fixo eternamente; usado para ilustrar a relação inversa entre o preço do título e a taxa de juros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco Central, Liquidez, Taxa de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação do Banco Central em definir as condições de liquidez da economia (oferta de moeda e juros) para influenciar indiretamente o produto e a demanda agregada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política monetária ativa x política monetária passiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle, Oferta de moeda, Endógena/Exógena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ativa, o Bacen controla a oferta de moeda (exógena) e os juros oscilam; na passiva, o Bacen define os juros e ajusta a oferta (endógena) para mantê-los.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço de uma mercadoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de troca, Unidade de conta, Expressão monetária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorrente da função da moeda como unidade de conta, é a expressão monetária do valor de troca de um bem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferência pela liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynes, Demanda por moeda, Taxa de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio onde a taxa de juros é determinada pelo equilíbrio entre oferta e demanda por moeda, sendo o prêmio exigido pela renúncia à liquidez absoluta da moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quase-moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidez elevada, M2, M3, M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativos que possuem elevada liquidez (embora não absoluta) e rendem juros, incorporados nos agregados monetários ampliados (M2, M3, M4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empréstimo de liquidez, Bacen, Bancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação de empréstimo de assistência à liquidez concedida pelo Bacen aos bancos comerciais para cobrir insuficiências de caixa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regra de Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metas de inflação, Taxa de juros, Reação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo de reação do Bacen que define a taxa de juros com base nos desvios da inflação observada em relação à meta estabelecida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder de compra, Riqueza, Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função da moeda de manter o poder de compra ao longo do tempo, permitindo medir a riqueza e separar os atos de compra e venda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservas compulsórias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacen, Obrigação, Multiplicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela dos depósitos que os bancos são obrigados legalmente a recolher ao Bacen; instrumento que afeta inversamente o multiplicador bancário e a oferta de moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservas voluntárias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa, Emergência, Bancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos mantidos pelos bancos por opção (no próprio caixa ou no Bacen) para atender à demanda de saques e evitar riscos de iliquidez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risco de não pagamento x risco-preço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default, Inadimplência, Oscilação de valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O risco de não pagamento (default) é a incapacidade do tomador honrar a dívida; risco-preço refere-se à perda de valor do ativo devido a oscilações nos juros ou inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleção adversa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assimetria de informação, Risco, Juros altos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenômeno onde taxas de juros elevadas atraem tomadores de maior risco (que aceitam pagar mais), piorando a qualidade da carteira de empréstimos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa básica, Copom, Metas de inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa básica de juros da economia brasileira definida pelo Copom, usada como instrumento principal para atingir a meta de inflação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de metas de inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expectativas, Copom, Transparência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regime onde a autoridade monetária define uma meta explícita de inflação e usa a taxa de juros para fazer a inflação convergir para esse objetivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread bancário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa ativa, Taxa passiva, Intermediação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença entre a taxa de juros que os bancos cobram dos tomadores (ativa) e a taxa que pagam aos aplicadores (passiva), cobrindo riscos e custos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo do dinheiro, Valor presente, Aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo de um empréstimo ou retorno de uma aplicação; taxa que iguala o valor presente de um fluxo futuro ao seu valor atual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros como prêmio pela “espera”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundos emprestáveis, Poupança, Abstinência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visão da teoria dos fundos emprestáveis onde os juros remuneram a renúncia ao consumo presente em favor do futuro (poupança).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros como prêmio pela renúncia à liquidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keynes, Segurança, Moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visão keynesiana onde a taxa de juros remunera o indivíduo por abrir mão da segurança e liquidez absoluta da moeda para comprar títulos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros nominal x taxa de juros real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganho monetário, Poder de compra, Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nominal é o ganho monetário bruto da aplicação; a real é a nominal descontada a inflação, refletindo o ganho efetivo de poder de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros pós-fixada x taxa de juros prefixada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correção monetária, Ex ante, Ex post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na prefixada, o nominal é definido ex ante (risco inflacionário); na pós-fixada, define-se o ganho real ex ante e o nominal é ajustado ex post por um índice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de redesconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo, Bacen, Controle monetário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de juros cobrada pelo Bacen nos empréstimos de liquidez aos bancos; seu aumento desestimula empréstimos e reduz a oferta de moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria dos fundos emprestáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta e demanda, Poupança, Investimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria que determina a taxa de juros pelo equilíbrio entre oferta (poupança) e demanda (investimento) de títulos, encarando os juros como prêmio pela "espera".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria quantitativa da moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV=PY, Velocidade, Inflação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria que postula que a quantidade de moeda multiplicada pela velocidade de circulação é igual ao produto nominal; assume que, no curto prazo, aumentos de moeda elevam os preços.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade de conta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denominador comum, Preços, Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função da moeda de fornecer um padrão de referência (denominador comum) para que os valores das demais mercadorias sejam cotados e comparados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocidade de circulação da moeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transações, Giros, Velocidade-renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de vezes que uma unidade monetária troca de mãos (gira) para liquidar transações geradoras de renda em determinado período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viés de alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copom, Selic, Aumento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinalização do Copom de que a taxa Selic pode ser aumentada a qualquer momento antes da próxima reunião regular do comitê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viés de baixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copom, Selic, Redução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinalização do Copom de que a taxa Selic pode ser diminuída a qualquer momento antes da próxima reunião regular do comitê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viés neutro ou sem viés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copom, Selic, Manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinalização do Copom de que a taxa Selic não será alterada antes da próxima reunião regular do comitê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curva de rendimento, Prazos, Juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação gráfica entre o prazo de maturidade dos títulos e a taxa de juros; tipicamente tem inclinação positiva, indicando juros maiores para prazos mais longos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataques especulativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconfiança, Saída de recursos, Juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap.10 - Setor Externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimento de saída de recursos provocado pela desconfiança na moeda (expectativa de desvalorização), que pressiona o governo a elevar juros ou desvalorizar o câmbio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balança comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens tangíveis, Exportações, Importações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conta que registra as exportações e importações de mercadorias (bens tangíveis); o saldo é a diferença entre exportações FOB e importações FOB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balança de serviços e rendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fretes, Viagens, Juros, Lucros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrupamento (nas metodologias anteriores ao BPM6) que registra serviços (transportes, viagens) e rendas de fatores (juros, lucros, salários).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balança de transações correntes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens, Serviços, Rendas, Transferências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conta que resume a diferença entre exportações e importações de bens e serviços, somada aos saldos de renda primária e secundária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanço de pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro contábil, Residentes, Não residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumo contábil de todas as transações econômicas realizadas entre residentes de um país e o resto do mundo em determinado período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câmbio flutuante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado, Oferta e demanda, Oscilação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regime onde a taxa de câmbio oscila livremente para equilibrar oferta e demanda de divisas, com intervenção mínima do governo apenas como comprador/vendedor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câmbio nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço da moeda, Valor de troca, Cotação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de uma moeda nacional expresso em termos de outra moeda nacional (ex: quantos reais são necessários para comprar um dólar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo do produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond Vernon, Inovação, Padronização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria onde países desenvolvidos exportam produtos inovadores (high-tech) e, após a padronização tecnológica, a produção e exportação migram para países menos desenvolvidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost, Insurance and Freight (CIF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor, Frete, Seguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método de valoração onde se incluem no preço da mercadoria, além do seu valor, as despesas com frete e seguro de transporte até o destino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coeficiente de vulnerabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dívida externa, Exportações, Indicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador calculado pela razão Dívida Extern/Exportações, mostrando quantos anos de exportação são necessários para pagar a dívida externa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conta capital e financeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos, Obrigações, Investimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte do balanço de pagamentos que registra mudanças em direitos e obrigações (ativos e passivos) entre residentes e não residentes (investimentos, empréstimos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupom cambial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno, Juros, Expectativa cambial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorno esperado de uma aplicação no país, considerando a taxa de juros interna descontada a expectativa de desvalorização da moeda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportações x importações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda, Compra, Residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportação é a venda de mercadorias domésticas para não residentes; Importação é a compra de mercadorias estrangeiras por residentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flutuação suja (dirty floating)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção, Bacen, Volatilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regime de câmbio flutuante onde o Banco Central intervém pontualmente comprando ou vendendo divisas para reduzir a volatilidade ou direcionar a taxa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free on Board (FOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de embarque, Sem frete, Balança comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método de valoração onde as despesas incluídas são apenas as incorridas até o embarque da mercadoria; padrão usado na Balança Comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método de partidas dobradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidade, Crédito, Débito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método contábil usado no Balanço de Pagamentos onde cada transação gera um lançamento de crédito e outro de débito de igual valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo Heckscher-Ohlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dotação de fatores, Capital, Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria moderna onde vantagens comparativas decorrem da dotação de fatores: países exportam bens que usam intensivamente o fator que possuem em abundância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimento de capitais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxos financeiros, Investimento direto, Carteira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxos registrados na conta financeira envolvendo ativos e passivos, como investimentos diretos, em carteira e empréstimos entre residentes e não residentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradoxo de Leontief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA, Teste empírico, Contradição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado empírico onde os EUA (país rico em capital) exportavam bens intensivos em trabalho, contrariando a previsão do modelo Heckscher-Ohlin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paridade do poder de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflação, Longo prazo, Preços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria que afirma que, no longo prazo, a variação da taxa de câmbio nominal deve refletir a diferença entre as taxas de inflação interna e internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Líquida Enviada ao Exterior (RLEE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Primária, Fatores, Remuneração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo líquido das remunerações de fatores de produção (lucros, juros, salários) pagas a não residentes menos as recebidas do exterior (Renda Primária).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de fatores x serviços de não fatores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda, Trabalho/Capital, Serviços reais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de fatores remuneram capital/trabalho (juros, lucros, salários); serviços de não fatores são transações reais como fretes, seguros e viagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de bandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limites, Intervenção, Taxa central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regime onde a taxa de câmbio flutua livremente dentro de limites (bandas) definidos; o governo intervém apenas se a taxa atingir os extremos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de câmbio fixa x taxa de flutuação suja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacen, Determinação, Mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na fixa, o governo define o preço e garante a conversibilidade; na flutuação suja, o mercado define, mas o governo intervém para evitar instabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de câmbio real x taxa de mercado de câmbio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitividade, Inflação, Nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A taxa de mercado é a nominal (preço da moeda); a real é a nominal ajustada pela inflação relativa, indicando a competitividade dos produtos nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria clássica do comércio internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo, Trabalho, Produtividade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseada em David Ricardo (Vantagens Comparativas), explica o comércio pelas diferenças na produtividade relativa do trabalho (tecnologia) entre países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria moderna do comércio internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heckscher-Ohlin, Fatores, Abundância</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explica o comércio baseando-se na dotação relativa de fatores de produção (capital vs. trabalho), assumindo tecnologias iguais entre os países.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termos de troca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preços relativos, Exportação, Importação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação entre os preços dos produtos exportados e os preços dos produtos importados; uma melhora indica que o país compra mais importados com o mesmo volume exportado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferências unilaterais correntes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem contrapartida, Doações, Remessas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transações sem contrapartida econômica direta, como doações humanitárias e remessas de emigrantes para suas famílias (Renda Secundária).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorizações x desvalorizações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poder de compra, Câmbio, Apreciação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valorização (apreciação) ocorre quando o poder de compra da moeda nacional frente às estrangeiras aumenta; a desvalorização (depreciação) ocorre quando esse poder de compra cai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vantagens comparativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especialização, Eficiência relativa, Custos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princípio segundo o qual os países devem se especializar na produção e exportação de bens em que possuem maior eficiência relativa (menores custos comparativos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variação de reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ativos de reserva, Banco Central, Moeda estrangeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item da conta financeira (atualmente denominado Ativos de Reserva) que registra a variação nos haveres em moeda estrangeira e ouro possuídos pelo país para cobrir desequilíbrios externos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não rivalidade, Não excludência, Intervenção estatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bens caracterizados pela não rivalidade e não excludência no consumo, que o mercado tem dificuldade em prover, exigindo intervenção estatal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado condutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrialização, Política econômica, Câmbio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação do Estado utilizando instrumentos de política econômica (câmbio, tarifas, crédito) para guiar e promover o processo de industrialização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado financiador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poupança forçada, BNDE, Crédito longo prazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papel do Estado em captar a poupança nacional (via fundos e bancos públicos) e direcioná-la para financiar setores estratégicos do desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado produtor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatais, Infraestrutura, Insumos básicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação direta do governo na produção de bens e serviços através de empresas estatais, focando em infraestrutura e insumos intermediários (siderurgia, petróleo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado regulamentador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos, CLT, Instituições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção estatal para mediar conflitos entre capital e trabalho (via CLT) e relações intercapitalistas, visando o bom andamento da industrialização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços públicos, Falta de capital privado, Ideologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processo de absorção de atividades econômicas pelo Estado, motivado por questões tarifárias, falta de capacidade de investimento privado ou ideologia nacionalista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantia de juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">República Velha, Ferrovias, Lucro assegurado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo da República Velha que assegurava um retorno mínimo (lucro) aos investimentos privados em infraestrutura, mesmo se a operação tivesse prejuízo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lei de Responsabilidade Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle de gastos, Endividamento, Regras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de regras que impõe limites ao endividamento e despesas com pessoal nas diferentes esferas governamentais para garantir o controle fiscal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Política de defesa do café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenção, Preços, Estoques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação governamental iniciada em 1906 para regular a oferta e os preços do café, protegendo o setor chave da economia contra crises externas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privatização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venda de ativos, Eficiência, Dívida pública</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferência de empresas estatais para o setor privado, visando resolver ineficiências, falta de capacidade de investimento estatal e abater dívidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa Nacional de Desestatização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PND, Governo Collor, Siderurgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa iniciado em 1991 para coordenar a venda de estatais, focando inicialmente em setores como siderurgia, petroquímica e fertilizantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulamentação x desregulamentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle estatal, Mercado, Flexibilização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regulamentação refere-se ao controle estatal (preços, leis trabalhistas); a desregulamentação é o desmonte dessas regras em favor de mecanismos de mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços públicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infraestrutura, Economias de escala, Bem-estar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividades essenciais (energia, transporte, saneamento) com economias de escala e externalidades, fundamentais para o crescimento econômico e bem-estar social.</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +6121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4631,12 +6181,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4687,7 +6231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4730,6 +6274,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4938,13 +6486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G488"/>
+  <dimension ref="A1:G663"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A464" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C504" activeCellId="0" sqref="C504"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A639" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E657" activeCellId="0" sqref="E657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4980,7 +6528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5000,7 +6548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5020,7 +6568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5040,7 +6588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5060,7 +6608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -5080,7 +6628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5100,7 +6648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5120,7 +6668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5140,7 +6688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5160,7 +6708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +6728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -5200,7 +6748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +6768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -5240,7 +6788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -5260,7 +6808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -5280,7 +6828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -5300,7 +6848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -5320,7 +6868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -5340,7 +6888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -5360,7 +6908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5380,7 +6928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -5400,7 +6948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -5420,7 +6968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -5440,7 +6988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -5460,7 +7008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -5480,7 +7028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -5500,7 +7048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -5520,7 +7068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -5540,7 +7088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -5560,7 +7108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -5580,7 +7128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -5600,7 +7148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -5620,7 +7168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -5640,7 +7188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -5660,7 +7208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -5680,7 +7228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -5700,7 +7248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -5720,7 +7268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -5740,7 +7288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -5760,7 +7308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -5780,7 +7328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -5800,7 +7348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -5820,7 +7368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -5840,7 +7388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -5860,7 +7408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -5880,7 +7428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -5900,7 +7448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -5920,7 +7468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -5940,7 +7488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -5960,7 +7508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -5980,7 +7528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -6000,7 +7548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -6020,7 +7568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -6040,7 +7588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -6060,7 +7608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -6080,7 +7628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -6100,7 +7648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -6120,7 +7668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -6140,7 +7688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -6160,7 +7708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -6180,7 +7728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -6200,7 +7748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -6220,7 +7768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -6240,7 +7788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
@@ -6260,7 +7808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -6280,7 +7828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -6300,7 +7848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
@@ -6320,7 +7868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
@@ -6340,7 +7888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
@@ -6360,7 +7908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>55</v>
       </c>
@@ -6380,7 +7928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
@@ -6400,7 +7948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -6420,7 +7968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
@@ -6440,7 +7988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>55</v>
       </c>
@@ -6460,7 +8008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>245</v>
       </c>
@@ -6480,7 +8028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
@@ -6500,7 +8048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>245</v>
       </c>
@@ -6520,7 +8068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -6540,7 +8088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -6560,7 +8108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -6580,7 +8128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -6600,7 +8148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
@@ -6620,7 +8168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
@@ -6640,7 +8188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -6660,7 +8208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>245</v>
       </c>
@@ -6680,7 +8228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -6700,7 +8248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
@@ -6720,7 +8268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
@@ -6740,7 +8288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -6760,7 +8308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>245</v>
       </c>
@@ -6780,7 +8328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -6800,7 +8348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>245</v>
       </c>
@@ -6820,7 +8368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
@@ -6840,7 +8388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>245</v>
       </c>
@@ -6860,7 +8408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -6880,7 +8428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
@@ -6900,7 +8448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
@@ -6920,7 +8468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -6940,7 +8488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -6957,7 +8505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -6974,7 +8522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>245</v>
       </c>
@@ -6991,7 +8539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -7008,7 +8556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>245</v>
       </c>
@@ -7022,7 +8570,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>245</v>
       </c>
@@ -7036,7 +8584,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
@@ -7050,7 +8598,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>245</v>
       </c>
@@ -7064,7 +8612,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
@@ -7078,7 +8626,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -7095,7 +8643,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -7109,7 +8657,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>245</v>
       </c>
@@ -7126,7 +8674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -7143,7 +8691,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>245</v>
       </c>
@@ -7160,7 +8708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
@@ -7177,7 +8725,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
@@ -7194,7 +8742,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -7208,7 +8756,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>245</v>
       </c>
@@ -7222,7 +8770,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
@@ -7236,7 +8784,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
@@ -7253,7 +8801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
@@ -7270,7 +8818,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
@@ -7287,7 +8835,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>245</v>
       </c>
@@ -7304,7 +8852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>245</v>
       </c>
@@ -7321,7 +8869,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -7338,7 +8886,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>245</v>
       </c>
@@ -7355,7 +8903,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>245</v>
       </c>
@@ -7372,7 +8920,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>245</v>
       </c>
@@ -7389,7 +8937,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>245</v>
       </c>
@@ -7406,7 +8954,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>245</v>
       </c>
@@ -7423,7 +8971,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>245</v>
       </c>
@@ -7440,7 +8988,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>245</v>
       </c>
@@ -7457,7 +9005,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>245</v>
       </c>
@@ -7474,7 +9022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>245</v>
       </c>
@@ -7491,7 +9039,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>245</v>
       </c>
@@ -7508,7 +9056,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
@@ -7525,7 +9073,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>245</v>
       </c>
@@ -7542,7 +9090,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>245</v>
       </c>
@@ -7559,7 +9107,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>245</v>
       </c>
@@ -7576,7 +9124,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>245</v>
       </c>
@@ -7593,7 +9141,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>245</v>
       </c>
@@ -7610,7 +9158,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>245</v>
       </c>
@@ -7627,7 +9175,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>245</v>
       </c>
@@ -7644,7 +9192,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>245</v>
       </c>
@@ -7661,7 +9209,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>245</v>
       </c>
@@ -7678,7 +9226,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>245</v>
       </c>
@@ -7695,7 +9243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>423</v>
       </c>
@@ -7712,7 +9260,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>423</v>
       </c>
@@ -7726,7 +9274,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>423</v>
       </c>
@@ -7743,7 +9291,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>423</v>
       </c>
@@ -7760,7 +9308,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>423</v>
       </c>
@@ -7774,7 +9322,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>423</v>
       </c>
@@ -7791,7 +9339,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
@@ -7808,7 +9356,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>423</v>
       </c>
@@ -7825,7 +9373,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>423</v>
       </c>
@@ -7842,7 +9390,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>423</v>
       </c>
@@ -7859,7 +9407,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>423</v>
       </c>
@@ -7876,7 +9424,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>423</v>
       </c>
@@ -7893,7 +9441,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>423</v>
       </c>
@@ -7910,7 +9458,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>423</v>
       </c>
@@ -7924,7 +9472,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>423</v>
       </c>
@@ -7941,7 +9489,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>423</v>
       </c>
@@ -7958,7 +9506,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
@@ -7975,7 +9523,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -7992,7 +9540,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>423</v>
       </c>
@@ -8006,7 +9554,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>423</v>
       </c>
@@ -8020,7 +9568,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
@@ -8034,7 +9582,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>423</v>
       </c>
@@ -8051,7 +9599,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>423</v>
       </c>
@@ -8068,7 +9616,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>423</v>
       </c>
@@ -8085,7 +9633,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>423</v>
       </c>
@@ -8102,7 +9650,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
@@ -8119,7 +9667,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
@@ -8133,7 +9681,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
@@ -8150,7 +9698,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>423</v>
       </c>
@@ -8167,7 +9715,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>423</v>
       </c>
@@ -8181,7 +9729,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
@@ -8198,7 +9746,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>423</v>
       </c>
@@ -8212,7 +9760,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
@@ -8229,7 +9777,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>503</v>
       </c>
@@ -8249,7 +9797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -8269,7 +9817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>503</v>
       </c>
@@ -8289,7 +9837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>503</v>
       </c>
@@ -8309,7 +9857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>503</v>
       </c>
@@ -8329,7 +9877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>503</v>
       </c>
@@ -8349,7 +9897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>503</v>
       </c>
@@ -8369,7 +9917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>503</v>
       </c>
@@ -8389,7 +9937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>503</v>
       </c>
@@ -8409,7 +9957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>503</v>
       </c>
@@ -8429,7 +9977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>503</v>
       </c>
@@ -8449,7 +9997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>503</v>
       </c>
@@ -8469,7 +10017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -8489,7 +10037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>503</v>
       </c>
@@ -8509,7 +10057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>503</v>
       </c>
@@ -8526,7 +10074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>503</v>
       </c>
@@ -8543,7 +10091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>503</v>
       </c>
@@ -8560,7 +10108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>503</v>
       </c>
@@ -8577,7 +10125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="138.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="138.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>503</v>
       </c>
@@ -8594,7 +10142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>503</v>
       </c>
@@ -8611,7 +10159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>503</v>
       </c>
@@ -8631,7 +10179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>503</v>
       </c>
@@ -8650,7 +10198,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>503</v>
       </c>
@@ -8669,7 +10217,7 @@
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>503</v>
       </c>
@@ -8688,7 +10236,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>503</v>
       </c>
@@ -8708,7 +10256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>503</v>
       </c>
@@ -8728,7 +10276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>503</v>
       </c>
@@ -8748,7 +10296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>503</v>
       </c>
@@ -8768,7 +10316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>503</v>
       </c>
@@ -8788,7 +10336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>503</v>
       </c>
@@ -8808,7 +10356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>503</v>
       </c>
@@ -8827,7 +10375,7 @@
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>503</v>
       </c>
@@ -8846,7 +10394,7 @@
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>503</v>
       </c>
@@ -8865,7 +10413,7 @@
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
         <v>503</v>
       </c>
@@ -8884,7 +10432,7 @@
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>503</v>
       </c>
@@ -8903,7 +10451,7 @@
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>503</v>
       </c>
@@ -8922,7 +10470,7 @@
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>503</v>
       </c>
@@ -8941,7 +10489,7 @@
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>503</v>
       </c>
@@ -8960,7 +10508,7 @@
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>503</v>
       </c>
@@ -8979,7 +10527,7 @@
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>503</v>
       </c>
@@ -8999,7 +10547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>503</v>
       </c>
@@ -9018,7 +10566,7 @@
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>503</v>
       </c>
@@ -9037,7 +10585,7 @@
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>503</v>
       </c>
@@ -9056,7 +10604,7 @@
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>503</v>
       </c>
@@ -9075,7 +10623,7 @@
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" customFormat="false" ht="120.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="120.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>503</v>
       </c>
@@ -9094,7 +10642,7 @@
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>503</v>
       </c>
@@ -9113,7 +10661,7 @@
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>503</v>
       </c>
@@ -9132,7 +10680,7 @@
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>503</v>
       </c>
@@ -9152,7 +10700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>503</v>
       </c>
@@ -9172,7 +10720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>503</v>
       </c>
@@ -9192,7 +10740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>503</v>
       </c>
@@ -9212,7 +10760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>503</v>
       </c>
@@ -9232,7 +10780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>503</v>
       </c>
@@ -9252,7 +10800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>503</v>
       </c>
@@ -9272,7 +10820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="150.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>503</v>
       </c>
@@ -9292,7 +10840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="195.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>503</v>
       </c>
@@ -9312,7 +10860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>503</v>
       </c>
@@ -9332,7 +10880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>503</v>
       </c>
@@ -9352,7 +10900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>503</v>
       </c>
@@ -9372,7 +10920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>503</v>
       </c>
@@ -9392,7 +10940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>503</v>
       </c>
@@ -9412,7 +10960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="149.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>503</v>
       </c>
@@ -9431,7 +10979,7 @@
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" customFormat="false" ht="162.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>503</v>
       </c>
@@ -9451,7 +10999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
@@ -9470,7 +11018,7 @@
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>503</v>
       </c>
@@ -13012,1450 +14560,4888 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B420" s="0" t="s">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C420" s="0" t="s">
+      <c r="C420" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="D420" s="0" t="s">
+      <c r="D420" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E420" s="0" t="s">
+      <c r="E420" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="F420" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G420" s="0"/>
-    </row>
-    <row r="421" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B421" s="0" t="s">
+      <c r="F420" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="C421" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="D421" s="0" t="s">
+      <c r="D421" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E421" s="0" t="s">
+      <c r="E421" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="F421" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G421" s="0"/>
-    </row>
-    <row r="422" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B422" s="0" t="s">
+      <c r="F421" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="C422" s="0" t="s">
+      <c r="C422" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="D422" s="0" t="s">
+      <c r="D422" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E422" s="0" t="s">
+      <c r="E422" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="F422" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G422" s="0"/>
-    </row>
-    <row r="423" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B423" s="0" t="s">
+      <c r="F422" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C423" s="0" t="s">
+      <c r="C423" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="D423" s="0" t="s">
+      <c r="D423" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E423" s="0" t="s">
+      <c r="E423" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="F423" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G423" s="0"/>
-    </row>
-    <row r="424" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B424" s="0" t="s">
+      <c r="F423" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C424" s="0" t="s">
+      <c r="C424" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D424" s="0" t="s">
+      <c r="D424" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E424" s="0" t="s">
+      <c r="E424" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="F424" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G424" s="0"/>
-    </row>
-    <row r="425" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B425" s="0" t="s">
+      <c r="F424" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C425" s="0" t="s">
+      <c r="C425" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="D425" s="0" t="s">
+      <c r="D425" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E425" s="0" t="s">
+      <c r="E425" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="F425" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G425" s="0"/>
-    </row>
-    <row r="426" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B426" s="0" t="s">
+      <c r="F425" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="C426" s="0" t="s">
+      <c r="C426" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="D426" s="0" t="s">
+      <c r="D426" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E426" s="0" t="s">
+      <c r="E426" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="F426" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G426" s="0"/>
-    </row>
-    <row r="427" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B427" s="0" t="s">
+      <c r="F426" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C427" s="0" t="s">
+      <c r="C427" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="D427" s="0" t="s">
+      <c r="D427" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E427" s="0" t="s">
+      <c r="E427" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="F427" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G427" s="0"/>
-    </row>
-    <row r="428" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B428" s="0" t="s">
+      <c r="F427" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="C428" s="0" t="s">
+      <c r="C428" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="D428" s="0" t="s">
+      <c r="D428" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E428" s="0" t="s">
+      <c r="E428" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="F428" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G428" s="0"/>
-    </row>
-    <row r="429" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B429" s="0" t="s">
+      <c r="F428" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C429" s="0" t="s">
+      <c r="C429" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="D429" s="0" t="s">
+      <c r="D429" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E429" s="0" t="s">
+      <c r="E429" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="F429" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G429" s="0"/>
-    </row>
-    <row r="430" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B430" s="0" t="s">
+      <c r="F429" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C430" s="0" t="s">
+      <c r="C430" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D430" s="0" t="s">
+      <c r="D430" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E430" s="0" t="s">
+      <c r="E430" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="F430" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G430" s="0"/>
-    </row>
-    <row r="431" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B431" s="0" t="s">
+      <c r="F430" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C431" s="0" t="s">
+      <c r="C431" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="D431" s="0" t="s">
+      <c r="D431" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E431" s="0" t="s">
+      <c r="E431" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="F431" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G431" s="0"/>
-    </row>
-    <row r="432" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B432" s="0" t="s">
+      <c r="F431" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="C432" s="0" t="s">
+      <c r="C432" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="D432" s="0" t="s">
+      <c r="D432" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E432" s="0" t="s">
+      <c r="E432" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="F432" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G432" s="0"/>
-    </row>
-    <row r="433" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B433" s="0" t="s">
+      <c r="F432" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C433" s="0" t="s">
+      <c r="C433" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D433" s="0" t="s">
+      <c r="D433" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E433" s="0" t="s">
+      <c r="E433" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="F433" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G433" s="0"/>
-    </row>
-    <row r="434" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B434" s="0" t="s">
+      <c r="F433" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C434" s="0" t="s">
+      <c r="C434" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="D434" s="0" t="s">
+      <c r="D434" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E434" s="0" t="s">
+      <c r="E434" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="F434" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G434" s="0"/>
-    </row>
-    <row r="435" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B435" s="0" t="s">
+      <c r="F434" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C435" s="0" t="s">
+      <c r="C435" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D435" s="0" t="s">
+      <c r="D435" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E435" s="0" t="s">
+      <c r="E435" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="F435" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G435" s="0"/>
-    </row>
-    <row r="436" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B436" s="0" t="s">
+      <c r="F435" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C436" s="0" t="s">
+      <c r="C436" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="D436" s="0" t="s">
+      <c r="D436" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E436" s="0" t="s">
+      <c r="E436" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="F436" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G436" s="0"/>
-    </row>
-    <row r="437" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B437" s="0" t="s">
+      <c r="F436" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C437" s="0" t="s">
+      <c r="C437" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D437" s="0" t="s">
+      <c r="D437" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E437" s="0" t="s">
+      <c r="E437" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="F437" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G437" s="0"/>
-    </row>
-    <row r="438" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B438" s="0" t="s">
+      <c r="F437" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="C438" s="0" t="s">
+      <c r="C438" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="D438" s="0" t="s">
+      <c r="D438" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E438" s="0" t="s">
+      <c r="E438" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="F438" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G438" s="0"/>
-    </row>
-    <row r="439" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B439" s="0" t="s">
+      <c r="F438" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C439" s="0" t="s">
+      <c r="C439" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="D439" s="0" t="s">
+      <c r="D439" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E439" s="0" t="s">
+      <c r="E439" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="F439" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G439" s="0"/>
-    </row>
-    <row r="440" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B440" s="0" t="s">
+      <c r="F439" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C440" s="0" t="s">
+      <c r="C440" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D440" s="0" t="s">
+      <c r="D440" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E440" s="0" t="s">
+      <c r="E440" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="F440" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G440" s="0"/>
-    </row>
-    <row r="441" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B441" s="0" t="s">
+      <c r="F440" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="C441" s="0" t="s">
+      <c r="C441" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D441" s="0" t="s">
+      <c r="D441" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E441" s="0" t="s">
+      <c r="E441" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="F441" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G441" s="0"/>
-    </row>
-    <row r="442" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B442" s="0" t="s">
+      <c r="F441" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="C442" s="0" t="s">
+      <c r="C442" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="D442" s="0" t="s">
+      <c r="D442" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E442" s="0" t="s">
+      <c r="E442" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="F442" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G442" s="0"/>
-    </row>
-    <row r="443" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B443" s="0" t="s">
+      <c r="F442" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C443" s="0" t="s">
+      <c r="C443" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D443" s="0" t="s">
+      <c r="D443" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E443" s="0" t="s">
+      <c r="E443" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="F443" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G443" s="0"/>
-    </row>
-    <row r="444" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B444" s="0" t="s">
+      <c r="F443" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="C444" s="0" t="s">
+      <c r="C444" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D444" s="0" t="s">
+      <c r="D444" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E444" s="0" t="s">
+      <c r="E444" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="F444" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G444" s="0"/>
-    </row>
-    <row r="445" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B445" s="0" t="s">
+      <c r="F444" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C445" s="0" t="s">
+      <c r="C445" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="D445" s="0" t="s">
+      <c r="D445" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E445" s="0" t="s">
+      <c r="E445" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="F445" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G445" s="0"/>
-    </row>
-    <row r="446" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B446" s="0" t="s">
+      <c r="F445" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C446" s="0" t="s">
+      <c r="C446" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="D446" s="0" t="s">
+      <c r="D446" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E446" s="0" t="s">
+      <c r="E446" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="F446" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G446" s="0"/>
-    </row>
-    <row r="447" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B447" s="0" t="s">
+      <c r="F446" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C447" s="0" t="s">
+      <c r="C447" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="D447" s="0" t="s">
+      <c r="D447" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E447" s="0" t="s">
+      <c r="E447" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="F447" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G447" s="0"/>
-    </row>
-    <row r="448" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B448" s="0" t="s">
+      <c r="F447" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="C448" s="0" t="s">
+      <c r="C448" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="D448" s="0" t="s">
+      <c r="D448" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E448" s="0" t="s">
+      <c r="E448" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="F448" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G448" s="0"/>
-    </row>
-    <row r="449" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B449" s="0" t="s">
+      <c r="F448" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C449" s="0" t="s">
+      <c r="C449" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D449" s="0" t="s">
+      <c r="D449" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E449" s="0" t="s">
+      <c r="E449" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="F449" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G449" s="0"/>
-    </row>
-    <row r="450" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B450" s="0" t="s">
+      <c r="F449" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="C450" s="0" t="s">
+      <c r="C450" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="D450" s="0" t="s">
+      <c r="D450" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E450" s="0" t="s">
+      <c r="E450" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="F450" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G450" s="0"/>
-    </row>
-    <row r="451" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B451" s="0" t="s">
+      <c r="F450" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="C451" s="0" t="s">
+      <c r="C451" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="D451" s="0" t="s">
+      <c r="D451" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E451" s="0" t="s">
+      <c r="E451" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="F451" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G451" s="0"/>
-    </row>
-    <row r="452" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B452" s="0" t="s">
+      <c r="F451" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C452" s="0" t="s">
+      <c r="C452" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D452" s="0" t="s">
+      <c r="D452" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E452" s="0" t="s">
+      <c r="E452" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="F452" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G452" s="0"/>
-    </row>
-    <row r="453" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B453" s="0" t="s">
+      <c r="F452" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="C453" s="0" t="s">
+      <c r="C453" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="D453" s="0" t="s">
+      <c r="D453" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E453" s="0" t="s">
+      <c r="E453" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="F453" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G453" s="0"/>
-    </row>
-    <row r="454" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B454" s="0" t="s">
+      <c r="F453" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="C454" s="0" t="s">
+      <c r="C454" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="D454" s="0" t="s">
+      <c r="D454" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E454" s="0" t="s">
+      <c r="E454" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="F454" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G454" s="0"/>
-    </row>
-    <row r="455" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B455" s="0" t="s">
+      <c r="F454" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="C455" s="0" t="s">
+      <c r="C455" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="D455" s="0" t="s">
+      <c r="D455" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E455" s="0" t="s">
+      <c r="E455" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="F455" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G455" s="0"/>
-    </row>
-    <row r="456" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B456" s="0" t="s">
+      <c r="F455" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C456" s="0" t="s">
+      <c r="C456" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D456" s="0" t="s">
+      <c r="D456" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E456" s="0" t="s">
+      <c r="E456" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="F456" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G456" s="0"/>
-    </row>
-    <row r="457" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B457" s="0" t="s">
+      <c r="F456" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="C457" s="0" t="s">
+      <c r="C457" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="D457" s="0" t="s">
+      <c r="D457" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E457" s="0" t="s">
+      <c r="E457" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="F457" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G457" s="0"/>
-    </row>
-    <row r="458" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B458" s="0" t="s">
+      <c r="F457" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="C458" s="0" t="s">
+      <c r="C458" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="D458" s="0" t="s">
+      <c r="D458" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E458" s="0" t="s">
+      <c r="E458" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F458" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G458" s="0"/>
-    </row>
-    <row r="459" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B459" s="0" t="s">
+      <c r="F458" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="C459" s="0" t="s">
+      <c r="C459" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D459" s="0" t="s">
+      <c r="D459" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E459" s="0" t="s">
+      <c r="E459" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="F459" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G459" s="0"/>
-    </row>
-    <row r="460" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B460" s="0" t="s">
+      <c r="F459" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C460" s="0" t="s">
+      <c r="C460" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D460" s="0" t="s">
+      <c r="D460" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E460" s="0" t="s">
+      <c r="E460" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="F460" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G460" s="0"/>
-    </row>
-    <row r="461" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B461" s="0" t="s">
+      <c r="F460" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C461" s="0" t="s">
+      <c r="C461" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D461" s="0" t="s">
+      <c r="D461" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E461" s="0" t="s">
+      <c r="E461" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="F461" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G461" s="0"/>
-    </row>
-    <row r="462" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B462" s="0" t="s">
+      <c r="F461" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C462" s="0" t="s">
+      <c r="C462" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="D462" s="0" t="s">
+      <c r="D462" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E462" s="0" t="s">
+      <c r="E462" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="F462" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G462" s="0"/>
-    </row>
-    <row r="463" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B463" s="0" t="s">
+      <c r="F462" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="C463" s="0" t="s">
+      <c r="C463" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="D463" s="0" t="s">
+      <c r="D463" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E463" s="0" t="s">
+      <c r="E463" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="F463" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G463" s="0"/>
-    </row>
-    <row r="464" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B464" s="0" t="s">
+      <c r="F463" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="C464" s="0" t="s">
+      <c r="C464" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D464" s="0" t="s">
+      <c r="D464" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E464" s="0" t="s">
+      <c r="E464" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="F464" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G464" s="0"/>
-    </row>
-    <row r="465" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B465" s="0" t="s">
+      <c r="F464" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B465" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="C465" s="0" t="s">
+      <c r="C465" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="D465" s="0" t="s">
+      <c r="D465" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E465" s="0" t="s">
+      <c r="E465" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="F465" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G465" s="0"/>
-    </row>
-    <row r="466" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B466" s="0" t="s">
+      <c r="F465" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C466" s="0" t="s">
+      <c r="C466" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D466" s="0" t="s">
+      <c r="D466" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E466" s="0" t="s">
+      <c r="E466" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="F466" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G466" s="0"/>
-    </row>
-    <row r="467" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B467" s="0" t="s">
+      <c r="F466" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="C467" s="0" t="s">
+      <c r="C467" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D467" s="0" t="s">
+      <c r="D467" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E467" s="0" t="s">
+      <c r="E467" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F467" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G467" s="0"/>
-    </row>
-    <row r="468" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B468" s="0" t="s">
+      <c r="F467" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="C468" s="0" t="s">
+      <c r="C468" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="D468" s="0" t="s">
+      <c r="D468" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E468" s="0" t="s">
+      <c r="E468" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="F468" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G468" s="0"/>
-    </row>
-    <row r="469" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B469" s="0" t="s">
+      <c r="F468" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C469" s="0" t="s">
+      <c r="C469" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D469" s="0" t="s">
+      <c r="D469" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E469" s="0" t="s">
+      <c r="E469" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="F469" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G469" s="0"/>
-    </row>
-    <row r="470" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B470" s="0" t="s">
+      <c r="F469" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="C470" s="0" t="s">
+      <c r="C470" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="D470" s="0" t="s">
+      <c r="D470" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="E470" s="0" t="s">
+      <c r="E470" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="F470" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G470" s="0"/>
+      <c r="F470" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B471" s="0" t="s">
+      <c r="A471" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C471" s="0" t="s">
+      <c r="C471" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D471" s="0" t="s">
+      <c r="D471" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E471" s="0" t="s">
+      <c r="E471" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="F471" s="0" t="s">
+      <c r="F471" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B472" s="0" t="s">
+      <c r="A472" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="C472" s="0" t="s">
+      <c r="C472" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="D472" s="0" t="s">
+      <c r="D472" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E472" s="0" t="s">
+      <c r="E472" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="F472" s="0" t="s">
+      <c r="F472" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B473" s="0" t="s">
+      <c r="A473" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C473" s="0" t="s">
+      <c r="C473" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="D473" s="0" t="s">
+      <c r="D473" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E473" s="0" t="s">
+      <c r="E473" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="F473" s="0" t="s">
+      <c r="F473" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B474" s="0" t="s">
+      <c r="A474" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C474" s="0" t="s">
+      <c r="C474" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D474" s="0" t="s">
+      <c r="D474" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E474" s="0" t="s">
+      <c r="E474" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="F474" s="0" t="s">
+      <c r="F474" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B475" s="0" t="s">
+      <c r="A475" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C475" s="0" t="s">
+      <c r="C475" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="D475" s="0" t="s">
+      <c r="D475" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E475" s="0" t="s">
+      <c r="E475" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="F475" s="0" t="s">
+      <c r="F475" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B476" s="0" t="s">
+      <c r="A476" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C476" s="0" t="s">
+      <c r="C476" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="D476" s="0" t="s">
+      <c r="D476" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E476" s="0" t="s">
+      <c r="E476" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="F476" s="0" t="s">
+      <c r="F476" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B477" s="0" t="s">
+      <c r="A477" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C477" s="0" t="s">
+      <c r="C477" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D477" s="0" t="s">
+      <c r="D477" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E477" s="0" t="s">
+      <c r="E477" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="F477" s="0" t="s">
+      <c r="F477" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B478" s="0" t="s">
+      <c r="A478" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="C478" s="0" t="s">
+      <c r="C478" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="D478" s="0" t="s">
+      <c r="D478" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E478" s="0" t="s">
+      <c r="E478" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="F478" s="0" t="s">
+      <c r="F478" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B479" s="0" t="s">
+      <c r="A479" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C479" s="0" t="s">
+      <c r="C479" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D479" s="0" t="s">
+      <c r="D479" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E479" s="0" t="s">
+      <c r="E479" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="F479" s="0" t="s">
+      <c r="F479" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B480" s="0" t="s">
+      <c r="A480" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C480" s="0" t="s">
+      <c r="C480" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D480" s="0" t="s">
+      <c r="D480" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E480" s="0" t="s">
+      <c r="E480" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="F480" s="0" t="s">
+      <c r="F480" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B481" s="0" t="s">
+      <c r="A481" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="C481" s="0" t="s">
+      <c r="C481" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D481" s="0" t="s">
+      <c r="D481" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E481" s="0" t="s">
+      <c r="E481" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="F481" s="0" t="s">
+      <c r="F481" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B482" s="0" t="s">
+      <c r="A482" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="C482" s="0" t="s">
+      <c r="C482" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="D482" s="0" t="s">
+      <c r="D482" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E482" s="0" t="s">
+      <c r="E482" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="F482" s="0" t="s">
+      <c r="F482" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B483" s="0" t="s">
+      <c r="A483" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C483" s="0" t="s">
+      <c r="C483" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D483" s="0" t="s">
+      <c r="D483" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E483" s="0" t="s">
+      <c r="E483" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="F483" s="0" t="s">
+      <c r="F483" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B484" s="0" t="s">
+      <c r="A484" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="C484" s="0" t="s">
+      <c r="C484" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="D484" s="0" t="s">
+      <c r="D484" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E484" s="0" t="s">
+      <c r="E484" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="F484" s="0" t="s">
+      <c r="F484" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B485" s="0" t="s">
+      <c r="A485" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="C485" s="0" t="s">
+      <c r="C485" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="D485" s="0" t="s">
+      <c r="D485" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E485" s="0" t="s">
+      <c r="E485" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="F485" s="0" t="s">
+      <c r="F485" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B486" s="0" t="s">
+      <c r="A486" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="C486" s="0" t="s">
+      <c r="C486" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="D486" s="0" t="s">
+      <c r="D486" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E486" s="0" t="s">
+      <c r="E486" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="F486" s="0" t="s">
+      <c r="F486" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B487" s="0" t="s">
+      <c r="A487" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="C487" s="0" t="s">
+      <c r="C487" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="D487" s="0" t="s">
+      <c r="D487" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E487" s="0" t="s">
+      <c r="E487" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="F487" s="0" t="s">
+      <c r="F487" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B488" s="0" t="s">
+      <c r="A488" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C488" s="0" t="s">
+      <c r="C488" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D488" s="0" t="s">
+      <c r="D488" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E488" s="0" t="s">
+      <c r="E488" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="F488" s="0" t="s">
+      <c r="F488" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C512" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C558" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D558" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E558" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F558" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D559" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E559" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F559" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D560" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E560" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D561" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E561" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D562" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E562" s="7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F562" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D563" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E563" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D564" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E564" s="7" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D565" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E565" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F565" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D566" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E566" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D567" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E567" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D568" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E568" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F568" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D569" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E569" s="7" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D570" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E570" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D571" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E571" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D572" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E572" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D573" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E573" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D574" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E574" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E575" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D576" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E576" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D577" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E577" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D578" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E578" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D579" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E579" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D580" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E580" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C581" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D581" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E581" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D582" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E582" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F582" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D583" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E583" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D584" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E584" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D585" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E585" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F585" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D586" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F586" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D587" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D588" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E588" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D589" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E589" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D590" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E590" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D591" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F591" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D592" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E592" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D593" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E593" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D594" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E594" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F594" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D595" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E595" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D596" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E596" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D597" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E597" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D598" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E598" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D599" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E599" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D600" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E600" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D601" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E601" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F601" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D602" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E602" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F602" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D603" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D604" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E604" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D605" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E605" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D606" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B607" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D607" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E607" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F607" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D608" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E608" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B609" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D609" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E609" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C610" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D610" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F610" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D611" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E611" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F611" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C612" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D612" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F612" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D613" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E613" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F613" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D614" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E614" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F614" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D615" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E615" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F615" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C616" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D616" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E616" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F616" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D617" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E617" s="7" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D618" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E618" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F663" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G396">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ciência Política"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Cap. 4 – Finalidades e elementos do Estado"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G663"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -3729,7 +3729,8 @@
     <t xml:space="preserve">Crescimento populacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Variação da população resultante da combinação entre a taxa de natalidade, a taxa de mortalidade e a taxa de migração (saldo migratório).</t>
+    <t xml:space="preserve">Combinação de três fatores básicos: a mortalidade, a natalidade e o saldo migratório (diferença entre as pessoas que saem e entram definitivamente na região)
+(Taxa de natalidade – Taxa de mortalidade + Taxa de migração)</t>
   </si>
   <si>
     <t xml:space="preserve">Esperança de vida</t>
@@ -3765,7 +3766,7 @@
     <t xml:space="preserve">Expansão territorial, Migração, Norte/Centro-Oeste</t>
   </si>
   <si>
-    <t xml:space="preserve">Regiões onde novas terras são incorporadas à produção (primeiro Sul, depois Centro-Oeste e Norte), atraindo fluxos migratórios e nova urbanização.</t>
+    <t xml:space="preserve">São as regiões onde novas terras são incorporadas à produção agropecuária. Por algumas décadas, a região Sul do país era considerada uma área de fronteira agrícola, sendo posteriormente (principalmente na década de 70) substituída pelo Centro-Oeste, e hoje situando-se na região Norte, nas franjas da floresta amazônica.</t>
   </si>
   <si>
     <t xml:space="preserve">Índice de envelhecimento</t>
@@ -3810,7 +3811,10 @@
     <t xml:space="preserve">Malthus, Pobreza, Recursos naturais</t>
   </si>
   <si>
-    <t xml:space="preserve">Corrente teórica que associa o crescimento populacional à pobreza e ao esgotamento de recursos, defendendo políticas de limitação da natalidade.</t>
+    <t xml:space="preserve">A corrente neomalthusiana defende que a humanidade tem tendência à pobreza e à fome, pois a população tem tendência a crescer muito mais rapidamente que a produção de alimentos. O crescimento populacional esgota rapidamente os recursos naturais, especialmente os não renováveis.
+Para os críticos da corrente neomalthusiana:
+➢ o progresso tecnológico é capaz de gerar renda e alimentos em taxas mais altas que a do crescimento populacional; e
+➢ maior mercado gera benefícios da economia de escala</t>
   </si>
   <si>
     <t xml:space="preserve">População aberta e fechada</t>
@@ -3828,7 +3832,7 @@
     <t xml:space="preserve">Força de trabalho, Trabalhadores</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcela da população que representa o potencial de trabalhadores e produtores de um país, distinta dos apenas consumidores.</t>
+    <t xml:space="preserve">Representa os potenciais trabalhadores/produtores do país. Fazem parte da PEA a população ocupada (empregada) e a população desocupada (desempregada).</t>
   </si>
   <si>
     <t xml:space="preserve">Razão de dependência</t>
@@ -6486,19 +6490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G663"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A639" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E657" activeCellId="0" sqref="E657"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A410" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B411" activeCellId="0" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="71.94"/>
@@ -6528,7 +6532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6568,7 +6572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -6748,7 +6752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -6768,7 +6772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -6808,7 +6812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -6948,7 +6952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -7588,7 +7592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -7668,7 +7672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -7708,7 +7712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
@@ -7788,7 +7792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -7848,7 +7852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>55</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
@@ -7908,7 +7912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>55</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>55</v>
       </c>
@@ -7948,7 +7952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>55</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>245</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>245</v>
       </c>
@@ -8068,7 +8072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>245</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -8108,7 +8112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -8148,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>245</v>
       </c>
@@ -8188,7 +8192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>245</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>245</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
@@ -8268,7 +8272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>245</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>245</v>
       </c>
@@ -8368,7 +8372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>245</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -8428,7 +8432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -8522,7 +8526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>245</v>
       </c>
@@ -8539,7 +8543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>245</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>245</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>245</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>245</v>
       </c>
@@ -8612,7 +8616,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>245</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>245</v>
       </c>
@@ -8674,7 +8678,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>245</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
@@ -8742,7 +8746,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>245</v>
       </c>
@@ -8756,7 +8760,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>245</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>245</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>245</v>
       </c>
@@ -8818,7 +8822,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>245</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>245</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>245</v>
       </c>
@@ -8869,7 +8873,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>245</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>245</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>245</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>245</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>245</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>245</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>245</v>
       </c>
@@ -8988,7 +8992,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>245</v>
       </c>
@@ -9005,7 +9009,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>245</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>245</v>
       </c>
@@ -9039,7 +9043,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>245</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>245</v>
       </c>
@@ -9073,7 +9077,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>245</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>245</v>
       </c>
@@ -9107,7 +9111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>245</v>
       </c>
@@ -9124,7 +9128,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>245</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>245</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>245</v>
       </c>
@@ -9175,7 +9179,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>245</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>245</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>245</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>245</v>
       </c>
@@ -9243,7 +9247,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>423</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>423</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>423</v>
       </c>
@@ -9291,7 +9295,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>423</v>
       </c>
@@ -9308,7 +9312,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>423</v>
       </c>
@@ -9322,7 +9326,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>423</v>
       </c>
@@ -9339,7 +9343,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>423</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>423</v>
       </c>
@@ -9373,7 +9377,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="16.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>423</v>
       </c>
@@ -9390,7 +9394,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>423</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>423</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>423</v>
       </c>
@@ -9441,7 +9445,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>423</v>
       </c>
@@ -9458,7 +9462,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>423</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>423</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>423</v>
       </c>
@@ -9506,7 +9510,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>423</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>423</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>423</v>
       </c>
@@ -9582,7 +9586,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>423</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>423</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>423</v>
       </c>
@@ -9633,7 +9637,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>423</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
@@ -9681,7 +9685,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>423</v>
       </c>
@@ -9715,7 +9719,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>423</v>
       </c>
@@ -9729,7 +9733,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>423</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>423</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>423</v>
       </c>
@@ -9777,7 +9781,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>503</v>
       </c>
@@ -9797,7 +9801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -9817,7 +9821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>503</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>503</v>
       </c>
@@ -9857,7 +9861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>503</v>
       </c>
@@ -9877,7 +9881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>503</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>503</v>
       </c>
@@ -9917,7 +9921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>503</v>
       </c>
@@ -9937,7 +9941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>503</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>503</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>503</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>503</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>503</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>503</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>503</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>503</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>503</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="138.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="138.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>503</v>
       </c>
@@ -10142,7 +10146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>503</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>503</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>503</v>
       </c>
@@ -10198,7 +10202,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>503</v>
       </c>
@@ -10217,7 +10221,7 @@
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>503</v>
       </c>
@@ -10236,7 +10240,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>503</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>503</v>
       </c>
@@ -10276,7 +10280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>503</v>
       </c>
@@ -10296,7 +10300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>503</v>
       </c>
@@ -10316,7 +10320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>503</v>
       </c>
@@ -10336,7 +10340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>503</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>503</v>
       </c>
@@ -10375,7 +10379,7 @@
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>503</v>
       </c>
@@ -10394,7 +10398,7 @@
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>503</v>
       </c>
@@ -10413,7 +10417,7 @@
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
         <v>503</v>
       </c>
@@ -10432,7 +10436,7 @@
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>503</v>
       </c>
@@ -10451,7 +10455,7 @@
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>503</v>
       </c>
@@ -10470,7 +10474,7 @@
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>503</v>
       </c>
@@ -10489,7 +10493,7 @@
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>503</v>
       </c>
@@ -10508,7 +10512,7 @@
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>503</v>
       </c>
@@ -10527,7 +10531,7 @@
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="97" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>503</v>
       </c>
@@ -10547,7 +10551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>503</v>
       </c>
@@ -10566,7 +10570,7 @@
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>503</v>
       </c>
@@ -10585,7 +10589,7 @@
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>503</v>
       </c>
@@ -10604,7 +10608,7 @@
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="75.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>503</v>
       </c>
@@ -10623,7 +10627,7 @@
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" customFormat="false" ht="120.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="120.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>503</v>
       </c>
@@ -10642,7 +10646,7 @@
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>503</v>
       </c>
@@ -10661,7 +10665,7 @@
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" customFormat="false" ht="105.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="105.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>503</v>
       </c>
@@ -10680,7 +10684,7 @@
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>503</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>503</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>503</v>
       </c>
@@ -10740,7 +10744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="90.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>503</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>503</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>503</v>
       </c>
@@ -10800,7 +10804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="269.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>503</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="150.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>503</v>
       </c>
@@ -10840,7 +10844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="195.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>503</v>
       </c>
@@ -10860,7 +10864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>503</v>
       </c>
@@ -10880,7 +10884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>503</v>
       </c>
@@ -10900,7 +10904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="180.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>503</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>503</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>503</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="151.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>503</v>
       </c>
@@ -10979,7 +10983,7 @@
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="165.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>503</v>
       </c>
@@ -10999,7 +11003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
@@ -11018,7 +11022,7 @@
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>503</v>
       </c>
@@ -11038,7 +11042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="150.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>503</v>
       </c>
@@ -11057,7 +11061,7 @@
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="135.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>503</v>
       </c>
@@ -11077,7 +11081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>503</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>503</v>
       </c>
@@ -11117,7 +11121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="83.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>503</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="83.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>503</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="69.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>503</v>
       </c>
@@ -11177,7 +11181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>503</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>503</v>
       </c>
@@ -11218,7 +11222,7 @@
       </c>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>503</v>
       </c>
@@ -11239,7 +11243,7 @@
       </c>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="60.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>503</v>
       </c>
@@ -11260,7 +11264,7 @@
       </c>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="31.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>503</v>
       </c>
@@ -11281,7 +11285,7 @@
       </c>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="97" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>503</v>
       </c>
@@ -11300,7 +11304,7 @@
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" customFormat="false" ht="71.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="71.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>503</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>503</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>503</v>
       </c>
@@ -11360,7 +11364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>503</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>503</v>
       </c>
@@ -11400,7 +11404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>503</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>503</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>503</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>503</v>
       </c>
@@ -11480,7 +11484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>503</v>
       </c>
@@ -11500,7 +11504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>503</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>503</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>503</v>
       </c>
@@ -11560,7 +11564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>503</v>
       </c>
@@ -11580,7 +11584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>503</v>
       </c>
@@ -11600,7 +11604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>503</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>503</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>503</v>
       </c>
@@ -11680,7 +11684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>503</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>503</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>503</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>503</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>503</v>
       </c>
@@ -11780,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>503</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>503</v>
       </c>
@@ -11820,7 +11824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>503</v>
       </c>
@@ -11840,7 +11844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>503</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>503</v>
       </c>
@@ -11880,7 +11884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>503</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>503</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>503</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>503</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>503</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>503</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>503</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>503</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>503</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>503</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>503</v>
       </c>
@@ -12100,7 +12104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>503</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>503</v>
       </c>
@@ -12140,7 +12144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>503</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>503</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>503</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>503</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>503</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>503</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>503</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>503</v>
       </c>
@@ -12300,7 +12304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>503</v>
       </c>
@@ -12320,7 +12324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>503</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>503</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>503</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>503</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>503</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>503</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>503</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>503</v>
       </c>
@@ -12480,7 +12484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>503</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>503</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>503</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>503</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>503</v>
       </c>
@@ -12580,7 +12584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>503</v>
       </c>
@@ -12600,7 +12604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>503</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>503</v>
       </c>
@@ -12640,7 +12644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>503</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>503</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>503</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>503</v>
       </c>
@@ -12720,7 +12724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>503</v>
       </c>
@@ -12740,7 +12744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>503</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>503</v>
       </c>
@@ -12780,7 +12784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>503</v>
       </c>
@@ -12800,7 +12804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>503</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>503</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>503</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>503</v>
       </c>
@@ -12880,7 +12884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>503</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>503</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -12940,7 +12944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>503</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>503</v>
       </c>
@@ -12980,7 +12984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>503</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>503</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>503</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>503</v>
       </c>
@@ -13060,7 +13064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>503</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>503</v>
       </c>
@@ -13100,7 +13104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>503</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>503</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>503</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>503</v>
       </c>
@@ -13180,7 +13184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>503</v>
       </c>
@@ -13200,7 +13204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>503</v>
       </c>
@@ -13220,7 +13224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>503</v>
       </c>
@@ -13240,7 +13244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>503</v>
       </c>
@@ -13260,7 +13264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>503</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>503</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>503</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>503</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>503</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>503</v>
       </c>
@@ -13380,7 +13384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>503</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>503</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>503</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>503</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>503</v>
       </c>
@@ -13480,7 +13484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>503</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>503</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>503</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>503</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13620,7 +13624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13640,7 +13644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13680,7 +13684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13700,7 +13704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13740,7 +13744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13800,7 +13804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13880,7 +13884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13900,7 +13904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13960,7 +13964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14000,7 +14004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14020,7 +14024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14040,7 +14044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14060,7 +14064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14100,7 +14104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14113,14 +14117,14 @@
       <c r="D397" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E397" s="1" t="s">
+      <c r="E397" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14133,14 +14137,14 @@
       <c r="D398" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E398" s="1" t="s">
+      <c r="E398" s="2" t="s">
         <v>1160</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14153,14 +14157,14 @@
       <c r="D399" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E399" s="1" t="s">
+      <c r="E399" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14173,14 +14177,14 @@
       <c r="D400" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E400" s="1" t="s">
+      <c r="E400" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14193,14 +14197,14 @@
       <c r="D401" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E401" s="1" t="s">
+      <c r="E401" s="2" t="s">
         <v>1168</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14213,14 +14217,14 @@
       <c r="D402" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E402" s="1" t="s">
+      <c r="E402" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14233,14 +14237,14 @@
       <c r="D403" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E403" s="1" t="s">
+      <c r="E403" s="2" t="s">
         <v>1174</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14253,14 +14257,14 @@
       <c r="D404" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E404" s="1" t="s">
+      <c r="E404" s="2" t="s">
         <v>1177</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14273,14 +14277,14 @@
       <c r="D405" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E405" s="1" t="s">
+      <c r="E405" s="2" t="s">
         <v>1180</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14293,14 +14297,14 @@
       <c r="D406" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="E406" s="2" t="s">
         <v>1183</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14313,14 +14317,14 @@
       <c r="D407" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E407" s="1" t="s">
+      <c r="E407" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="120.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14333,14 +14337,14 @@
       <c r="D408" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E408" s="1" t="s">
+      <c r="E408" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14353,14 +14357,14 @@
       <c r="D409" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E409" s="1" t="s">
+      <c r="E409" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14373,14 +14377,14 @@
       <c r="D410" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E410" s="1" t="s">
+      <c r="E410" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14393,14 +14397,14 @@
       <c r="D411" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="E411" s="2" t="s">
         <v>1198</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14413,14 +14417,14 @@
       <c r="D412" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E412" s="1" t="s">
+      <c r="E412" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14433,14 +14437,14 @@
       <c r="D413" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="E413" s="2" t="s">
         <v>1204</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14453,14 +14457,14 @@
       <c r="D414" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E414" s="1" t="s">
+      <c r="E414" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14473,14 +14477,14 @@
       <c r="D415" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E415" s="1" t="s">
+      <c r="E415" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14493,14 +14497,14 @@
       <c r="D416" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E416" s="1" t="s">
+      <c r="E416" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14513,14 +14517,14 @@
       <c r="D417" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E417" s="1" t="s">
+      <c r="E417" s="2" t="s">
         <v>1216</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14533,14 +14537,14 @@
       <c r="D418" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E418" s="1" t="s">
+      <c r="E418" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14553,14 +14557,14 @@
       <c r="D419" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E419" s="1" t="s">
+      <c r="E419" s="2" t="s">
         <v>1222</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14580,7 +14584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14600,7 +14604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14620,7 +14624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14660,7 +14664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14740,7 +14744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14760,7 +14764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14780,7 +14784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14800,7 +14804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14840,7 +14844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14860,7 +14864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14880,7 +14884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14900,7 +14904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14960,7 +14964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14980,7 +14984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15000,7 +15004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15020,7 +15024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15040,7 +15044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15100,7 +15104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15240,7 +15244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15260,7 +15264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15280,7 +15284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15300,7 +15304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15320,7 +15324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15340,7 +15344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15360,7 +15364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15400,7 +15404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15420,7 +15424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15480,7 +15484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15500,7 +15504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15540,7 +15544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15560,7 +15564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15580,7 +15584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15600,7 +15604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15620,7 +15624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15640,7 +15644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15660,7 +15664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15680,7 +15684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15700,7 +15704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15720,7 +15724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15780,7 +15784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15800,7 +15804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15820,7 +15824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15840,7 +15844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15860,7 +15864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15940,7 +15944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>1153</v>
       </c>
@@ -15980,7 +15984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16000,7 +16004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16060,7 +16064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16080,7 +16084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16140,7 +16144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16160,7 +16164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16180,7 +16184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16200,7 +16204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16240,7 +16244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16260,7 +16264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16280,7 +16284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16300,7 +16304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16320,7 +16324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16340,7 +16344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16360,7 +16364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16380,7 +16384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16460,7 +16464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16540,7 +16544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16560,7 +16564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16580,7 +16584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16660,7 +16664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16700,7 +16704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16760,7 +16764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16780,7 +16784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16800,7 +16804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16820,7 +16824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16840,7 +16844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16900,7 +16904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16940,7 +16944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16960,7 +16964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16980,7 +16984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17020,7 +17024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17040,7 +17044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17060,7 +17064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17080,7 +17084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17100,7 +17104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17120,7 +17124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17140,7 +17144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17340,7 +17344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17360,7 +17364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17380,7 +17384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17440,7 +17444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17460,7 +17464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17480,7 +17484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17500,7 +17504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17540,7 +17544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17580,7 +17584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17600,7 +17604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17620,7 +17624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17640,7 +17644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17680,7 +17684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17700,7 +17704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17720,7 +17724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17760,7 +17764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17800,7 +17804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17820,7 +17824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17860,7 +17864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17880,7 +17884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17900,7 +17904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17940,7 +17944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17960,7 +17964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="7" t="s">
         <v>1153</v>
       </c>
@@ -17980,7 +17984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18020,7 +18024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18040,7 +18044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18060,7 +18064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18080,7 +18084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18100,7 +18104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18140,7 +18144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18160,7 +18164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18180,7 +18184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18220,7 +18224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18240,7 +18244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18280,7 +18284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18300,7 +18304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18320,7 +18324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18380,7 +18384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18400,7 +18404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18420,7 +18424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18440,7 +18444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18460,7 +18464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18520,7 +18524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="7" t="s">
         <v>1153</v>
       </c>
@@ -18540,7 +18544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18560,7 +18564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18600,7 +18604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18620,7 +18624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18640,7 +18644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18660,7 +18664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18680,7 +18684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18740,7 +18744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18760,7 +18764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18780,7 +18784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18800,7 +18804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18820,7 +18824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18840,7 +18844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18860,7 +18864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18880,7 +18884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18900,7 +18904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18920,7 +18924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18940,7 +18944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18980,7 +18984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19000,7 +19004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19020,7 +19024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19040,7 +19044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19100,7 +19104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19120,7 +19124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19140,7 +19144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19160,7 +19164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19180,7 +19184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19200,7 +19204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19240,7 +19244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19260,7 +19264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19280,7 +19284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19300,7 +19304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19320,7 +19324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19340,7 +19344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19360,7 +19364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19380,7 +19384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19400,7 +19404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19420,7 +19424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
         <v>1153</v>
       </c>
@@ -19441,7 +19445,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G663"/>
+  <autoFilter ref="A1:G663">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Economia Brasileira Contemporânea"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Cap. 1 – Aspectos Demográficos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
+++ b/backend/django_cemos2028/apps/informacoes/fixtures/conceitos.xlsx
@@ -6507,8 +6507,8 @@
   </sheetPr>
   <dimension ref="A1:H663"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B397" activeCellId="0" sqref="B397:B419"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A650" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B419" activeCellId="0" sqref="B419:B663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10905,7 +10905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>503</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>503</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>503</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="151.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>503</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
     </row>
-    <row r="241" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>503</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>503</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>503</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>503</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
         <v>503</v>
       </c>
@@ -15834,9 +15834,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B420" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1223</v>
@@ -15854,9 +15857,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B421" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1227</v>
@@ -15874,9 +15880,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B422" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1230</v>
@@ -15894,9 +15903,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B423" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1233</v>
@@ -15914,9 +15926,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B424" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1236</v>
@@ -15934,9 +15949,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B425" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1239</v>
@@ -15954,9 +15972,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B426" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1242</v>
@@ -15974,9 +15995,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B427" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1245</v>
@@ -15994,9 +16018,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B428" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1248</v>
@@ -16014,9 +16041,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B429" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1251</v>
@@ -16034,9 +16064,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B430" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1254</v>
@@ -16054,9 +16087,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B431" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1257</v>
@@ -16074,9 +16110,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B432" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1260</v>
@@ -16094,9 +16133,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B433" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1263</v>
@@ -16114,9 +16156,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B434" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1266</v>
@@ -16134,9 +16179,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B435" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1269</v>
@@ -16154,9 +16202,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B436" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>1272</v>
@@ -16174,9 +16225,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B437" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1275</v>
@@ -16194,9 +16248,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B438" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1278</v>
@@ -16214,9 +16271,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B439" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>1281</v>
@@ -16234,9 +16294,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B440" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1284</v>
@@ -16254,9 +16317,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B441" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>1287</v>
@@ -16274,9 +16340,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B442" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1290</v>
@@ -16294,9 +16363,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B443" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>1293</v>
@@ -16314,9 +16386,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B444" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>1296</v>
@@ -16334,9 +16409,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B445" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>1299</v>
@@ -16354,9 +16432,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B446" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>1302</v>
@@ -16374,9 +16455,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B447" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>1305</v>
@@ -16394,9 +16478,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B448" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>1308</v>
@@ -16414,9 +16501,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B449" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>1311</v>
@@ -16434,9 +16524,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B450" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>1314</v>
@@ -16454,9 +16547,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B451" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>1317</v>
@@ -16474,9 +16570,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B452" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>1320</v>
@@ -16494,9 +16593,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B453" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>1323</v>
@@ -16514,9 +16616,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B454" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>1326</v>
@@ -16534,9 +16639,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B455" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>1329</v>
@@ -16554,9 +16662,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B456" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>1332</v>
@@ -16574,9 +16685,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B457" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>1335</v>
@@ -16594,9 +16708,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B458" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>1338</v>
@@ -16614,9 +16731,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B459" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>1341</v>
@@ -16634,9 +16754,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B460" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>1344</v>
@@ -16654,9 +16777,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B461" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>1347</v>
@@ -16674,9 +16800,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B462" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>1350</v>
@@ -16694,9 +16823,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B463" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>1353</v>
@@ -16714,9 +16846,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B464" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>1356</v>
@@ -16734,9 +16869,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B465" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>1359</v>
@@ -16754,9 +16892,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B466" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>1362</v>
@@ -16774,9 +16915,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B467" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>1365</v>
@@ -16794,9 +16938,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B468" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>1368</v>
@@ -16814,9 +16961,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B469" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>1371</v>
@@ -16834,9 +16984,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B470" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>1374</v>
@@ -16854,9 +17007,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B471" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1245</v>
@@ -16874,9 +17030,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B472" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>1380</v>
@@ -16894,9 +17053,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B473" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>1383</v>
@@ -16914,9 +17076,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B474" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>1386</v>
@@ -16934,9 +17099,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B475" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>1389</v>
@@ -16954,9 +17122,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B476" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>1392</v>
@@ -16974,9 +17145,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B477" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>1395</v>
@@ -16994,9 +17168,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B478" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>1398</v>
@@ -17014,9 +17191,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B479" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>1401</v>
@@ -17034,9 +17214,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B480" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>1404</v>
@@ -17054,9 +17237,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B481" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>1407</v>
@@ -17074,9 +17260,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B482" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>1410</v>
@@ -17094,9 +17283,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B483" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>1413</v>
@@ -17114,9 +17306,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B484" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>1416</v>
@@ -17134,9 +17329,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B485" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>1419</v>
@@ -17154,9 +17352,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B486" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>1422</v>
@@ -17174,9 +17375,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B487" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>1425</v>
@@ -17194,9 +17398,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B488" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>1428</v>
@@ -17214,9 +17421,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B489" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>1431</v>
@@ -17234,9 +17444,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B490" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>1435</v>
@@ -17254,9 +17467,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B491" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>1438</v>
@@ -17274,9 +17490,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B492" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>1441</v>
@@ -17294,9 +17513,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B493" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>1444</v>
@@ -17314,9 +17536,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B494" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>1447</v>
@@ -17334,9 +17559,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B495" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>1450</v>
@@ -17354,9 +17582,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B496" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>1453</v>
@@ -17374,9 +17605,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B497" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>1456</v>
@@ -17394,9 +17628,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B498" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>1459</v>
@@ -17414,9 +17651,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B499" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>1462</v>
@@ -17434,9 +17674,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B500" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>1465</v>
@@ -17454,9 +17697,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B501" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>1468</v>
@@ -17474,9 +17720,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B502" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>1471</v>
@@ -17494,9 +17743,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B503" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>1475</v>
@@ -17514,9 +17766,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B504" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>1236</v>
@@ -17534,9 +17789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B505" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>1480</v>
@@ -17554,9 +17812,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B506" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>1483</v>
@@ -17574,9 +17835,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B507" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>1239</v>
@@ -17594,9 +17858,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B508" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>1488</v>
@@ -17614,9 +17881,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B509" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>1491</v>
@@ -17634,9 +17904,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B510" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>1494</v>
@@ -17654,9 +17927,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B511" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>1497</v>
@@ -17674,9 +17950,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B512" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>1500</v>
@@ -17694,9 +17973,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B513" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>1503</v>
@@ -17714,9 +17996,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B514" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>1506</v>
@@ -17734,9 +18019,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B515" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>1509</v>
@@ -17754,9 +18042,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B516" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>1512</v>
@@ -17774,9 +18065,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B517" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>1515</v>
@@ -17794,9 +18088,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B518" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>1518</v>
@@ -17814,9 +18111,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B519" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>1521</v>
@@ -17834,9 +18134,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B520" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>1524</v>
@@ -17854,9 +18157,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B521" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>1527</v>
@@ -17874,9 +18180,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B522" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>1530</v>
@@ -17894,9 +18203,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B523" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>1533</v>
@@ -17914,9 +18226,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B524" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>1536</v>
@@ -17934,9 +18249,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B525" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>1539</v>
@@ -17954,9 +18272,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B526" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>1542</v>
@@ -17974,9 +18295,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B527" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>1546</v>
@@ -17994,9 +18318,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B528" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>1284</v>
@@ -18014,9 +18341,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B529" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>1551</v>
@@ -18034,9 +18364,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B530" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>1554</v>
@@ -18054,9 +18387,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B531" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>1557</v>
@@ -18074,9 +18410,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B532" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>1560</v>
@@ -18094,9 +18433,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B533" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>1563</v>
@@ -18114,9 +18456,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B534" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>1566</v>
@@ -18134,9 +18479,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B535" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>1569</v>
@@ -18154,9 +18502,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B536" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>1236</v>
@@ -18174,9 +18525,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B537" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>1575</v>
@@ -18194,9 +18548,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B538" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>1578</v>
@@ -18214,9 +18571,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B539" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>1248</v>
@@ -18234,9 +18594,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B540" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>1583</v>
@@ -18254,9 +18617,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B541" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>1586</v>
@@ -18274,9 +18640,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B542" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>1589</v>
@@ -18294,9 +18663,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B543" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>1592</v>
@@ -18314,9 +18686,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B544" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>1595</v>
@@ -18334,9 +18709,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B545" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>1598</v>
@@ -18354,9 +18732,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B546" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>1601</v>
@@ -18374,9 +18755,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B547" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>1604</v>
@@ -18394,9 +18778,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B548" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>1607</v>
@@ -18414,9 +18801,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B549" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>1610</v>
@@ -18434,9 +18824,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B550" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>1613</v>
@@ -18454,9 +18847,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B551" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>1616</v>
@@ -18474,9 +18870,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B552" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>1619</v>
@@ -18494,9 +18893,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B553" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>1622</v>
@@ -18514,9 +18916,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B554" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>1625</v>
@@ -18534,9 +18939,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B555" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>1628</v>
@@ -18554,9 +18962,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B556" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>1631</v>
@@ -18574,9 +18985,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B557" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>1634</v>
@@ -18594,11 +19008,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B558" s="8"/>
+      <c r="B558" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C558" s="8" t="s">
         <v>1637</v>
       </c>
@@ -18615,11 +19031,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B559" s="8"/>
+      <c r="B559" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C559" s="8" t="s">
         <v>1641</v>
       </c>
@@ -18636,11 +19054,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B560" s="8"/>
+      <c r="B560" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C560" s="8" t="s">
         <v>1644</v>
       </c>
@@ -18657,11 +19077,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B561" s="8"/>
+      <c r="B561" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C561" s="8" t="s">
         <v>1647</v>
       </c>
@@ -18678,11 +19100,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B562" s="8"/>
+      <c r="B562" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C562" s="8" t="s">
         <v>1650</v>
       </c>
@@ -18699,11 +19123,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B563" s="8"/>
+      <c r="B563" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C563" s="8" t="s">
         <v>1653</v>
       </c>
@@ -18720,11 +19146,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B564" s="8"/>
+      <c r="B564" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C564" s="8" t="s">
         <v>1656</v>
       </c>
@@ -18741,11 +19169,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B565" s="8"/>
+      <c r="B565" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C565" s="8" t="s">
         <v>1659</v>
       </c>
@@ -18762,11 +19192,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B566" s="8"/>
+      <c r="B566" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C566" s="8" t="s">
         <v>1662</v>
       </c>
@@ -18783,11 +19215,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B567" s="8"/>
+      <c r="B567" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C567" s="8" t="s">
         <v>1665</v>
       </c>
@@ -18804,11 +19238,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B568" s="8"/>
+      <c r="B568" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C568" s="8" t="s">
         <v>1668</v>
       </c>
@@ -18825,11 +19261,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B569" s="8"/>
+      <c r="B569" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C569" s="8" t="s">
         <v>1671</v>
       </c>
@@ -18846,11 +19284,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B570" s="8"/>
+      <c r="B570" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C570" s="8" t="s">
         <v>1674</v>
       </c>
@@ -18867,11 +19307,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B571" s="8"/>
+      <c r="B571" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C571" s="8" t="s">
         <v>1677</v>
       </c>
@@ -18888,11 +19330,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B572" s="8"/>
+      <c r="B572" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C572" s="8" t="s">
         <v>1680</v>
       </c>
@@ -18909,11 +19353,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B573" s="8"/>
+      <c r="B573" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C573" s="8" t="s">
         <v>1683</v>
       </c>
@@ -18930,11 +19376,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B574" s="8"/>
+      <c r="B574" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C574" s="8" t="s">
         <v>1686</v>
       </c>
@@ -18951,11 +19399,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B575" s="8"/>
+      <c r="B575" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C575" s="8" t="s">
         <v>1689</v>
       </c>
@@ -18972,11 +19422,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B576" s="8"/>
+      <c r="B576" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C576" s="8" t="s">
         <v>1692</v>
       </c>
@@ -18993,11 +19445,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B577" s="8"/>
+      <c r="B577" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C577" s="8" t="s">
         <v>1695</v>
       </c>
@@ -19014,11 +19468,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B578" s="8"/>
+      <c r="B578" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C578" s="8" t="s">
         <v>1698</v>
       </c>
@@ -19035,11 +19491,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B579" s="8"/>
+      <c r="B579" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C579" s="8" t="s">
         <v>1701</v>
       </c>
@@ -19056,11 +19514,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B580" s="8"/>
+      <c r="B580" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C580" s="8" t="s">
         <v>1704</v>
       </c>
@@ -19077,11 +19537,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B581" s="8"/>
+      <c r="B581" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C581" s="8" t="s">
         <v>1707</v>
       </c>
@@ -19098,11 +19560,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B582" s="8"/>
+      <c r="B582" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C582" s="8" t="s">
         <v>1710</v>
       </c>
@@ -19119,11 +19583,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B583" s="8"/>
+      <c r="B583" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C583" s="8" t="s">
         <v>1713</v>
       </c>
@@ -19140,11 +19606,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B584" s="8"/>
+      <c r="B584" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C584" s="8" t="s">
         <v>1716</v>
       </c>
@@ -19161,11 +19629,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B585" s="8"/>
+      <c r="B585" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C585" s="8" t="s">
         <v>1719</v>
       </c>
@@ -19182,11 +19652,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B586" s="8"/>
+      <c r="B586" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C586" s="8" t="s">
         <v>1722</v>
       </c>
@@ -19203,11 +19675,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B587" s="8"/>
+      <c r="B587" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C587" s="8" t="s">
         <v>1725</v>
       </c>
@@ -19224,11 +19698,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B588" s="8"/>
+      <c r="B588" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C588" s="8" t="s">
         <v>1728</v>
       </c>
@@ -19245,11 +19721,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B589" s="8"/>
+      <c r="B589" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C589" s="8" t="s">
         <v>1731</v>
       </c>
@@ -19266,11 +19744,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B590" s="8"/>
+      <c r="B590" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C590" s="8" t="s">
         <v>1734</v>
       </c>
@@ -19287,11 +19767,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B591" s="8"/>
+      <c r="B591" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C591" s="8" t="s">
         <v>1737</v>
       </c>
@@ -19308,11 +19790,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B592" s="8"/>
+      <c r="B592" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C592" s="8" t="s">
         <v>1740</v>
       </c>
@@ -19329,11 +19813,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B593" s="8"/>
+      <c r="B593" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C593" s="8" t="s">
         <v>1743</v>
       </c>
@@ -19350,11 +19836,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B594" s="8"/>
+      <c r="B594" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C594" s="8" t="s">
         <v>1746</v>
       </c>
@@ -19371,11 +19859,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B595" s="8"/>
+      <c r="B595" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C595" s="8" t="s">
         <v>1749</v>
       </c>
@@ -19392,11 +19882,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B596" s="8"/>
+      <c r="B596" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C596" s="8" t="s">
         <v>1752</v>
       </c>
@@ -19413,11 +19905,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B597" s="8"/>
+      <c r="B597" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C597" s="8" t="s">
         <v>1755</v>
       </c>
@@ -19434,11 +19928,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B598" s="8"/>
+      <c r="B598" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C598" s="8" t="s">
         <v>1758</v>
       </c>
@@ -19455,11 +19951,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B599" s="8"/>
+      <c r="B599" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C599" s="8" t="s">
         <v>1761</v>
       </c>
@@ -19476,11 +19974,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B600" s="8"/>
+      <c r="B600" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C600" s="8" t="s">
         <v>1764</v>
       </c>
@@ -19497,11 +19997,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B601" s="8"/>
+      <c r="B601" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C601" s="8" t="s">
         <v>1767</v>
       </c>
@@ -19518,11 +20020,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B602" s="8"/>
+      <c r="B602" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C602" s="8" t="s">
         <v>1770</v>
       </c>
@@ -19539,11 +20043,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B603" s="8"/>
+      <c r="B603" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C603" s="8" t="s">
         <v>1773</v>
       </c>
@@ -19560,11 +20066,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B604" s="8"/>
+      <c r="B604" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C604" s="8" t="s">
         <v>1776</v>
       </c>
@@ -19581,11 +20089,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B605" s="8"/>
+      <c r="B605" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C605" s="8" t="s">
         <v>1779</v>
       </c>
@@ -19602,11 +20112,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B606" s="8"/>
+      <c r="B606" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C606" s="8" t="s">
         <v>1782</v>
       </c>
@@ -19623,11 +20135,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B607" s="8"/>
+      <c r="B607" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C607" s="8" t="s">
         <v>1785</v>
       </c>
@@ -19644,11 +20158,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B608" s="8"/>
+      <c r="B608" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C608" s="8" t="s">
         <v>1788</v>
       </c>
@@ -19665,11 +20181,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B609" s="8"/>
+      <c r="B609" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C609" s="8" t="s">
         <v>1791</v>
       </c>
@@ -19686,11 +20204,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B610" s="8"/>
+      <c r="B610" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C610" s="8" t="s">
         <v>1794</v>
       </c>
@@ -19707,11 +20227,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B611" s="8"/>
+      <c r="B611" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C611" s="8" t="s">
         <v>1797</v>
       </c>
@@ -19728,11 +20250,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B612" s="8"/>
+      <c r="B612" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C612" s="8" t="s">
         <v>1800</v>
       </c>
@@ -19749,11 +20273,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B613" s="8"/>
+      <c r="B613" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C613" s="8" t="s">
         <v>1803</v>
       </c>
@@ -19770,11 +20296,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B614" s="8"/>
+      <c r="B614" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C614" s="8" t="s">
         <v>1806</v>
       </c>
@@ -19791,11 +20319,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B615" s="8"/>
+      <c r="B615" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C615" s="8" t="s">
         <v>1809</v>
       </c>
@@ -19812,11 +20342,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B616" s="8"/>
+      <c r="B616" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C616" s="8" t="s">
         <v>1812</v>
       </c>
@@ -19833,11 +20365,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B617" s="8"/>
+      <c r="B617" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C617" s="8" t="s">
         <v>1815</v>
       </c>
@@ -19854,11 +20388,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B618" s="8"/>
+      <c r="B618" s="5" t="n">
+        <v>30</v>
+      </c>
       <c r="C618" s="8" t="s">
         <v>1818</v>
       </c>
@@ -19875,9 +20411,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B619" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>1821</v>
@@ -19895,9 +20434,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B620" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>1825</v>
@@ -19915,9 +20457,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B621" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>1828</v>
@@ -19935,9 +20480,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B622" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>1831</v>
@@ -19955,9 +20503,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B623" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>1834</v>
@@ -19975,9 +20526,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B624" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>1837</v>
@@ -19995,9 +20549,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B625" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>1840</v>
@@ -20015,9 +20572,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B626" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>1843</v>
@@ -20035,9 +20595,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B627" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>1846</v>
@@ -20055,9 +20618,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B628" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>1849</v>
@@ -20075,9 +20641,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B629" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>1852</v>
@@ -20095,9 +20664,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B630" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>1855</v>
@@ -20115,9 +20687,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B631" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>1858</v>
@@ -20135,9 +20710,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B632" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>1861</v>
@@ -20155,9 +20733,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B633" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>1864</v>
@@ -20175,9 +20756,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B634" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>1867</v>
@@ -20195,9 +20779,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B635" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>1870</v>
@@ -20215,9 +20802,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B636" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>1873</v>
@@ -20235,9 +20825,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B637" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>1876</v>
@@ -20255,9 +20848,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B638" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>1879</v>
@@ -20275,9 +20871,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B639" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>1882</v>
@@ -20295,9 +20894,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B640" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>1885</v>
@@ -20315,9 +20917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B641" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>1888</v>
@@ -20335,9 +20940,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B642" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>1891</v>
@@ -20355,9 +20963,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B643" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>1894</v>
@@ -20375,9 +20986,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B644" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>1897</v>
@@ -20395,9 +21009,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B645" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>1900</v>
@@ -20415,9 +21032,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B646" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>1903</v>
@@ -20435,9 +21055,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B647" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>1906</v>
@@ -20455,9 +21078,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B648" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>1909</v>
@@ -20475,9 +21101,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B649" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>1912</v>
@@ -20495,9 +21124,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B650" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>1915</v>
@@ -20515,9 +21147,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B651" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>1236</v>
@@ -20535,9 +21170,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B652" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>1921</v>
@@ -20555,9 +21193,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B653" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>1924</v>
@@ -20575,9 +21216,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B654" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>1927</v>
@@ -20595,9 +21239,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B655" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>1930</v>
@@ -20615,9 +21262,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B656" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>1933</v>
@@ -20635,9 +21285,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B657" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>1936</v>
@@ -20655,9 +21308,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B658" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>1939</v>
@@ -20675,9 +21331,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B659" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>1942</v>
@@ -20695,9 +21354,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B660" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>1945</v>
@@ -20715,9 +21377,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B661" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>1948</v>
@@ -20735,9 +21400,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B662" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>1951</v>
@@ -20755,9 +21423,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
         <v>1153</v>
+      </c>
+      <c r="B663" s="5" t="n">
+        <v>30</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>1954</v>
